--- a/THUNG_GAO_IOT/TAI CHINH/buoc_nhay_san_pham_ko_tra_luong_ban_dau.xlsx
+++ b/THUNG_GAO_IOT/TAI CHINH/buoc_nhay_san_pham_ko_tra_luong_ban_dau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDT\Desktop\PROJECTS\THUNG_GAO_IOT\TAI CHINH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9EDE56-AA28-4BCC-83FA-CC062E01A9B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0083F00F-2E64-46C8-85F7-276BA8BAF419}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3A1884C2-1EFC-44AC-BA95-2AB60B7F898A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Lưu ý tránh thuế thì phải lỗ tất cả các tháng, các năm đầu</t>
   </si>
@@ -71,9 +71,6 @@
     <t>chi phí nhân công/sp</t>
   </si>
   <si>
-    <t>chi phí sp công nhân</t>
-  </si>
-  <si>
     <t>sp dự đoán</t>
   </si>
   <si>
@@ -81,6 +78,39 @@
   </si>
   <si>
     <t>ước lượng công nhân</t>
+  </si>
+  <si>
+    <t>chi phí CN</t>
+  </si>
+  <si>
+    <t>Doanh thu</t>
+  </si>
+  <si>
+    <t>chi phí sp CN</t>
+  </si>
+  <si>
+    <t>Chi phí</t>
+  </si>
+  <si>
+    <t>Lợi nhuân</t>
+  </si>
+  <si>
+    <t>thuế</t>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>tỷ suất</t>
+  </si>
+  <si>
+    <t>DN lợi</t>
+  </si>
+  <si>
+    <t>số cổ phiếu</t>
+  </si>
+  <si>
+    <t>Lợi nhuận biên</t>
   </si>
 </sst>
 </file>
@@ -116,10 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -434,30 +465,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B8D127-5AD6-47DC-B6C3-A8636D1C28B5}">
-  <dimension ref="A1:P124"/>
+  <dimension ref="A1:X124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="14" width="20.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -476,10 +516,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -491,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -506,13 +546,40 @@
         <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -526,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f>M4*(C4/J4)</f>
+        <f t="shared" ref="E4:E15" si="0">M4*(C4/J4)</f>
         <v>0</v>
       </c>
       <c r="F4">
@@ -541,7 +608,7 @@
         <v>105000000</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I15" si="0">F4*M4+E4</f>
+        <f t="shared" ref="I4:I15" si="1">F4*M4+E4</f>
         <v>5000000</v>
       </c>
       <c r="J4" s="1">
@@ -551,14 +618,14 @@
         <v>9900</v>
       </c>
       <c r="L4">
-        <f>ROUNDUP((F4+D4)/30,1)</f>
+        <f t="shared" ref="L4:L35" si="2">ROUNDUP((F4+D4)/30,1)</f>
         <v>33.4</v>
       </c>
       <c r="M4">
         <v>5000</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N68" si="1">ROUNDUP(L4/40,0.1)</f>
+        <f t="shared" ref="N4:N68" si="3">ROUNDUP(L4/40,0.1)</f>
         <v>1</v>
       </c>
       <c r="O4">
@@ -569,25 +636,57 @@
         <f>SUM(I4:I28)</f>
         <v>106281163.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f>SUM(C5:C16)</f>
+        <v>1136060640</v>
+      </c>
+      <c r="R4">
+        <f>SUM(C5:C15)</f>
+        <v>925623270</v>
+      </c>
+      <c r="S4">
+        <f>Q4-R4</f>
+        <v>210437370</v>
+      </c>
+      <c r="T4">
+        <f>S4*0.8</f>
+        <v>168349896</v>
+      </c>
+      <c r="U4">
+        <f>T4/O4*100</f>
+        <v>12.887722850487235</v>
+      </c>
+      <c r="V4">
+        <f>S4/Q4*100</f>
+        <v>18.523427587456951</v>
+      </c>
+      <c r="W4">
+        <f>T4*0.2</f>
+        <v>33669979.200000003</v>
+      </c>
+      <c r="X4">
+        <f>(T4/Q4)*100</f>
+        <v>14.818742069965559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <f>ROUND(F4+B4+D4,1)</f>
+        <f t="shared" ref="B5:B36" si="4">ROUND(F4+B4+D4,1)</f>
         <v>1000</v>
       </c>
       <c r="C5" s="2">
-        <f>B5*K4</f>
+        <f t="shared" ref="C5:C36" si="5">B5*K4</f>
         <v>9900000</v>
       </c>
       <c r="D5" s="2">
-        <f>ROUND((C5+E5)/(M5+J5),1)</f>
+        <f t="shared" ref="D5:D36" si="6">ROUND((C5+E5)/(M5+J5),1)</f>
         <v>99</v>
       </c>
       <c r="E5" s="2">
-        <f>M5*(C5/J5)</f>
+        <f t="shared" si="0"/>
         <v>495000</v>
       </c>
       <c r="F5">
@@ -597,11 +696,11 @@
         <v>100000000</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H15" si="2">G5+I5</f>
+        <f t="shared" ref="H5:H15" si="7">G5+I5</f>
         <v>105495000</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5495000</v>
       </c>
       <c r="J5" s="1">
@@ -611,35 +710,67 @@
         <v>9900</v>
       </c>
       <c r="L5">
-        <f>ROUNDUP((F5+D5)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>36.700000000000003</v>
       </c>
       <c r="M5">
         <v>5000</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f>SUM(C16:C28)</f>
+        <v>4968822870</v>
+      </c>
+      <c r="R5">
+        <f>SUM(C16:C27)</f>
+        <v>4348393830</v>
+      </c>
+      <c r="S5">
+        <f>Q5-R5</f>
+        <v>620429040</v>
+      </c>
+      <c r="T5">
+        <f>S5*0.8</f>
+        <v>496343232</v>
+      </c>
+      <c r="U5">
+        <f>T5/O4*100</f>
+        <v>37.99666150510177</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V8" si="8">S5/Q5*100</f>
+        <v>12.48643906680457</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W8" si="9">T5*0.2</f>
+        <v>99268646.400000006</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X8" si="10">(T5/Q5)*100</f>
+        <v>9.9891512534436551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <f>ROUND(F5+B5+D5,1)</f>
+        <f t="shared" si="4"/>
         <v>2099</v>
       </c>
       <c r="C6">
-        <f>B6*K5</f>
+        <f t="shared" si="5"/>
         <v>20780100</v>
       </c>
       <c r="D6" s="2">
-        <f>ROUND((C6+E6)/(M6+J6),1)</f>
+        <f t="shared" si="6"/>
         <v>207.8</v>
       </c>
       <c r="E6" s="2">
-        <f>M6*(C6/J6)</f>
+        <f t="shared" si="0"/>
         <v>1039004.9999999999</v>
       </c>
       <c r="F6">
@@ -649,7 +780,7 @@
         <v>100000000</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>106039005</v>
       </c>
       <c r="I6">
@@ -663,35 +794,67 @@
         <v>9900</v>
       </c>
       <c r="L6">
-        <f>ROUNDUP((F6+D6)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>40.300000000000004</v>
       </c>
       <c r="M6">
         <v>5000</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f>SUM(C28:C40)</f>
+        <v>14649468570</v>
+      </c>
+      <c r="R6">
+        <f>SUM(C28:C39)</f>
+        <v>12820272300</v>
+      </c>
+      <c r="S6">
+        <f>Q6-R6</f>
+        <v>1829196270</v>
+      </c>
+      <c r="T6">
+        <f>S6*0.8</f>
+        <v>1463357016</v>
+      </c>
+      <c r="U6">
+        <f>T6/O4*100</f>
+        <v>112.02465877094461</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="8"/>
+        <v>12.486434311657764</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="9"/>
+        <v>292671403.19999999</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="10"/>
+        <v>9.9891474493262127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <f>ROUND(F6+B6+D6,1)</f>
+        <f t="shared" si="4"/>
         <v>3306.8</v>
       </c>
       <c r="C7" s="2">
-        <f>B7*K6</f>
+        <f t="shared" si="5"/>
         <v>32737320</v>
       </c>
       <c r="D7" s="2">
-        <f>ROUND((C7+E7)/(M7+J7),1)</f>
+        <f t="shared" si="6"/>
         <v>327.39999999999998</v>
       </c>
       <c r="E7" s="2">
-        <f>M7*(C7/J7)</f>
+        <f t="shared" si="0"/>
         <v>1636866</v>
       </c>
       <c r="F7">
@@ -701,49 +864,81 @@
         <v>100000000</v>
       </c>
       <c r="H7">
+        <f t="shared" si="7"/>
+        <v>106636866</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>6636866</v>
+      </c>
+      <c r="J7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K7">
+        <v>9900</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="2"/>
-        <v>106636866</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>6636866</v>
-      </c>
-      <c r="J7" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K7">
-        <v>9900</v>
-      </c>
-      <c r="L7">
-        <f>ROUNDUP((F7+D7)/30,1)</f>
         <v>44.300000000000004</v>
       </c>
       <c r="M7">
         <v>5000</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <f>SUM(C40:C52)</f>
+        <v>43190735940</v>
+      </c>
+      <c r="R7">
+        <f>SUM(C40:C51)</f>
+        <v>37797751530</v>
+      </c>
+      <c r="S7">
+        <f>Q7-R7</f>
+        <v>5392984410</v>
+      </c>
+      <c r="T7">
+        <f>S7*0.8</f>
+        <v>4314387528</v>
+      </c>
+      <c r="U7">
+        <f>T7/O4*100</f>
+        <v>330.28016085298162</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="8"/>
+        <v>12.486437872908354</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="9"/>
+        <v>862877505.60000002</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="10"/>
+        <v>9.9891502983266829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <f>ROUND(F7+B7+D7,1)</f>
+        <f t="shared" si="4"/>
         <v>4634.2</v>
       </c>
       <c r="C8">
-        <f>B8*K7</f>
+        <f t="shared" si="5"/>
         <v>45878580</v>
       </c>
       <c r="D8" s="2">
-        <f>ROUND((C8+E8)/(M8+J8),1)</f>
+        <f t="shared" si="6"/>
         <v>458.8</v>
       </c>
       <c r="E8" s="2">
-        <f>M8*(C8/J8)</f>
+        <f t="shared" si="0"/>
         <v>2293929</v>
       </c>
       <c r="F8">
@@ -753,49 +948,81 @@
         <v>100000000</v>
       </c>
       <c r="H8">
+        <f t="shared" si="7"/>
+        <v>107293929</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>7293929</v>
+      </c>
+      <c r="J8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K8">
+        <v>9900</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="2"/>
-        <v>107293929</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>7293929</v>
-      </c>
-      <c r="J8" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K8">
-        <v>9900</v>
-      </c>
-      <c r="L8">
-        <f>ROUNDUP((F8+D8)/30,1)</f>
         <v>48.7</v>
       </c>
       <c r="M8">
         <v>5000</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="3">
+        <f>SUM(C52:C64)</f>
+        <v>127338376770</v>
+      </c>
+      <c r="R8">
+        <f>SUM(C52:C63)</f>
+        <v>111438349110</v>
+      </c>
+      <c r="S8">
+        <f>Q8-R8</f>
+        <v>15900027660</v>
+      </c>
+      <c r="T8">
+        <f>S8*0.8</f>
+        <v>12720022128</v>
+      </c>
+      <c r="U8">
+        <f>T8/O4*100</f>
+        <v>973.75836714344541</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="8"/>
+        <v>12.486438152670038</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="9"/>
+        <v>2544004425.5999999</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="10"/>
+        <v>9.9891505221360291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <f>ROUND(F8+B8+D8,1)</f>
+        <f t="shared" si="4"/>
         <v>6093</v>
       </c>
       <c r="C9">
-        <f>B9*K8</f>
+        <f t="shared" si="5"/>
         <v>60320700</v>
       </c>
       <c r="D9" s="2">
-        <f>ROUND((C9+E9)/(M9+J9),1)</f>
+        <f t="shared" si="6"/>
         <v>603.20000000000005</v>
       </c>
       <c r="E9" s="2">
-        <f>M9*(C9/J9)</f>
+        <f t="shared" si="0"/>
         <v>3016035</v>
       </c>
       <c r="F9">
@@ -805,49 +1032,53 @@
         <v>100000000</v>
       </c>
       <c r="H9">
+        <f t="shared" si="7"/>
+        <v>108016035</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>8016035</v>
+      </c>
+      <c r="J9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K9">
+        <v>9900</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="2"/>
-        <v>108016035</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>8016035</v>
-      </c>
-      <c r="J9" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K9">
-        <v>9900</v>
-      </c>
-      <c r="L9">
-        <f>ROUNDUP((F9+D9)/30,1)</f>
         <v>53.5</v>
       </c>
       <c r="M9">
         <v>5000</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="3">
+        <f>SUM(C64:C76)</f>
+        <v>375429186000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="2">
-        <f>ROUND(F9+B9+D9,1)</f>
+        <f t="shared" si="4"/>
         <v>7696.2</v>
       </c>
       <c r="C10">
-        <f>B10*K9</f>
+        <f t="shared" si="5"/>
         <v>76192380</v>
       </c>
       <c r="D10" s="2">
-        <f>ROUND((C10+E10)/(M10+J10),1)</f>
+        <f t="shared" si="6"/>
         <v>761.9</v>
       </c>
       <c r="E10" s="2">
-        <f>M10*(C10/J10)</f>
+        <f t="shared" si="0"/>
         <v>3809619</v>
       </c>
       <c r="F10">
@@ -857,49 +1088,53 @@
         <v>100000000</v>
       </c>
       <c r="H10">
+        <f t="shared" si="7"/>
+        <v>108809619</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>8809619</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K10">
+        <v>9900</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="2"/>
-        <v>108809619</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>8809619</v>
-      </c>
-      <c r="J10" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K10">
-        <v>9900</v>
-      </c>
-      <c r="L10">
-        <f>ROUNDUP((F10+D10)/30,1)</f>
         <v>58.800000000000004</v>
       </c>
       <c r="M10">
         <v>5000</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="3">
+        <f>SUM(C76:C88)</f>
+        <v>1106870428620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <f>ROUND(F10+B10+D10,1)</f>
+        <f t="shared" si="4"/>
         <v>9458.1</v>
       </c>
       <c r="C11">
-        <f>B11*K10</f>
+        <f t="shared" si="5"/>
         <v>93635190</v>
       </c>
       <c r="D11" s="2">
-        <f>ROUND((C11+E11)/(M11+J11),1)</f>
+        <f t="shared" si="6"/>
         <v>936.4</v>
       </c>
       <c r="E11" s="2">
-        <f>M11*(C11/J11)</f>
+        <f t="shared" si="0"/>
         <v>4681759.5</v>
       </c>
       <c r="F11">
@@ -909,49 +1144,49 @@
         <v>100000000</v>
       </c>
       <c r="H11">
+        <f t="shared" si="7"/>
+        <v>109681759.5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>9681759.5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K11">
+        <v>9900</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="2"/>
-        <v>109681759.5</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>9681759.5</v>
-      </c>
-      <c r="J11" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K11">
-        <v>9900</v>
-      </c>
-      <c r="L11">
-        <f>ROUNDUP((F11+D11)/30,1)</f>
         <v>64.599999999999994</v>
       </c>
       <c r="M11">
         <v>5000</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="2">
-        <f>ROUND(F11+B11+D11,1)</f>
+        <f t="shared" si="4"/>
         <v>11394.5</v>
       </c>
       <c r="C12">
-        <f>B12*K11</f>
+        <f t="shared" si="5"/>
         <v>112805550</v>
       </c>
       <c r="D12" s="2">
-        <f>ROUND((C12+E12)/(M12+J12),1)</f>
+        <f t="shared" si="6"/>
         <v>1128.0999999999999</v>
       </c>
       <c r="E12" s="2">
-        <f>M12*(C12/J12)</f>
+        <f t="shared" si="0"/>
         <v>5640277.5</v>
       </c>
       <c r="F12">
@@ -961,49 +1196,52 @@
         <v>100000000</v>
       </c>
       <c r="H12">
+        <f t="shared" si="7"/>
+        <v>110640277.5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>10640277.5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K12">
+        <v>9900</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="2"/>
-        <v>110640277.5</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>10640277.5</v>
-      </c>
-      <c r="J12" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K12">
-        <v>9900</v>
-      </c>
-      <c r="L12">
-        <f>ROUNDUP((F12+D12)/30,1)</f>
         <v>71</v>
       </c>
       <c r="M12">
         <v>5000</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" s="2">
-        <f>ROUND(F12+B12+D12,1)</f>
+        <f t="shared" si="4"/>
         <v>13522.6</v>
       </c>
       <c r="C13">
-        <f>B13*K12</f>
+        <f t="shared" si="5"/>
         <v>133873740</v>
       </c>
       <c r="D13" s="2">
-        <f>ROUND((C13+E13)/(M13+J13),1)</f>
+        <f t="shared" si="6"/>
         <v>1338.7</v>
       </c>
       <c r="E13" s="2">
-        <f>M13*(C13/J13)</f>
+        <f t="shared" si="0"/>
         <v>6693687</v>
       </c>
       <c r="F13">
@@ -1013,49 +1251,53 @@
         <v>100000000</v>
       </c>
       <c r="H13">
+        <f t="shared" si="7"/>
+        <v>111693687</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>11693687</v>
+      </c>
+      <c r="J13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K13">
+        <v>9900</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="2"/>
-        <v>111693687</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>11693687</v>
-      </c>
-      <c r="J13" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K13">
-        <v>9900</v>
-      </c>
-      <c r="L13">
-        <f>ROUNDUP((F13+D13)/30,1)</f>
         <v>78</v>
       </c>
       <c r="M13">
         <v>5000</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f>1400000000/10000</f>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="2">
-        <f>ROUND(F13+B13+D13,1)</f>
+        <f t="shared" si="4"/>
         <v>15861.3</v>
       </c>
       <c r="C14">
-        <f>B14*K13</f>
+        <f t="shared" si="5"/>
         <v>157026870</v>
       </c>
       <c r="D14" s="2">
-        <f>ROUND((C14+E14)/(M14+J14),1)</f>
+        <f t="shared" si="6"/>
         <v>1570.3</v>
       </c>
       <c r="E14" s="2">
-        <f>M14*(C14/J14)</f>
+        <f t="shared" si="0"/>
         <v>7851343.5</v>
       </c>
       <c r="F14">
@@ -1065,49 +1307,49 @@
         <v>100000000</v>
       </c>
       <c r="H14">
+        <f t="shared" si="7"/>
+        <v>112851343.5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>12851343.5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K14">
+        <v>9900</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="2"/>
-        <v>112851343.5</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>12851343.5</v>
-      </c>
-      <c r="J14" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K14">
-        <v>9900</v>
-      </c>
-      <c r="L14">
-        <f>ROUNDUP((F14+D14)/30,1)</f>
         <v>85.699999999999989</v>
       </c>
       <c r="M14">
         <v>5000</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" s="2">
-        <f>ROUND(F14+B14+D14,1)</f>
+        <f t="shared" si="4"/>
         <v>18431.599999999999</v>
       </c>
       <c r="C15">
-        <f>B15*K14</f>
+        <f t="shared" si="5"/>
         <v>182472840</v>
       </c>
       <c r="D15" s="2">
-        <f>ROUND((C15+E15)/(M15+J15),1)</f>
+        <f t="shared" si="6"/>
         <v>1824.7</v>
       </c>
       <c r="E15" s="2">
-        <f>M15*(C15/J15)</f>
+        <f t="shared" si="0"/>
         <v>9123642</v>
       </c>
       <c r="F15">
@@ -1117,45 +1359,45 @@
         <v>100000000</v>
       </c>
       <c r="H15">
+        <f t="shared" si="7"/>
+        <v>114123642</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>14123642</v>
+      </c>
+      <c r="J15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K15">
+        <v>9900</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="2"/>
-        <v>114123642</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>14123642</v>
-      </c>
-      <c r="J15" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K15">
-        <v>9900</v>
-      </c>
-      <c r="L15">
-        <f>ROUNDUP((F15+D15)/30,1)</f>
         <v>94.199999999999989</v>
       </c>
       <c r="M15">
         <v>5000</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" s="2">
-        <f>ROUND(F15+B15+D15,1)</f>
+        <f t="shared" si="4"/>
         <v>21256.3</v>
       </c>
       <c r="C16">
-        <f>B16*K15</f>
+        <f t="shared" si="5"/>
         <v>210437370</v>
       </c>
       <c r="D16" s="2">
-        <f>ROUND((C16+E16)/(M16+J16),1)</f>
+        <f t="shared" si="6"/>
         <v>2004.2</v>
       </c>
       <c r="E16" s="2">
@@ -1168,14 +1410,14 @@
         <v>9900</v>
       </c>
       <c r="L16">
-        <f>ROUNDUP((F16+D16)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>66.899999999999991</v>
       </c>
       <c r="M16">
         <v>5000</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -1184,15 +1426,15 @@
         <v>13</v>
       </c>
       <c r="B17" s="2">
-        <f>ROUND(F16+B16+D16,1)</f>
+        <f t="shared" si="4"/>
         <v>23260.5</v>
       </c>
       <c r="C17">
-        <f>B17*K16</f>
+        <f t="shared" si="5"/>
         <v>230278950</v>
       </c>
       <c r="D17" s="2">
-        <f>ROUND((C17+E17)/(M17+J17),1)</f>
+        <f t="shared" si="6"/>
         <v>2193.1</v>
       </c>
       <c r="E17" s="2"/>
@@ -1203,14 +1445,14 @@
         <v>9900</v>
       </c>
       <c r="L17">
-        <f>ROUNDUP((F17+D17)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>73.199999999999989</v>
       </c>
       <c r="M17">
         <v>5000</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -1219,15 +1461,15 @@
         <v>14</v>
       </c>
       <c r="B18" s="2">
-        <f>ROUND(F17+B17+D17,1)</f>
+        <f t="shared" si="4"/>
         <v>25453.599999999999</v>
       </c>
       <c r="C18">
-        <f>B18*K17</f>
+        <f t="shared" si="5"/>
         <v>251990640</v>
       </c>
       <c r="D18" s="2">
-        <f>ROUND((C18+E18)/(M18+J18),1)</f>
+        <f t="shared" si="6"/>
         <v>2399.9</v>
       </c>
       <c r="E18" s="2"/>
@@ -1238,14 +1480,14 @@
         <v>9900</v>
       </c>
       <c r="L18">
-        <f>ROUNDUP((F18+D18)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="M18">
         <v>5000</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -1254,15 +1496,15 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <f>ROUND(F18+B18+D18,1)</f>
+        <f t="shared" si="4"/>
         <v>27853.5</v>
       </c>
       <c r="C19">
-        <f>B19*K18</f>
+        <f t="shared" si="5"/>
         <v>275749650</v>
       </c>
       <c r="D19" s="2">
-        <f>ROUND((C19+E19)/(M19+J19),1)</f>
+        <f t="shared" si="6"/>
         <v>2626.2</v>
       </c>
       <c r="E19" s="2"/>
@@ -1273,14 +1515,14 @@
         <v>9900</v>
       </c>
       <c r="L19">
-        <f>ROUNDUP((F19+D19)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>87.6</v>
       </c>
       <c r="M19">
         <v>5000</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -1289,15 +1531,15 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <f>ROUND(F19+B19+D19,1)</f>
+        <f t="shared" si="4"/>
         <v>30479.7</v>
       </c>
       <c r="C20">
-        <f>B20*K19</f>
+        <f t="shared" si="5"/>
         <v>301749030</v>
       </c>
       <c r="D20" s="2">
-        <f>ROUND((C20+E20)/(M20+J20),1)</f>
+        <f t="shared" si="6"/>
         <v>2873.8</v>
       </c>
       <c r="E20" s="2"/>
@@ -1308,14 +1550,14 @@
         <v>9900</v>
       </c>
       <c r="L20">
-        <f>ROUNDUP((F20+D20)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>95.8</v>
       </c>
       <c r="M20">
         <v>5000</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -1324,15 +1566,15 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <f>ROUND(F20+B20+D20,1)</f>
+        <f t="shared" si="4"/>
         <v>33353.5</v>
       </c>
       <c r="C21">
-        <f>B21*K20</f>
+        <f t="shared" si="5"/>
         <v>330199650</v>
       </c>
       <c r="D21" s="2">
-        <f>ROUND((C21+E21)/(M21+J21),1)</f>
+        <f t="shared" si="6"/>
         <v>3144.8</v>
       </c>
       <c r="E21" s="2"/>
@@ -1343,14 +1585,14 @@
         <v>9900</v>
       </c>
       <c r="L21">
-        <f>ROUNDUP((F21+D21)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>104.89999999999999</v>
       </c>
       <c r="M21">
         <v>5000</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -1359,15 +1601,15 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <f>ROUND(F21+B21+D21,1)</f>
+        <f t="shared" si="4"/>
         <v>36498.300000000003</v>
       </c>
       <c r="C22">
-        <f>B22*K21</f>
+        <f t="shared" si="5"/>
         <v>361333170</v>
       </c>
       <c r="D22" s="2">
-        <f>ROUND((C22+E22)/(M22+J22),1)</f>
+        <f t="shared" si="6"/>
         <v>3441.3</v>
       </c>
       <c r="E22" s="2"/>
@@ -1378,14 +1620,14 @@
         <v>9900</v>
       </c>
       <c r="L22">
-        <f>ROUNDUP((F22+D22)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>114.8</v>
       </c>
       <c r="M22">
         <v>5000</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -1394,15 +1636,15 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <f>ROUND(F22+B22+D22,1)</f>
+        <f t="shared" si="4"/>
         <v>39939.599999999999</v>
       </c>
       <c r="C23">
-        <f>B23*K22</f>
+        <f t="shared" si="5"/>
         <v>395402040</v>
       </c>
       <c r="D23" s="2">
-        <f>ROUND((C23+E23)/(M23+J23),1)</f>
+        <f t="shared" si="6"/>
         <v>3765.7</v>
       </c>
       <c r="E23" s="2"/>
@@ -1413,14 +1655,14 @@
         <v>9900</v>
       </c>
       <c r="L23">
-        <f>ROUNDUP((F23+D23)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>125.6</v>
       </c>
       <c r="M23">
         <v>5000</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -1429,15 +1671,15 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <f>ROUND(F23+B23+D23,1)</f>
+        <f t="shared" si="4"/>
         <v>43705.3</v>
       </c>
       <c r="C24">
-        <f>B24*K23</f>
+        <f t="shared" si="5"/>
         <v>432682470</v>
       </c>
       <c r="D24" s="2">
-        <f>ROUND((C24+E24)/(M24+J24),1)</f>
+        <f t="shared" si="6"/>
         <v>4120.8</v>
       </c>
       <c r="E24" s="2"/>
@@ -1448,14 +1690,14 @@
         <v>9900</v>
       </c>
       <c r="L24">
-        <f>ROUNDUP((F24+D24)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>137.4</v>
       </c>
       <c r="M24">
         <v>5000</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -1464,15 +1706,15 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <f>ROUND(F24+B24+D24,1)</f>
+        <f t="shared" si="4"/>
         <v>47826.1</v>
       </c>
       <c r="C25">
-        <f>B25*K24</f>
+        <f t="shared" si="5"/>
         <v>473478390</v>
       </c>
       <c r="D25" s="2">
-        <f>ROUND((C25+E25)/(M25+J25),1)</f>
+        <f t="shared" si="6"/>
         <v>4509.3</v>
       </c>
       <c r="E25" s="2"/>
@@ -1483,14 +1725,14 @@
         <v>9900</v>
       </c>
       <c r="L25">
-        <f>ROUNDUP((F25+D25)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>150.4</v>
       </c>
       <c r="M25">
         <v>5000</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -1499,15 +1741,15 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <f>ROUND(F25+B25+D25,1)</f>
+        <f t="shared" si="4"/>
         <v>52335.4</v>
       </c>
       <c r="C26">
-        <f>B26*K25</f>
+        <f t="shared" si="5"/>
         <v>518120460</v>
       </c>
       <c r="D26" s="2">
-        <f>ROUND((C26+E26)/(M26+J26),1)</f>
+        <f t="shared" si="6"/>
         <v>4934.5</v>
       </c>
       <c r="E26" s="2"/>
@@ -1518,14 +1760,14 @@
         <v>9900</v>
       </c>
       <c r="L26">
-        <f>ROUNDUP((F26+D26)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>164.5</v>
       </c>
       <c r="M26">
         <v>5000</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -1534,15 +1776,15 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <f>ROUND(F26+B26+D26,1)</f>
+        <f t="shared" si="4"/>
         <v>57269.9</v>
       </c>
       <c r="C27">
-        <f>B27*K26</f>
+        <f t="shared" si="5"/>
         <v>566972010</v>
       </c>
       <c r="D27" s="2">
-        <f>ROUND((C27+E27)/(M27+J27),1)</f>
+        <f t="shared" si="6"/>
         <v>5399.7</v>
       </c>
       <c r="E27" s="2"/>
@@ -1553,14 +1795,14 @@
         <v>9900</v>
       </c>
       <c r="L27">
-        <f>ROUNDUP((F27+D27)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M27">
         <v>5000</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -1569,15 +1811,15 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <f>ROUND(F27+B27+D27,1)</f>
+        <f t="shared" si="4"/>
         <v>62669.599999999999</v>
       </c>
       <c r="C28">
-        <f>B28*K27</f>
+        <f t="shared" si="5"/>
         <v>620429040</v>
       </c>
       <c r="D28" s="2">
-        <f>ROUND((C28+E28)/(M28+J28),1)</f>
+        <f t="shared" si="6"/>
         <v>5908.8</v>
       </c>
       <c r="E28" s="2"/>
@@ -1588,14 +1830,14 @@
         <v>9900</v>
       </c>
       <c r="L28">
-        <f>ROUNDUP((F28+D28)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>197</v>
       </c>
       <c r="M28">
         <v>5000</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -1604,15 +1846,15 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <f>ROUND(F28+B28+D28,1)</f>
+        <f t="shared" si="4"/>
         <v>68578.399999999994</v>
       </c>
       <c r="C29">
-        <f>B29*K28</f>
+        <f t="shared" si="5"/>
         <v>678926160</v>
       </c>
       <c r="D29" s="2">
-        <f>ROUND((C29+E29)/(M29+J29),1)</f>
+        <f t="shared" si="6"/>
         <v>6466</v>
       </c>
       <c r="E29" s="2"/>
@@ -1623,14 +1865,14 @@
         <v>9900</v>
       </c>
       <c r="L29">
-        <f>ROUNDUP((F29+D29)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>215.6</v>
       </c>
       <c r="M29">
         <v>5000</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1639,15 +1881,15 @@
         <v>26</v>
       </c>
       <c r="B30" s="2">
-        <f>ROUND(F29+B29+D29,1)</f>
+        <f t="shared" si="4"/>
         <v>75044.399999999994</v>
       </c>
       <c r="C30">
-        <f>B30*K29</f>
+        <f t="shared" si="5"/>
         <v>742939560</v>
       </c>
       <c r="D30" s="2">
-        <f>ROUND((C30+E30)/(M30+J30),1)</f>
+        <f t="shared" si="6"/>
         <v>7075.6</v>
       </c>
       <c r="E30" s="2"/>
@@ -1658,14 +1900,14 @@
         <v>9900</v>
       </c>
       <c r="L30">
-        <f>ROUNDUP((F30+D30)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>235.9</v>
       </c>
       <c r="M30">
         <v>5000</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1674,15 +1916,15 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <f>ROUND(F30+B30+D30,1)</f>
+        <f t="shared" si="4"/>
         <v>82120</v>
       </c>
       <c r="C31">
-        <f>B31*K30</f>
+        <f t="shared" si="5"/>
         <v>812988000</v>
       </c>
       <c r="D31" s="2">
-        <f>ROUND((C31+E31)/(M31+J31),1)</f>
+        <f t="shared" si="6"/>
         <v>7742.7</v>
       </c>
       <c r="E31" s="2"/>
@@ -1693,14 +1935,14 @@
         <v>9900</v>
       </c>
       <c r="L31">
-        <f>ROUNDUP((F31+D31)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>258.10000000000002</v>
       </c>
       <c r="M31">
         <v>5000</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -1709,15 +1951,15 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <f>ROUND(F31+B31+D31,1)</f>
+        <f t="shared" si="4"/>
         <v>89862.7</v>
       </c>
       <c r="C32">
-        <f>B32*K31</f>
+        <f t="shared" si="5"/>
         <v>889640730</v>
       </c>
       <c r="D32" s="2">
-        <f>ROUND((C32+E32)/(M32+J32),1)</f>
+        <f t="shared" si="6"/>
         <v>8472.7999999999993</v>
       </c>
       <c r="E32" s="2"/>
@@ -1728,14 +1970,14 @@
         <v>9900</v>
       </c>
       <c r="L32">
-        <f>ROUNDUP((F32+D32)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>282.5</v>
       </c>
       <c r="M32">
         <v>5000</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -1744,15 +1986,15 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <f>ROUND(F32+B32+D32,1)</f>
+        <f t="shared" si="4"/>
         <v>98335.5</v>
       </c>
       <c r="C33">
-        <f>B33*K32</f>
+        <f t="shared" si="5"/>
         <v>973521450</v>
       </c>
       <c r="D33" s="2">
-        <f>ROUND((C33+E33)/(M33+J33),1)</f>
+        <f t="shared" si="6"/>
         <v>9271.6</v>
       </c>
       <c r="E33" s="2"/>
@@ -1763,14 +2005,14 @@
         <v>9900</v>
       </c>
       <c r="L33">
-        <f>ROUNDUP((F33+D33)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>309.10000000000002</v>
       </c>
       <c r="M33">
         <v>5000</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -1779,15 +2021,15 @@
         <v>30</v>
       </c>
       <c r="B34" s="2">
-        <f>ROUND(F33+B33+D33,1)</f>
+        <f t="shared" si="4"/>
         <v>107607.1</v>
       </c>
       <c r="C34">
-        <f>B34*K33</f>
+        <f t="shared" si="5"/>
         <v>1065310290</v>
       </c>
       <c r="D34" s="2">
-        <f>ROUND((C34+E34)/(M34+J34),1)</f>
+        <f t="shared" si="6"/>
         <v>10145.799999999999</v>
       </c>
       <c r="E34" s="2"/>
@@ -1798,14 +2040,14 @@
         <v>9900</v>
       </c>
       <c r="L34">
-        <f>ROUNDUP((F34+D34)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>338.20000000000005</v>
       </c>
       <c r="M34">
         <v>5000</v>
       </c>
       <c r="N34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -1814,15 +2056,15 @@
         <v>31</v>
       </c>
       <c r="B35" s="2">
-        <f>ROUND(F34+B34+D34,1)</f>
+        <f t="shared" si="4"/>
         <v>117752.9</v>
       </c>
       <c r="C35">
-        <f>B35*K34</f>
+        <f t="shared" si="5"/>
         <v>1165753710</v>
       </c>
       <c r="D35" s="2">
-        <f>ROUND((C35+E35)/(M35+J35),1)</f>
+        <f t="shared" si="6"/>
         <v>11102.4</v>
       </c>
       <c r="E35" s="2"/>
@@ -1833,14 +2075,14 @@
         <v>9900</v>
       </c>
       <c r="L35">
-        <f>ROUNDUP((F35+D35)/30,1)</f>
+        <f t="shared" si="2"/>
         <v>370.1</v>
       </c>
       <c r="M35">
         <v>5000</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -1849,15 +2091,15 @@
         <v>32</v>
       </c>
       <c r="B36" s="2">
-        <f>ROUND(F35+B35+D35,1)</f>
+        <f t="shared" si="4"/>
         <v>128855.3</v>
       </c>
       <c r="C36">
-        <f>B36*K35</f>
+        <f t="shared" si="5"/>
         <v>1275667470</v>
       </c>
       <c r="D36" s="2">
-        <f>ROUND((C36+E36)/(M36+J36),1)</f>
+        <f t="shared" si="6"/>
         <v>12149.2</v>
       </c>
       <c r="E36" s="2"/>
@@ -1868,14 +2110,14 @@
         <v>9900</v>
       </c>
       <c r="L36">
-        <f>ROUNDUP((F36+D36)/30,1)</f>
+        <f t="shared" ref="L36:L67" si="11">ROUNDUP((F36+D36)/30,1)</f>
         <v>405</v>
       </c>
       <c r="M36">
         <v>5000</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
@@ -1884,15 +2126,15 @@
         <v>33</v>
       </c>
       <c r="B37" s="2">
-        <f>ROUND(F36+B36+D36,1)</f>
+        <f t="shared" ref="B37:B68" si="12">ROUND(F36+B36+D36,1)</f>
         <v>141004.5</v>
       </c>
       <c r="C37">
-        <f>B37*K36</f>
+        <f t="shared" ref="C37:C68" si="13">B37*K36</f>
         <v>1395944550</v>
       </c>
       <c r="D37" s="2">
-        <f>ROUND((C37+E37)/(M37+J37),1)</f>
+        <f t="shared" ref="D37:D68" si="14">ROUND((C37+E37)/(M37+J37),1)</f>
         <v>13294.7</v>
       </c>
       <c r="E37" s="2"/>
@@ -1903,14 +2145,14 @@
         <v>9900</v>
       </c>
       <c r="L37">
-        <f>ROUNDUP((F37+D37)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>443.20000000000005</v>
       </c>
       <c r="M37">
         <v>5000</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -1919,15 +2161,15 @@
         <v>34</v>
       </c>
       <c r="B38" s="2">
-        <f>ROUND(F37+B37+D37,1)</f>
+        <f t="shared" si="12"/>
         <v>154299.20000000001</v>
       </c>
       <c r="C38">
-        <f>B38*K37</f>
+        <f t="shared" si="13"/>
         <v>1527562080</v>
       </c>
       <c r="D38" s="2">
-        <f>ROUND((C38+E38)/(M38+J38),1)</f>
+        <f t="shared" si="14"/>
         <v>14548.2</v>
       </c>
       <c r="E38" s="2"/>
@@ -1938,14 +2180,14 @@
         <v>9900</v>
       </c>
       <c r="L38">
-        <f>ROUNDUP((F38+D38)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>485</v>
       </c>
       <c r="M38">
         <v>5000</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -1954,15 +2196,15 @@
         <v>35</v>
       </c>
       <c r="B39" s="2">
-        <f>ROUND(F38+B38+D38,1)</f>
+        <f t="shared" si="12"/>
         <v>168847.4</v>
       </c>
       <c r="C39">
-        <f>B39*K38</f>
+        <f t="shared" si="13"/>
         <v>1671589260</v>
       </c>
       <c r="D39" s="2">
-        <f>ROUND((C39+E39)/(M39+J39),1)</f>
+        <f t="shared" si="14"/>
         <v>15919.9</v>
       </c>
       <c r="E39" s="2"/>
@@ -1973,14 +2215,14 @@
         <v>9900</v>
       </c>
       <c r="L39">
-        <f>ROUNDUP((F39+D39)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>530.70000000000005</v>
       </c>
       <c r="M39">
         <v>5000</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -1989,15 +2231,15 @@
         <v>36</v>
       </c>
       <c r="B40" s="2">
-        <f>ROUND(F39+B39+D39,1)</f>
+        <f t="shared" si="12"/>
         <v>184767.3</v>
       </c>
       <c r="C40">
-        <f>B40*K39</f>
+        <f t="shared" si="13"/>
         <v>1829196270</v>
       </c>
       <c r="D40" s="2">
-        <f>ROUND((C40+E40)/(M40+J40),1)</f>
+        <f t="shared" si="14"/>
         <v>17420.900000000001</v>
       </c>
       <c r="E40" s="2"/>
@@ -2008,14 +2250,14 @@
         <v>9900</v>
       </c>
       <c r="L40">
-        <f>ROUNDUP((F40+D40)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>580.70000000000005</v>
       </c>
       <c r="M40">
         <v>5000</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -2024,15 +2266,15 @@
         <v>37</v>
       </c>
       <c r="B41" s="2">
-        <f>ROUND(F40+B40+D40,1)</f>
+        <f t="shared" si="12"/>
         <v>202188.2</v>
       </c>
       <c r="C41">
-        <f>B41*K40</f>
+        <f t="shared" si="13"/>
         <v>2001663180</v>
       </c>
       <c r="D41" s="2">
-        <f>ROUND((C41+E41)/(M41+J41),1)</f>
+        <f t="shared" si="14"/>
         <v>19063.5</v>
       </c>
       <c r="E41" s="2"/>
@@ -2043,14 +2285,14 @@
         <v>9900</v>
       </c>
       <c r="L41">
-        <f>ROUNDUP((F41+D41)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>635.5</v>
       </c>
       <c r="M41">
         <v>5000</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
@@ -2059,15 +2301,15 @@
         <v>38</v>
       </c>
       <c r="B42" s="2">
-        <f>ROUND(F41+B41+D41,1)</f>
+        <f t="shared" si="12"/>
         <v>221251.7</v>
       </c>
       <c r="C42">
-        <f>B42*K41</f>
+        <f t="shared" si="13"/>
         <v>2190391830</v>
       </c>
       <c r="D42" s="2">
-        <f>ROUND((C42+E42)/(M42+J42),1)</f>
+        <f t="shared" si="14"/>
         <v>20860.900000000001</v>
       </c>
       <c r="E42" s="2"/>
@@ -2078,14 +2320,14 @@
         <v>9900</v>
       </c>
       <c r="L42">
-        <f>ROUNDUP((F42+D42)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>695.4</v>
       </c>
       <c r="M42">
         <v>5000</v>
       </c>
       <c r="N42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -2094,15 +2336,15 @@
         <v>39</v>
       </c>
       <c r="B43" s="2">
-        <f>ROUND(F42+B42+D42,1)</f>
+        <f t="shared" si="12"/>
         <v>242112.6</v>
       </c>
       <c r="C43">
-        <f>B43*K42</f>
+        <f t="shared" si="13"/>
         <v>2396914740</v>
       </c>
       <c r="D43" s="2">
-        <f>ROUND((C43+E43)/(M43+J43),1)</f>
+        <f t="shared" si="14"/>
         <v>22827.8</v>
       </c>
       <c r="E43" s="2"/>
@@ -2113,14 +2355,14 @@
         <v>9900</v>
       </c>
       <c r="L43">
-        <f>ROUNDUP((F43+D43)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>761</v>
       </c>
       <c r="M43">
         <v>5000</v>
       </c>
       <c r="N43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -2129,15 +2371,15 @@
         <v>40</v>
       </c>
       <c r="B44" s="2">
-        <f>ROUND(F43+B43+D43,1)</f>
+        <f t="shared" si="12"/>
         <v>264940.40000000002</v>
       </c>
       <c r="C44">
-        <f>B44*K43</f>
+        <f t="shared" si="13"/>
         <v>2622909960</v>
       </c>
       <c r="D44" s="2">
-        <f>ROUND((C44+E44)/(M44+J44),1)</f>
+        <f t="shared" si="14"/>
         <v>24980.1</v>
       </c>
       <c r="E44" s="2"/>
@@ -2148,14 +2390,14 @@
         <v>9900</v>
       </c>
       <c r="L44">
-        <f>ROUNDUP((F44+D44)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>832.7</v>
       </c>
       <c r="M44">
         <v>5000</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
@@ -2164,15 +2406,15 @@
         <v>41</v>
       </c>
       <c r="B45" s="2">
-        <f>ROUND(F44+B44+D44,1)</f>
+        <f t="shared" si="12"/>
         <v>289920.5</v>
       </c>
       <c r="C45">
-        <f>B45*K44</f>
+        <f t="shared" si="13"/>
         <v>2870212950</v>
       </c>
       <c r="D45" s="2">
-        <f>ROUND((C45+E45)/(M45+J45),1)</f>
+        <f t="shared" si="14"/>
         <v>27335.4</v>
       </c>
       <c r="E45" s="2"/>
@@ -2183,14 +2425,14 @@
         <v>9900</v>
       </c>
       <c r="L45">
-        <f>ROUNDUP((F45+D45)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>911.2</v>
       </c>
       <c r="M45">
         <v>5000</v>
       </c>
       <c r="N45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
@@ -2199,15 +2441,15 @@
         <v>42</v>
       </c>
       <c r="B46" s="2">
-        <f>ROUND(F45+B45+D45,1)</f>
+        <f t="shared" si="12"/>
         <v>317255.90000000002</v>
       </c>
       <c r="C46">
-        <f>B46*K45</f>
+        <f t="shared" si="13"/>
         <v>3140833410</v>
       </c>
       <c r="D46" s="2">
-        <f>ROUND((C46+E46)/(M46+J46),1)</f>
+        <f t="shared" si="14"/>
         <v>29912.7</v>
       </c>
       <c r="E46" s="2"/>
@@ -2218,14 +2460,14 @@
         <v>9900</v>
       </c>
       <c r="L46">
-        <f>ROUNDUP((F46+D46)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>997.1</v>
       </c>
       <c r="M46">
         <v>5000</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
@@ -2234,15 +2476,15 @@
         <v>43</v>
       </c>
       <c r="B47" s="2">
-        <f>ROUND(F46+B46+D46,1)</f>
+        <f t="shared" si="12"/>
         <v>347168.6</v>
       </c>
       <c r="C47">
-        <f>B47*K46</f>
+        <f t="shared" si="13"/>
         <v>3436969140</v>
       </c>
       <c r="D47" s="2">
-        <f>ROUND((C47+E47)/(M47+J47),1)</f>
+        <f t="shared" si="14"/>
         <v>32733</v>
       </c>
       <c r="E47" s="2"/>
@@ -2253,14 +2495,14 @@
         <v>9900</v>
       </c>
       <c r="L47">
-        <f>ROUNDUP((F47+D47)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>1091.0999999999999</v>
       </c>
       <c r="M47">
         <v>5000</v>
       </c>
       <c r="N47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
@@ -2269,15 +2511,15 @@
         <v>44</v>
       </c>
       <c r="B48" s="2">
-        <f>ROUND(F47+B47+D47,1)</f>
+        <f t="shared" si="12"/>
         <v>379901.6</v>
       </c>
       <c r="C48">
-        <f>B48*K47</f>
+        <f t="shared" si="13"/>
         <v>3761025840</v>
       </c>
       <c r="D48" s="2">
-        <f>ROUND((C48+E48)/(M48+J48),1)</f>
+        <f t="shared" si="14"/>
         <v>35819.300000000003</v>
       </c>
       <c r="E48" s="2"/>
@@ -2288,14 +2530,14 @@
         <v>9900</v>
       </c>
       <c r="L48">
-        <f>ROUNDUP((F48+D48)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>1194</v>
       </c>
       <c r="M48">
         <v>5000</v>
       </c>
       <c r="N48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
@@ -2304,15 +2546,15 @@
         <v>45</v>
       </c>
       <c r="B49" s="2">
-        <f>ROUND(F48+B48+D48,1)</f>
+        <f t="shared" si="12"/>
         <v>415720.9</v>
       </c>
       <c r="C49">
-        <f>B49*K48</f>
+        <f t="shared" si="13"/>
         <v>4115636910</v>
       </c>
       <c r="D49" s="2">
-        <f>ROUND((C49+E49)/(M49+J49),1)</f>
+        <f t="shared" si="14"/>
         <v>39196.5</v>
       </c>
       <c r="E49" s="2"/>
@@ -2323,14 +2565,14 @@
         <v>9900</v>
       </c>
       <c r="L49">
-        <f>ROUNDUP((F49+D49)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>1306.5999999999999</v>
       </c>
       <c r="M49">
         <v>5000</v>
       </c>
       <c r="N49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -2339,15 +2581,15 @@
         <v>46</v>
       </c>
       <c r="B50" s="2">
-        <f>ROUND(F49+B49+D49,1)</f>
+        <f t="shared" si="12"/>
         <v>454917.4</v>
       </c>
       <c r="C50">
-        <f>B50*K49</f>
+        <f t="shared" si="13"/>
         <v>4503682260</v>
       </c>
       <c r="D50" s="2">
-        <f>ROUND((C50+E50)/(M50+J50),1)</f>
+        <f t="shared" si="14"/>
         <v>42892.2</v>
       </c>
       <c r="E50" s="2"/>
@@ -2358,14 +2600,14 @@
         <v>9900</v>
       </c>
       <c r="L50">
-        <f>ROUNDUP((F50+D50)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>1429.8</v>
       </c>
       <c r="M50">
         <v>5000</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
@@ -2374,15 +2616,15 @@
         <v>47</v>
       </c>
       <c r="B51" s="2">
-        <f>ROUND(F50+B50+D50,1)</f>
+        <f t="shared" si="12"/>
         <v>497809.6</v>
       </c>
       <c r="C51">
-        <f>B51*K50</f>
+        <f t="shared" si="13"/>
         <v>4928315040</v>
       </c>
       <c r="D51" s="2">
-        <f>ROUND((C51+E51)/(M51+J51),1)</f>
+        <f t="shared" si="14"/>
         <v>46936.3</v>
       </c>
       <c r="E51" s="2"/>
@@ -2393,14 +2635,14 @@
         <v>9900</v>
       </c>
       <c r="L51">
-        <f>ROUNDUP((F51+D51)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>1564.6</v>
       </c>
       <c r="M51">
         <v>5000</v>
       </c>
       <c r="N51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
@@ -2409,15 +2651,15 @@
         <v>48</v>
       </c>
       <c r="B52" s="2">
-        <f>ROUND(F51+B51+D51,1)</f>
+        <f t="shared" si="12"/>
         <v>544745.9</v>
       </c>
       <c r="C52">
-        <f>B52*K51</f>
+        <f t="shared" si="13"/>
         <v>5392984410</v>
       </c>
       <c r="D52" s="2">
-        <f>ROUND((C52+E52)/(M52+J52),1)</f>
+        <f t="shared" si="14"/>
         <v>51361.8</v>
       </c>
       <c r="E52" s="2"/>
@@ -2428,14 +2670,14 @@
         <v>9900</v>
       </c>
       <c r="L52">
-        <f>ROUNDUP((F52+D52)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>1712.1</v>
       </c>
       <c r="M52">
         <v>5000</v>
       </c>
       <c r="N52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
     </row>
@@ -2444,15 +2686,15 @@
         <v>49</v>
       </c>
       <c r="B53" s="2">
-        <f>ROUND(F52+B52+D52,1)</f>
+        <f t="shared" si="12"/>
         <v>596107.69999999995</v>
       </c>
       <c r="C53">
-        <f>B53*K52</f>
+        <f t="shared" si="13"/>
         <v>5901466230</v>
       </c>
       <c r="D53" s="2">
-        <f>ROUND((C53+E53)/(M53+J53),1)</f>
+        <f t="shared" si="14"/>
         <v>56204.4</v>
       </c>
       <c r="E53" s="2"/>
@@ -2463,14 +2705,14 @@
         <v>9900</v>
       </c>
       <c r="L53">
-        <f>ROUNDUP((F53+D53)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>1873.5</v>
       </c>
       <c r="M53">
         <v>5000</v>
       </c>
       <c r="N53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
     </row>
@@ -2479,15 +2721,15 @@
         <v>50</v>
       </c>
       <c r="B54" s="2">
-        <f>ROUND(F53+B53+D53,1)</f>
+        <f t="shared" si="12"/>
         <v>652312.1</v>
       </c>
       <c r="C54">
-        <f>B54*K53</f>
+        <f t="shared" si="13"/>
         <v>6457889790</v>
       </c>
       <c r="D54" s="2">
-        <f>ROUND((C54+E54)/(M54+J54),1)</f>
+        <f t="shared" si="14"/>
         <v>61503.7</v>
       </c>
       <c r="E54" s="2"/>
@@ -2498,14 +2740,14 @@
         <v>9900</v>
       </c>
       <c r="L54">
-        <f>ROUNDUP((F54+D54)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>2050.1999999999998</v>
       </c>
       <c r="M54">
         <v>5000</v>
       </c>
       <c r="N54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
     </row>
@@ -2514,15 +2756,15 @@
         <v>51</v>
       </c>
       <c r="B55" s="2">
-        <f>ROUND(F54+B54+D54,1)</f>
+        <f t="shared" si="12"/>
         <v>713815.8</v>
       </c>
       <c r="C55">
-        <f>B55*K54</f>
+        <f t="shared" si="13"/>
         <v>7066776420</v>
       </c>
       <c r="D55" s="2">
-        <f>ROUND((C55+E55)/(M55+J55),1)</f>
+        <f t="shared" si="14"/>
         <v>67302.600000000006</v>
       </c>
       <c r="E55" s="2"/>
@@ -2533,14 +2775,14 @@
         <v>9900</v>
       </c>
       <c r="L55">
-        <f>ROUNDUP((F55+D55)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>2243.5</v>
       </c>
       <c r="M55">
         <v>5000</v>
       </c>
       <c r="N55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -2549,15 +2791,15 @@
         <v>52</v>
       </c>
       <c r="B56" s="2">
-        <f>ROUND(F55+B55+D55,1)</f>
+        <f t="shared" si="12"/>
         <v>781118.4</v>
       </c>
       <c r="C56">
-        <f>B56*K55</f>
+        <f t="shared" si="13"/>
         <v>7733072160</v>
       </c>
       <c r="D56" s="2">
-        <f>ROUND((C56+E56)/(M56+J56),1)</f>
+        <f t="shared" si="14"/>
         <v>73648.3</v>
       </c>
       <c r="E56" s="2"/>
@@ -2568,14 +2810,14 @@
         <v>9900</v>
       </c>
       <c r="L56">
-        <f>ROUNDUP((F56+D56)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>2455</v>
       </c>
       <c r="M56">
         <v>5000</v>
       </c>
       <c r="N56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
     </row>
@@ -2584,15 +2826,15 @@
         <v>53</v>
       </c>
       <c r="B57" s="2">
-        <f>ROUND(F56+B56+D56,1)</f>
+        <f t="shared" si="12"/>
         <v>854766.7</v>
       </c>
       <c r="C57">
-        <f>B57*K56</f>
+        <f t="shared" si="13"/>
         <v>8462190330</v>
       </c>
       <c r="D57" s="2">
-        <f>ROUND((C57+E57)/(M57+J57),1)</f>
+        <f t="shared" si="14"/>
         <v>80592.3</v>
       </c>
       <c r="E57" s="2"/>
@@ -2603,14 +2845,14 @@
         <v>9900</v>
       </c>
       <c r="L57">
-        <f>ROUNDUP((F57+D57)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>2686.5</v>
       </c>
       <c r="M57">
         <v>5000</v>
       </c>
       <c r="N57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
     </row>
@@ -2619,15 +2861,15 @@
         <v>54</v>
       </c>
       <c r="B58" s="2">
-        <f>ROUND(F57+B57+D57,1)</f>
+        <f t="shared" si="12"/>
         <v>935359</v>
       </c>
       <c r="C58">
-        <f>B58*K57</f>
+        <f t="shared" si="13"/>
         <v>9260054100</v>
       </c>
       <c r="D58" s="2">
-        <f>ROUND((C58+E58)/(M58+J58),1)</f>
+        <f t="shared" si="14"/>
         <v>88191</v>
       </c>
       <c r="E58" s="2"/>
@@ -2638,14 +2880,14 @@
         <v>9900</v>
       </c>
       <c r="L58">
-        <f>ROUNDUP((F58+D58)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>2939.7</v>
       </c>
       <c r="M58">
         <v>5000</v>
       </c>
       <c r="N58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
     </row>
@@ -2654,15 +2896,15 @@
         <v>55</v>
       </c>
       <c r="B59" s="2">
-        <f>ROUND(F58+B58+D58,1)</f>
+        <f t="shared" si="12"/>
         <v>1023550</v>
       </c>
       <c r="C59">
-        <f>B59*K58</f>
+        <f t="shared" si="13"/>
         <v>10133145000</v>
       </c>
       <c r="D59" s="2">
-        <f>ROUND((C59+E59)/(M59+J59),1)</f>
+        <f t="shared" si="14"/>
         <v>96506.1</v>
       </c>
       <c r="E59" s="2"/>
@@ -2673,14 +2915,14 @@
         <v>9900</v>
       </c>
       <c r="L59">
-        <f>ROUNDUP((F59+D59)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>3216.9</v>
       </c>
       <c r="M59">
         <v>5000</v>
       </c>
       <c r="N59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
     </row>
@@ -2689,15 +2931,15 @@
         <v>56</v>
       </c>
       <c r="B60" s="2">
-        <f>ROUND(F59+B59+D59,1)</f>
+        <f t="shared" si="12"/>
         <v>1120056.1000000001</v>
       </c>
       <c r="C60">
-        <f>B60*K59</f>
+        <f t="shared" si="13"/>
         <v>11088555390</v>
       </c>
       <c r="D60" s="2">
-        <f>ROUND((C60+E60)/(M60+J60),1)</f>
+        <f t="shared" si="14"/>
         <v>105605.3</v>
       </c>
       <c r="E60" s="2"/>
@@ -2708,14 +2950,14 @@
         <v>9900</v>
       </c>
       <c r="L60">
-        <f>ROUNDUP((F60+D60)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>3520.2</v>
       </c>
       <c r="M60">
         <v>5000</v>
       </c>
       <c r="N60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
     </row>
@@ -2724,15 +2966,15 @@
         <v>57</v>
       </c>
       <c r="B61" s="2">
-        <f>ROUND(F60+B60+D60,1)</f>
+        <f t="shared" si="12"/>
         <v>1225661.3999999999</v>
       </c>
       <c r="C61">
-        <f>B61*K60</f>
+        <f t="shared" si="13"/>
         <v>12134047860</v>
       </c>
       <c r="D61" s="2">
-        <f>ROUND((C61+E61)/(M61+J61),1)</f>
+        <f t="shared" si="14"/>
         <v>115562.4</v>
       </c>
       <c r="E61" s="2"/>
@@ -2743,14 +2985,14 @@
         <v>9900</v>
       </c>
       <c r="L61">
-        <f>ROUNDUP((F61+D61)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>3852.1</v>
       </c>
       <c r="M61">
         <v>5000</v>
       </c>
       <c r="N61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
     </row>
@@ -2759,15 +3001,15 @@
         <v>58</v>
       </c>
       <c r="B62" s="2">
-        <f>ROUND(F61+B61+D61,1)</f>
+        <f t="shared" si="12"/>
         <v>1341223.8</v>
       </c>
       <c r="C62">
-        <f>B62*K61</f>
+        <f t="shared" si="13"/>
         <v>13278115620</v>
       </c>
       <c r="D62" s="2">
-        <f>ROUND((C62+E62)/(M62+J62),1)</f>
+        <f t="shared" si="14"/>
         <v>126458.2</v>
       </c>
       <c r="E62" s="2"/>
@@ -2778,14 +3020,14 @@
         <v>9900</v>
       </c>
       <c r="L62">
-        <f>ROUNDUP((F62+D62)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>4215.3</v>
       </c>
       <c r="M62">
         <v>5000</v>
       </c>
       <c r="N62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
     </row>
@@ -2794,15 +3036,15 @@
         <v>59</v>
       </c>
       <c r="B63" s="2">
-        <f>ROUND(F62+B62+D62,1)</f>
+        <f t="shared" si="12"/>
         <v>1467682</v>
       </c>
       <c r="C63">
-        <f>B63*K62</f>
+        <f t="shared" si="13"/>
         <v>14530051800</v>
       </c>
       <c r="D63" s="2">
-        <f>ROUND((C63+E63)/(M63+J63),1)</f>
+        <f t="shared" si="14"/>
         <v>138381.4</v>
       </c>
       <c r="E63" s="2"/>
@@ -2813,14 +3055,14 @@
         <v>9900</v>
       </c>
       <c r="L63">
-        <f>ROUNDUP((F63+D63)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>4612.8</v>
       </c>
       <c r="M63">
         <v>5000</v>
       </c>
       <c r="N63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
     </row>
@@ -2829,15 +3071,15 @@
         <v>60</v>
       </c>
       <c r="B64" s="2">
-        <f>ROUND(F63+B63+D63,1)</f>
+        <f t="shared" si="12"/>
         <v>1606063.4</v>
       </c>
       <c r="C64">
-        <f>B64*K63</f>
+        <f t="shared" si="13"/>
         <v>15900027660</v>
       </c>
       <c r="D64" s="2">
-        <f>ROUND((C64+E64)/(M64+J64),1)</f>
+        <f t="shared" si="14"/>
         <v>151428.79999999999</v>
       </c>
       <c r="E64" s="2"/>
@@ -2848,14 +3090,14 @@
         <v>9900</v>
       </c>
       <c r="L64">
-        <f>ROUNDUP((F64+D64)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>5047.7000000000007</v>
       </c>
       <c r="M64">
         <v>5000</v>
       </c>
       <c r="N64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
     </row>
@@ -2864,15 +3106,15 @@
         <v>61</v>
       </c>
       <c r="B65" s="2">
-        <f>ROUND(F64+B64+D64,1)</f>
+        <f t="shared" si="12"/>
         <v>1757492.2</v>
       </c>
       <c r="C65">
-        <f>B65*K64</f>
+        <f t="shared" si="13"/>
         <v>17399172780</v>
       </c>
       <c r="D65" s="2">
-        <f>ROUND((C65+E65)/(M65+J65),1)</f>
+        <f t="shared" si="14"/>
         <v>165706.4</v>
       </c>
       <c r="E65" s="2"/>
@@ -2883,14 +3125,14 @@
         <v>9900</v>
       </c>
       <c r="L65">
-        <f>ROUNDUP((F65+D65)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>5523.6</v>
       </c>
       <c r="M65">
         <v>5000</v>
       </c>
       <c r="N65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
     </row>
@@ -2899,15 +3141,15 @@
         <v>62</v>
       </c>
       <c r="B66" s="2">
-        <f>ROUND(F65+B65+D65,1)</f>
+        <f t="shared" si="12"/>
         <v>1923198.6</v>
       </c>
       <c r="C66">
-        <f>B66*K65</f>
+        <f t="shared" si="13"/>
         <v>19039666140</v>
       </c>
       <c r="D66" s="2">
-        <f>ROUND((C66+E66)/(M66+J66),1)</f>
+        <f t="shared" si="14"/>
         <v>181330.2</v>
       </c>
       <c r="E66" s="2"/>
@@ -2918,14 +3160,14 @@
         <v>9900</v>
       </c>
       <c r="L66">
-        <f>ROUNDUP((F66+D66)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>6044.4000000000005</v>
       </c>
       <c r="M66">
         <v>5000</v>
       </c>
       <c r="N66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
     </row>
@@ -2934,15 +3176,15 @@
         <v>63</v>
       </c>
       <c r="B67" s="2">
-        <f>ROUND(F66+B66+D66,1)</f>
+        <f t="shared" si="12"/>
         <v>2104528.7999999998</v>
       </c>
       <c r="C67">
-        <f>B67*K66</f>
+        <f t="shared" si="13"/>
         <v>20834835120</v>
       </c>
       <c r="D67" s="2">
-        <f>ROUND((C67+E67)/(M67+J67),1)</f>
+        <f t="shared" si="14"/>
         <v>198427</v>
       </c>
       <c r="E67" s="2"/>
@@ -2953,14 +3195,14 @@
         <v>9900</v>
       </c>
       <c r="L67">
-        <f>ROUNDUP((F67+D67)/30,1)</f>
+        <f t="shared" si="11"/>
         <v>6614.3</v>
       </c>
       <c r="M67">
         <v>5000</v>
       </c>
       <c r="N67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>166</v>
       </c>
     </row>
@@ -2969,15 +3211,15 @@
         <v>64</v>
       </c>
       <c r="B68" s="2">
-        <f>ROUND(F67+B67+D67,1)</f>
+        <f t="shared" si="12"/>
         <v>2302955.7999999998</v>
       </c>
       <c r="C68">
-        <f>B68*K67</f>
+        <f t="shared" si="13"/>
         <v>22799262420</v>
       </c>
       <c r="D68" s="2">
-        <f>ROUND((C68+E68)/(M68+J68),1)</f>
+        <f t="shared" si="14"/>
         <v>217135.8</v>
       </c>
       <c r="E68" s="2"/>
@@ -2988,14 +3230,14 @@
         <v>9900</v>
       </c>
       <c r="L68">
-        <f>ROUNDUP((F68+D68)/30,1)</f>
+        <f t="shared" ref="L68:L99" si="15">ROUNDUP((F68+D68)/30,1)</f>
         <v>7237.9000000000005</v>
       </c>
       <c r="M68">
         <v>5000</v>
       </c>
       <c r="N68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>181</v>
       </c>
     </row>
@@ -3004,15 +3246,15 @@
         <v>65</v>
       </c>
       <c r="B69" s="2">
-        <f>ROUND(F68+B68+D68,1)</f>
+        <f t="shared" ref="B69:B100" si="16">ROUND(F68+B68+D68,1)</f>
         <v>2520091.6</v>
       </c>
       <c r="C69">
-        <f>B69*K68</f>
+        <f t="shared" ref="C69:C100" si="17">B69*K68</f>
         <v>24948906840</v>
       </c>
       <c r="D69" s="2">
-        <f>ROUND((C69+E69)/(M69+J69),1)</f>
+        <f t="shared" ref="D69:D100" si="18">ROUND((C69+E69)/(M69+J69),1)</f>
         <v>237608.6</v>
       </c>
       <c r="E69" s="2"/>
@@ -3023,14 +3265,14 @@
         <v>9900</v>
       </c>
       <c r="L69">
-        <f>ROUNDUP((F69+D69)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>7920.3</v>
       </c>
       <c r="M69">
         <v>5000</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:N124" si="3">ROUNDUP(L69/40,0.1)</f>
+        <f t="shared" ref="N69:N124" si="19">ROUNDUP(L69/40,0.1)</f>
         <v>199</v>
       </c>
     </row>
@@ -3039,15 +3281,15 @@
         <v>66</v>
       </c>
       <c r="B70" s="2">
-        <f>ROUND(F69+B69+D69,1)</f>
+        <f t="shared" si="16"/>
         <v>2757700.2</v>
       </c>
       <c r="C70">
-        <f>B70*K69</f>
+        <f t="shared" si="17"/>
         <v>27301231980</v>
       </c>
       <c r="D70" s="2">
-        <f>ROUND((C70+E70)/(M70+J70),1)</f>
+        <f t="shared" si="18"/>
         <v>260011.7</v>
       </c>
       <c r="E70" s="2"/>
@@ -3058,14 +3300,14 @@
         <v>9900</v>
       </c>
       <c r="L70">
-        <f>ROUNDUP((F70+D70)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>8667.1</v>
       </c>
       <c r="M70">
         <v>5000</v>
       </c>
       <c r="N70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>217</v>
       </c>
     </row>
@@ -3074,15 +3316,15 @@
         <v>67</v>
       </c>
       <c r="B71" s="2">
-        <f>ROUND(F70+B70+D70,1)</f>
+        <f t="shared" si="16"/>
         <v>3017711.9</v>
       </c>
       <c r="C71">
-        <f>B71*K70</f>
+        <f t="shared" si="17"/>
         <v>29875347810</v>
       </c>
       <c r="D71" s="2">
-        <f>ROUND((C71+E71)/(M71+J71),1)</f>
+        <f t="shared" si="18"/>
         <v>284527.09999999998</v>
       </c>
       <c r="E71" s="2"/>
@@ -3093,14 +3335,14 @@
         <v>9900</v>
       </c>
       <c r="L71">
-        <f>ROUNDUP((F71+D71)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>9484.3000000000011</v>
       </c>
       <c r="M71">
         <v>5000</v>
       </c>
       <c r="N71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>238</v>
       </c>
     </row>
@@ -3109,15 +3351,15 @@
         <v>68</v>
       </c>
       <c r="B72" s="2">
-        <f>ROUND(F71+B71+D71,1)</f>
+        <f t="shared" si="16"/>
         <v>3302239</v>
       </c>
       <c r="C72">
-        <f>B72*K71</f>
+        <f t="shared" si="17"/>
         <v>32692166100</v>
       </c>
       <c r="D72" s="2">
-        <f>ROUND((C72+E72)/(M72+J72),1)</f>
+        <f t="shared" si="18"/>
         <v>311354</v>
       </c>
       <c r="E72" s="2"/>
@@ -3128,14 +3370,14 @@
         <v>9900</v>
       </c>
       <c r="L72">
-        <f>ROUNDUP((F72+D72)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>10378.5</v>
       </c>
       <c r="M72">
         <v>5000</v>
       </c>
       <c r="N72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>260</v>
       </c>
     </row>
@@ -3144,15 +3386,15 @@
         <v>69</v>
       </c>
       <c r="B73" s="2">
-        <f>ROUND(F72+B72+D72,1)</f>
+        <f t="shared" si="16"/>
         <v>3613593</v>
       </c>
       <c r="C73">
-        <f>B73*K72</f>
+        <f t="shared" si="17"/>
         <v>35774570700</v>
       </c>
       <c r="D73" s="2">
-        <f>ROUND((C73+E73)/(M73+J73),1)</f>
+        <f t="shared" si="18"/>
         <v>340710.2</v>
       </c>
       <c r="E73" s="2"/>
@@ -3163,14 +3405,14 @@
         <v>9900</v>
       </c>
       <c r="L73">
-        <f>ROUNDUP((F73+D73)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>11357.1</v>
       </c>
       <c r="M73">
         <v>5000</v>
       </c>
       <c r="N73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>284</v>
       </c>
     </row>
@@ -3179,15 +3421,15 @@
         <v>70</v>
       </c>
       <c r="B74" s="2">
-        <f>ROUND(F73+B73+D73,1)</f>
+        <f t="shared" si="16"/>
         <v>3954303.2</v>
       </c>
       <c r="C74">
-        <f>B74*K73</f>
+        <f t="shared" si="17"/>
         <v>39147601680</v>
       </c>
       <c r="D74" s="2">
-        <f>ROUND((C74+E74)/(M74+J74),1)</f>
+        <f t="shared" si="18"/>
         <v>372834.3</v>
       </c>
       <c r="E74" s="2"/>
@@ -3198,14 +3440,14 @@
         <v>9900</v>
       </c>
       <c r="L74">
-        <f>ROUNDUP((F74+D74)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>12427.9</v>
       </c>
       <c r="M74">
         <v>5000</v>
       </c>
       <c r="N74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>311</v>
       </c>
     </row>
@@ -3214,15 +3456,15 @@
         <v>71</v>
       </c>
       <c r="B75" s="2">
-        <f>ROUND(F74+B74+D74,1)</f>
+        <f t="shared" si="16"/>
         <v>4327137.5</v>
       </c>
       <c r="C75">
-        <f>B75*K74</f>
+        <f t="shared" si="17"/>
         <v>42838661250</v>
       </c>
       <c r="D75" s="2">
-        <f>ROUND((C75+E75)/(M75+J75),1)</f>
+        <f t="shared" si="18"/>
         <v>407987.3</v>
       </c>
       <c r="E75" s="2"/>
@@ -3233,14 +3475,14 @@
         <v>9900</v>
       </c>
       <c r="L75">
-        <f>ROUNDUP((F75+D75)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>13599.6</v>
       </c>
       <c r="M75">
         <v>5000</v>
       </c>
       <c r="N75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>340</v>
       </c>
     </row>
@@ -3249,15 +3491,15 @@
         <v>72</v>
       </c>
       <c r="B76" s="2">
-        <f>ROUND(F75+B75+D75,1)</f>
+        <f t="shared" si="16"/>
         <v>4735124.8</v>
       </c>
       <c r="C76">
-        <f>B76*K75</f>
+        <f t="shared" si="17"/>
         <v>46877735520</v>
       </c>
       <c r="D76" s="2">
-        <f>ROUND((C76+E76)/(M76+J76),1)</f>
+        <f t="shared" si="18"/>
         <v>446454.6</v>
       </c>
       <c r="E76" s="2"/>
@@ -3268,14 +3510,14 @@
         <v>9900</v>
       </c>
       <c r="L76">
-        <f>ROUNDUP((F76+D76)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>14881.9</v>
       </c>
       <c r="M76">
         <v>5000</v>
       </c>
       <c r="N76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>373</v>
       </c>
     </row>
@@ -3284,15 +3526,15 @@
         <v>73</v>
       </c>
       <c r="B77" s="2">
-        <f>ROUND(F76+B76+D76,1)</f>
+        <f t="shared" si="16"/>
         <v>5181579.4000000004</v>
       </c>
       <c r="C77">
-        <f>B77*K76</f>
+        <f t="shared" si="17"/>
         <v>51297636060</v>
       </c>
       <c r="D77" s="2">
-        <f>ROUND((C77+E77)/(M77+J77),1)</f>
+        <f t="shared" si="18"/>
         <v>488548.9</v>
       </c>
       <c r="E77" s="2"/>
@@ -3303,14 +3545,14 @@
         <v>9900</v>
       </c>
       <c r="L77">
-        <f>ROUNDUP((F77+D77)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>16285</v>
       </c>
       <c r="M77">
         <v>5000</v>
       </c>
       <c r="N77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>408</v>
       </c>
     </row>
@@ -3319,15 +3561,15 @@
         <v>74</v>
       </c>
       <c r="B78" s="2">
-        <f>ROUND(F77+B77+D77,1)</f>
+        <f t="shared" si="16"/>
         <v>5670128.2999999998</v>
       </c>
       <c r="C78">
-        <f>B78*K77</f>
+        <f t="shared" si="17"/>
         <v>56134270170</v>
       </c>
       <c r="D78" s="2">
-        <f>ROUND((C78+E78)/(M78+J78),1)</f>
+        <f t="shared" si="18"/>
         <v>534612.1</v>
       </c>
       <c r="E78" s="2"/>
@@ -3338,14 +3580,14 @@
         <v>9900</v>
       </c>
       <c r="L78">
-        <f>ROUNDUP((F78+D78)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>17820.5</v>
       </c>
       <c r="M78">
         <v>5000</v>
       </c>
       <c r="N78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>446</v>
       </c>
     </row>
@@ -3354,15 +3596,15 @@
         <v>75</v>
       </c>
       <c r="B79" s="2">
-        <f>ROUND(F78+B78+D78,1)</f>
+        <f t="shared" si="16"/>
         <v>6204740.4000000004</v>
       </c>
       <c r="C79">
-        <f>B79*K78</f>
+        <f t="shared" si="17"/>
         <v>61426929960</v>
       </c>
       <c r="D79" s="2">
-        <f>ROUND((C79+E79)/(M79+J79),1)</f>
+        <f t="shared" si="18"/>
         <v>585018.4</v>
       </c>
       <c r="E79" s="2"/>
@@ -3373,14 +3615,14 @@
         <v>9900</v>
       </c>
       <c r="L79">
-        <f>ROUNDUP((F79+D79)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>19500.699999999997</v>
       </c>
       <c r="M79">
         <v>5000</v>
       </c>
       <c r="N79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>488</v>
       </c>
     </row>
@@ -3389,15 +3631,15 @@
         <v>76</v>
       </c>
       <c r="B80" s="2">
-        <f>ROUND(F79+B79+D79,1)</f>
+        <f t="shared" si="16"/>
         <v>6789758.7999999998</v>
       </c>
       <c r="C80">
-        <f>B80*K79</f>
+        <f t="shared" si="17"/>
         <v>67218612120</v>
       </c>
       <c r="D80" s="2">
-        <f>ROUND((C80+E80)/(M80+J80),1)</f>
+        <f t="shared" si="18"/>
         <v>640177.30000000005</v>
       </c>
       <c r="E80" s="2"/>
@@ -3408,14 +3650,14 @@
         <v>9900</v>
       </c>
       <c r="L80">
-        <f>ROUNDUP((F80+D80)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>21339.3</v>
       </c>
       <c r="M80">
         <v>5000</v>
       </c>
       <c r="N80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>534</v>
       </c>
     </row>
@@ -3424,15 +3666,15 @@
         <v>77</v>
       </c>
       <c r="B81" s="2">
-        <f>ROUND(F80+B80+D80,1)</f>
+        <f t="shared" si="16"/>
         <v>7429936.0999999996</v>
       </c>
       <c r="C81">
-        <f>B81*K80</f>
+        <f t="shared" si="17"/>
         <v>73556367390</v>
       </c>
       <c r="D81" s="2">
-        <f>ROUND((C81+E81)/(M81+J81),1)</f>
+        <f t="shared" si="18"/>
         <v>700536.8</v>
       </c>
       <c r="E81" s="2"/>
@@ -3443,14 +3685,14 @@
         <v>9900</v>
       </c>
       <c r="L81">
-        <f>ROUNDUP((F81+D81)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>23351.3</v>
       </c>
       <c r="M81">
         <v>5000</v>
       </c>
       <c r="N81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>584</v>
       </c>
     </row>
@@ -3459,15 +3701,15 @@
         <v>78</v>
       </c>
       <c r="B82" s="2">
-        <f>ROUND(F81+B81+D81,1)</f>
+        <f t="shared" si="16"/>
         <v>8130472.9000000004</v>
       </c>
       <c r="C82">
-        <f>B82*K81</f>
+        <f t="shared" si="17"/>
         <v>80491681710</v>
       </c>
       <c r="D82" s="2">
-        <f>ROUND((C82+E82)/(M82+J82),1)</f>
+        <f t="shared" si="18"/>
         <v>766587.4</v>
       </c>
       <c r="E82" s="2"/>
@@ -3478,14 +3720,14 @@
         <v>9900</v>
       </c>
       <c r="L82">
-        <f>ROUNDUP((F82+D82)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>25553</v>
       </c>
       <c r="M82">
         <v>5000</v>
       </c>
       <c r="N82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>639</v>
       </c>
     </row>
@@ -3494,15 +3736,15 @@
         <v>79</v>
       </c>
       <c r="B83" s="2">
-        <f>ROUND(F82+B82+D82,1)</f>
+        <f t="shared" si="16"/>
         <v>8897060.3000000007</v>
       </c>
       <c r="C83">
-        <f>B83*K82</f>
+        <f t="shared" si="17"/>
         <v>88080896970</v>
       </c>
       <c r="D83" s="2">
-        <f>ROUND((C83+E83)/(M83+J83),1)</f>
+        <f t="shared" si="18"/>
         <v>838865.7</v>
       </c>
       <c r="E83" s="2"/>
@@ -3513,14 +3755,14 @@
         <v>9900</v>
       </c>
       <c r="L83">
-        <f>ROUNDUP((F83+D83)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>27962.199999999997</v>
       </c>
       <c r="M83">
         <v>5000</v>
       </c>
       <c r="N83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>700</v>
       </c>
     </row>
@@ -3529,15 +3771,15 @@
         <v>80</v>
       </c>
       <c r="B84" s="2">
-        <f>ROUND(F83+B83+D83,1)</f>
+        <f t="shared" si="16"/>
         <v>9735926</v>
       </c>
       <c r="C84">
-        <f>B84*K83</f>
+        <f t="shared" si="17"/>
         <v>96385667400</v>
       </c>
       <c r="D84" s="2">
-        <f>ROUND((C84+E84)/(M84+J84),1)</f>
+        <f t="shared" si="18"/>
         <v>917958.7</v>
       </c>
       <c r="E84" s="2"/>
@@ -3548,14 +3790,14 @@
         <v>9900</v>
       </c>
       <c r="L84">
-        <f>ROUNDUP((F84+D84)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>30598.699999999997</v>
       </c>
       <c r="M84">
         <v>5000</v>
       </c>
       <c r="N84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>765</v>
       </c>
     </row>
@@ -3564,15 +3806,15 @@
         <v>81</v>
       </c>
       <c r="B85" s="2">
-        <f>ROUND(F84+B84+D84,1)</f>
+        <f t="shared" si="16"/>
         <v>10653884.699999999</v>
       </c>
       <c r="C85">
-        <f>B85*K84</f>
+        <f t="shared" si="17"/>
         <v>105473458530</v>
       </c>
       <c r="D85" s="2">
-        <f>ROUND((C85+E85)/(M85+J85),1)</f>
+        <f t="shared" si="18"/>
         <v>1004509.1</v>
       </c>
       <c r="E85" s="2"/>
@@ -3583,14 +3825,14 @@
         <v>9900</v>
       </c>
       <c r="L85">
-        <f>ROUNDUP((F85+D85)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>33483.699999999997</v>
       </c>
       <c r="M85">
         <v>5000</v>
       </c>
       <c r="N85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>838</v>
       </c>
     </row>
@@ -3599,15 +3841,15 @@
         <v>82</v>
       </c>
       <c r="B86" s="2">
-        <f>ROUND(F85+B85+D85,1)</f>
+        <f t="shared" si="16"/>
         <v>11658393.800000001</v>
       </c>
       <c r="C86">
-        <f>B86*K85</f>
+        <f t="shared" si="17"/>
         <v>115418098620</v>
       </c>
       <c r="D86" s="2">
-        <f>ROUND((C86+E86)/(M86+J86),1)</f>
+        <f t="shared" si="18"/>
         <v>1099220</v>
       </c>
       <c r="E86" s="2"/>
@@ -3618,14 +3860,14 @@
         <v>9900</v>
       </c>
       <c r="L86">
-        <f>ROUNDUP((F86+D86)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>36640.699999999997</v>
       </c>
       <c r="M86">
         <v>5000</v>
       </c>
       <c r="N86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>917</v>
       </c>
     </row>
@@ -3634,15 +3876,15 @@
         <v>83</v>
       </c>
       <c r="B87" s="2">
-        <f>ROUND(F86+B86+D86,1)</f>
+        <f t="shared" si="16"/>
         <v>12757613.800000001</v>
       </c>
       <c r="C87">
-        <f>B87*K86</f>
+        <f t="shared" si="17"/>
         <v>126300376620</v>
       </c>
       <c r="D87" s="2">
-        <f>ROUND((C87+E87)/(M87+J87),1)</f>
+        <f t="shared" si="18"/>
         <v>1202860.7</v>
       </c>
       <c r="E87" s="2"/>
@@ -3653,14 +3895,14 @@
         <v>9900</v>
       </c>
       <c r="L87">
-        <f>ROUNDUP((F87+D87)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>40095.4</v>
       </c>
       <c r="M87">
         <v>5000</v>
       </c>
       <c r="N87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>1003</v>
       </c>
     </row>
@@ -3669,15 +3911,15 @@
         <v>84</v>
       </c>
       <c r="B88" s="2">
-        <f>ROUND(F87+B87+D87,1)</f>
+        <f t="shared" si="16"/>
         <v>13960474.5</v>
       </c>
       <c r="C88">
-        <f>B88*K87</f>
+        <f t="shared" si="17"/>
         <v>138208697550</v>
       </c>
       <c r="D88" s="2">
-        <f>ROUND((C88+E88)/(M88+J88),1)</f>
+        <f t="shared" si="18"/>
         <v>1316273.3</v>
       </c>
       <c r="E88" s="2"/>
@@ -3688,14 +3930,14 @@
         <v>9900</v>
       </c>
       <c r="L88">
-        <f>ROUNDUP((F88+D88)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>43875.799999999996</v>
       </c>
       <c r="M88">
         <v>5000</v>
       </c>
       <c r="N88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>1097</v>
       </c>
     </row>
@@ -3704,15 +3946,15 @@
         <v>85</v>
       </c>
       <c r="B89" s="2">
-        <f>ROUND(F88+B88+D88,1)</f>
+        <f t="shared" si="16"/>
         <v>15276747.800000001</v>
       </c>
       <c r="C89">
-        <f>B89*K88</f>
+        <f t="shared" si="17"/>
         <v>151239803220</v>
       </c>
       <c r="D89" s="2">
-        <f>ROUND((C89+E89)/(M89+J89),1)</f>
+        <f t="shared" si="18"/>
         <v>1440379.1</v>
       </c>
       <c r="E89" s="2"/>
@@ -3723,14 +3965,14 @@
         <v>9900</v>
       </c>
       <c r="L89">
-        <f>ROUNDUP((F89+D89)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>48012.7</v>
       </c>
       <c r="M89">
         <v>5000</v>
       </c>
       <c r="N89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>1201</v>
       </c>
     </row>
@@ -3739,15 +3981,15 @@
         <v>86</v>
       </c>
       <c r="B90" s="2">
-        <f>ROUND(F89+B89+D89,1)</f>
+        <f t="shared" si="16"/>
         <v>16717126.9</v>
       </c>
       <c r="C90">
-        <f>B90*K89</f>
+        <f t="shared" si="17"/>
         <v>165499556310</v>
       </c>
       <c r="D90" s="2">
-        <f>ROUND((C90+E90)/(M90+J90),1)</f>
+        <f t="shared" si="18"/>
         <v>1576186.3</v>
       </c>
       <c r="E90" s="2"/>
@@ -3758,14 +4000,14 @@
         <v>9900</v>
       </c>
       <c r="L90">
-        <f>ROUNDUP((F90+D90)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>52539.6</v>
       </c>
       <c r="M90">
         <v>5000</v>
       </c>
       <c r="N90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>1314</v>
       </c>
     </row>
@@ -3774,15 +4016,15 @@
         <v>87</v>
       </c>
       <c r="B91" s="2">
-        <f>ROUND(F90+B90+D90,1)</f>
+        <f t="shared" si="16"/>
         <v>18293313.199999999</v>
       </c>
       <c r="C91">
-        <f>B91*K90</f>
+        <f t="shared" si="17"/>
         <v>181103800680</v>
       </c>
       <c r="D91" s="2">
-        <f>ROUND((C91+E91)/(M91+J91),1)</f>
+        <f t="shared" si="18"/>
         <v>1724798.1</v>
       </c>
       <c r="E91" s="2"/>
@@ -3793,14 +4035,14 @@
         <v>9900</v>
       </c>
       <c r="L91">
-        <f>ROUNDUP((F91+D91)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>57493.299999999996</v>
       </c>
       <c r="M91">
         <v>5000</v>
       </c>
       <c r="N91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>1438</v>
       </c>
     </row>
@@ -3809,15 +4051,15 @@
         <v>88</v>
       </c>
       <c r="B92" s="2">
-        <f>ROUND(F91+B91+D91,1)</f>
+        <f t="shared" si="16"/>
         <v>20018111.300000001</v>
       </c>
       <c r="C92">
-        <f>B92*K91</f>
+        <f t="shared" si="17"/>
         <v>198179301870</v>
       </c>
       <c r="D92" s="2">
-        <f>ROUND((C92+E92)/(M92+J92),1)</f>
+        <f t="shared" si="18"/>
         <v>1887421.9</v>
       </c>
       <c r="E92" s="2"/>
@@ -3828,14 +4070,14 @@
         <v>9900</v>
       </c>
       <c r="L92">
-        <f>ROUNDUP((F92+D92)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>62914.1</v>
       </c>
       <c r="M92">
         <v>5000</v>
       </c>
       <c r="N92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>1573</v>
       </c>
     </row>
@@ -3844,15 +4086,15 @@
         <v>89</v>
       </c>
       <c r="B93" s="2">
-        <f>ROUND(F92+B92+D92,1)</f>
+        <f t="shared" si="16"/>
         <v>21905533.199999999</v>
       </c>
       <c r="C93">
-        <f>B93*K92</f>
+        <f t="shared" si="17"/>
         <v>216864778680</v>
       </c>
       <c r="D93" s="2">
-        <f>ROUND((C93+E93)/(M93+J93),1)</f>
+        <f t="shared" si="18"/>
         <v>2065378.8</v>
       </c>
       <c r="E93" s="2"/>
@@ -3863,14 +4105,14 @@
         <v>9900</v>
       </c>
       <c r="L93">
-        <f>ROUNDUP((F93+D93)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>68846</v>
       </c>
       <c r="M93">
         <v>5000</v>
       </c>
       <c r="N93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>1722</v>
       </c>
     </row>
@@ -3879,15 +4121,15 @@
         <v>90</v>
       </c>
       <c r="B94" s="2">
-        <f>ROUND(F93+B93+D93,1)</f>
+        <f t="shared" si="16"/>
         <v>23970912</v>
       </c>
       <c r="C94">
-        <f>B94*K93</f>
+        <f t="shared" si="17"/>
         <v>237312028800</v>
       </c>
       <c r="D94" s="2">
-        <f>ROUND((C94+E94)/(M94+J94),1)</f>
+        <f t="shared" si="18"/>
         <v>2260114.6</v>
       </c>
       <c r="E94" s="2"/>
@@ -3898,14 +4140,14 @@
         <v>9900</v>
       </c>
       <c r="L94">
-        <f>ROUNDUP((F94+D94)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>75337.200000000012</v>
       </c>
       <c r="M94">
         <v>5000</v>
       </c>
       <c r="N94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>1884</v>
       </c>
     </row>
@@ -3914,15 +4156,15 @@
         <v>91</v>
       </c>
       <c r="B95" s="2">
-        <f>ROUND(F94+B94+D94,1)</f>
+        <f t="shared" si="16"/>
         <v>26231026.600000001</v>
       </c>
       <c r="C95">
-        <f>B95*K94</f>
+        <f t="shared" si="17"/>
         <v>259687163340</v>
       </c>
       <c r="D95" s="2">
-        <f>ROUND((C95+E95)/(M95+J95),1)</f>
+        <f t="shared" si="18"/>
         <v>2473211.1</v>
       </c>
       <c r="E95" s="2"/>
@@ -3933,14 +4175,14 @@
         <v>9900</v>
       </c>
       <c r="L95">
-        <f>ROUNDUP((F95+D95)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>82440.400000000009</v>
       </c>
       <c r="M95">
         <v>5000</v>
       </c>
       <c r="N95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>2062</v>
       </c>
     </row>
@@ -3949,15 +4191,15 @@
         <v>92</v>
       </c>
       <c r="B96" s="2">
-        <f>ROUND(F95+B95+D95,1)</f>
+        <f t="shared" si="16"/>
         <v>28704237.699999999</v>
       </c>
       <c r="C96">
-        <f>B96*K95</f>
+        <f t="shared" si="17"/>
         <v>284171953230</v>
       </c>
       <c r="D96" s="2">
-        <f>ROUND((C96+E96)/(M96+J96),1)</f>
+        <f t="shared" si="18"/>
         <v>2706399.6</v>
       </c>
       <c r="E96" s="2"/>
@@ -3968,14 +4210,14 @@
         <v>9900</v>
       </c>
       <c r="L96">
-        <f>ROUNDUP((F96+D96)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>90213.400000000009</v>
       </c>
       <c r="M96">
         <v>5000</v>
       </c>
       <c r="N96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>2256</v>
       </c>
     </row>
@@ -3984,15 +4226,15 @@
         <v>93</v>
       </c>
       <c r="B97" s="2">
-        <f>ROUND(F96+B96+D96,1)</f>
+        <f t="shared" si="16"/>
         <v>31410637.300000001</v>
       </c>
       <c r="C97">
-        <f>B97*K96</f>
+        <f t="shared" si="17"/>
         <v>310965309270</v>
       </c>
       <c r="D97" s="2">
-        <f>ROUND((C97+E97)/(M97+J97),1)</f>
+        <f t="shared" si="18"/>
         <v>2961574.4</v>
       </c>
       <c r="E97" s="2"/>
@@ -4003,14 +4245,14 @@
         <v>9900</v>
       </c>
       <c r="L97">
-        <f>ROUNDUP((F97+D97)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>98719.200000000012</v>
       </c>
       <c r="M97">
         <v>5000</v>
       </c>
       <c r="N97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>2468</v>
       </c>
     </row>
@@ -4019,15 +4261,15 @@
         <v>94</v>
       </c>
       <c r="B98" s="2">
-        <f>ROUND(F97+B97+D97,1)</f>
+        <f t="shared" si="16"/>
         <v>34372211.700000003</v>
       </c>
       <c r="C98">
-        <f>B98*K97</f>
+        <f t="shared" si="17"/>
         <v>340284895830</v>
       </c>
       <c r="D98" s="2">
-        <f>ROUND((C98+E98)/(M98+J98),1)</f>
+        <f t="shared" si="18"/>
         <v>3240808.5</v>
       </c>
       <c r="E98" s="2"/>
@@ -4038,14 +4280,14 @@
         <v>9900</v>
       </c>
       <c r="L98">
-        <f>ROUNDUP((F98+D98)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>108027</v>
       </c>
       <c r="M98">
         <v>5000</v>
       </c>
       <c r="N98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>2701</v>
       </c>
     </row>
@@ -4054,15 +4296,15 @@
         <v>95</v>
       </c>
       <c r="B99" s="2">
-        <f>ROUND(F98+B98+D98,1)</f>
+        <f t="shared" si="16"/>
         <v>37613020.200000003</v>
       </c>
       <c r="C99">
-        <f>B99*K98</f>
+        <f t="shared" si="17"/>
         <v>372368899980</v>
       </c>
       <c r="D99" s="2">
-        <f>ROUND((C99+E99)/(M99+J99),1)</f>
+        <f t="shared" si="18"/>
         <v>3546370.5</v>
       </c>
       <c r="E99" s="2"/>
@@ -4073,14 +4315,14 @@
         <v>9900</v>
       </c>
       <c r="L99">
-        <f>ROUNDUP((F99+D99)/30,1)</f>
+        <f t="shared" si="15"/>
         <v>118212.40000000001</v>
       </c>
       <c r="M99">
         <v>5000</v>
       </c>
       <c r="N99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>2956</v>
       </c>
     </row>
@@ -4089,15 +4331,15 @@
         <v>96</v>
       </c>
       <c r="B100" s="2">
-        <f>ROUND(F99+B99+D99,1)</f>
+        <f t="shared" si="16"/>
         <v>41159390.700000003</v>
       </c>
       <c r="C100">
-        <f>B100*K99</f>
+        <f t="shared" si="17"/>
         <v>407477967930</v>
       </c>
       <c r="D100" s="2">
-        <f>ROUND((C100+E100)/(M100+J100),1)</f>
+        <f t="shared" si="18"/>
         <v>3880742.6</v>
       </c>
       <c r="E100" s="2"/>
@@ -4108,14 +4350,14 @@
         <v>9900</v>
       </c>
       <c r="L100">
-        <f>ROUNDUP((F100+D100)/30,1)</f>
+        <f t="shared" ref="L100:L124" si="20">ROUNDUP((F100+D100)/30,1)</f>
         <v>129358.1</v>
       </c>
       <c r="M100">
         <v>5000</v>
       </c>
       <c r="N100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>3234</v>
       </c>
     </row>
@@ -4124,15 +4366,15 @@
         <v>97</v>
       </c>
       <c r="B101" s="2">
-        <f>ROUND(F100+B100+D100,1)</f>
+        <f t="shared" ref="B101:B124" si="21">ROUND(F100+B100+D100,1)</f>
         <v>45040133.299999997</v>
       </c>
       <c r="C101">
-        <f>B101*K100</f>
+        <f t="shared" ref="C101:C132" si="22">B101*K100</f>
         <v>445897319670</v>
       </c>
       <c r="D101" s="2">
-        <f>ROUND((C101+E101)/(M101+J101),1)</f>
+        <f t="shared" ref="D101:D132" si="23">ROUND((C101+E101)/(M101+J101),1)</f>
         <v>4246641.0999999996</v>
       </c>
       <c r="E101" s="2"/>
@@ -4143,14 +4385,14 @@
         <v>9900</v>
       </c>
       <c r="L101">
-        <f>ROUNDUP((F101+D101)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>141554.80000000002</v>
       </c>
       <c r="M101">
         <v>5000</v>
       </c>
       <c r="N101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>3539</v>
       </c>
     </row>
@@ -4159,15 +4401,15 @@
         <v>98</v>
       </c>
       <c r="B102" s="2">
-        <f>ROUND(F101+B101+D101,1)</f>
+        <f t="shared" si="21"/>
         <v>49286774.399999999</v>
       </c>
       <c r="C102">
-        <f>B102*K101</f>
+        <f t="shared" si="22"/>
         <v>487939066560</v>
       </c>
       <c r="D102" s="2">
-        <f>ROUND((C102+E102)/(M102+J102),1)</f>
+        <f t="shared" si="23"/>
         <v>4647038.7</v>
       </c>
       <c r="E102" s="2"/>
@@ -4178,14 +4420,14 @@
         <v>9900</v>
       </c>
       <c r="L102">
-        <f>ROUNDUP((F102+D102)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>154901.30000000002</v>
       </c>
       <c r="M102">
         <v>5000</v>
       </c>
       <c r="N102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>3873</v>
       </c>
     </row>
@@ -4194,15 +4436,15 @@
         <v>99</v>
       </c>
       <c r="B103" s="2">
-        <f>ROUND(F102+B102+D102,1)</f>
+        <f t="shared" si="21"/>
         <v>53933813.100000001</v>
       </c>
       <c r="C103">
-        <f>B103*K102</f>
+        <f t="shared" si="22"/>
         <v>533944749690</v>
       </c>
       <c r="D103" s="2">
-        <f>ROUND((C103+E103)/(M103+J103),1)</f>
+        <f t="shared" si="23"/>
         <v>5085188.0999999996</v>
       </c>
       <c r="E103" s="2"/>
@@ -4213,14 +4455,14 @@
         <v>9900</v>
       </c>
       <c r="L103">
-        <f>ROUNDUP((F103+D103)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>169506.30000000002</v>
       </c>
       <c r="M103">
         <v>5000</v>
       </c>
       <c r="N103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>4238</v>
       </c>
     </row>
@@ -4229,15 +4471,15 @@
         <v>100</v>
       </c>
       <c r="B104" s="2">
-        <f>ROUND(F103+B103+D103,1)</f>
+        <f t="shared" si="21"/>
         <v>59019001.200000003</v>
       </c>
       <c r="C104">
-        <f>B104*K103</f>
+        <f t="shared" si="22"/>
         <v>584288111880</v>
       </c>
       <c r="D104" s="2">
-        <f>ROUND((C104+E104)/(M104+J104),1)</f>
+        <f t="shared" si="23"/>
         <v>5564648.7000000002</v>
       </c>
       <c r="E104" s="2"/>
@@ -4248,14 +4490,14 @@
         <v>9900</v>
       </c>
       <c r="L104">
-        <f>ROUNDUP((F104+D104)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>185488.30000000002</v>
       </c>
       <c r="M104">
         <v>5000</v>
       </c>
       <c r="N104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>4638</v>
       </c>
     </row>
@@ -4264,15 +4506,15 @@
         <v>101</v>
       </c>
       <c r="B105" s="2">
-        <f>ROUND(F104+B104+D104,1)</f>
+        <f t="shared" si="21"/>
         <v>64583649.899999999</v>
       </c>
       <c r="C105">
-        <f>B105*K104</f>
+        <f t="shared" si="22"/>
         <v>639378134010</v>
       </c>
       <c r="D105" s="2">
-        <f>ROUND((C105+E105)/(M105+J105),1)</f>
+        <f t="shared" si="23"/>
         <v>6089315.5999999996</v>
       </c>
       <c r="E105" s="2"/>
@@ -4283,14 +4525,14 @@
         <v>9900</v>
       </c>
       <c r="L105">
-        <f>ROUNDUP((F105+D105)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>202977.2</v>
       </c>
       <c r="M105">
         <v>5000</v>
       </c>
       <c r="N105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>5075</v>
       </c>
     </row>
@@ -4299,15 +4541,15 @@
         <v>102</v>
       </c>
       <c r="B106" s="2">
-        <f>ROUND(F105+B105+D105,1)</f>
+        <f t="shared" si="21"/>
         <v>70672965.5</v>
       </c>
       <c r="C106">
-        <f>B106*K105</f>
+        <f t="shared" si="22"/>
         <v>699662358450</v>
       </c>
       <c r="D106" s="2">
-        <f>ROUND((C106+E106)/(M106+J106),1)</f>
+        <f t="shared" si="23"/>
         <v>6663451</v>
       </c>
       <c r="E106" s="2"/>
@@ -4318,14 +4560,14 @@
         <v>9900</v>
       </c>
       <c r="L106">
-        <f>ROUNDUP((F106+D106)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>222115.1</v>
       </c>
       <c r="M106">
         <v>5000</v>
       </c>
       <c r="N106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>5553</v>
       </c>
     </row>
@@ -4334,15 +4576,15 @@
         <v>103</v>
       </c>
       <c r="B107" s="2">
-        <f>ROUND(F106+B106+D106,1)</f>
+        <f t="shared" si="21"/>
         <v>77336416.5</v>
       </c>
       <c r="C107">
-        <f>B107*K106</f>
+        <f t="shared" si="22"/>
         <v>765630523350</v>
       </c>
       <c r="D107" s="2">
-        <f>ROUND((C107+E107)/(M107+J107),1)</f>
+        <f t="shared" si="23"/>
         <v>7291719.2999999998</v>
       </c>
       <c r="E107" s="2"/>
@@ -4353,14 +4595,14 @@
         <v>9900</v>
       </c>
       <c r="L107">
-        <f>ROUNDUP((F107+D107)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>243057.4</v>
       </c>
       <c r="M107">
         <v>5000</v>
       </c>
       <c r="N107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>6077</v>
       </c>
     </row>
@@ -4369,15 +4611,15 @@
         <v>104</v>
       </c>
       <c r="B108" s="2">
-        <f>ROUND(F107+B107+D107,1)</f>
+        <f t="shared" si="21"/>
         <v>84628135.799999997</v>
       </c>
       <c r="C108">
-        <f>B108*K107</f>
+        <f t="shared" si="22"/>
         <v>837818544420</v>
       </c>
       <c r="D108" s="2">
-        <f>ROUND((C108+E108)/(M108+J108),1)</f>
+        <f t="shared" si="23"/>
         <v>7979224.2000000002</v>
       </c>
       <c r="E108" s="2"/>
@@ -4388,14 +4630,14 @@
         <v>9900</v>
       </c>
       <c r="L108">
-        <f>ROUNDUP((F108+D108)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>265974.19999999995</v>
       </c>
       <c r="M108">
         <v>5000</v>
       </c>
       <c r="N108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>6650</v>
       </c>
     </row>
@@ -4404,15 +4646,15 @@
         <v>105</v>
       </c>
       <c r="B109" s="2">
-        <f>ROUND(F108+B108+D108,1)</f>
+        <f t="shared" si="21"/>
         <v>92607360</v>
       </c>
       <c r="C109">
-        <f>B109*K108</f>
+        <f t="shared" si="22"/>
         <v>916812864000</v>
       </c>
       <c r="D109" s="2">
-        <f>ROUND((C109+E109)/(M109+J109),1)</f>
+        <f t="shared" si="23"/>
         <v>8731551.0999999996</v>
       </c>
       <c r="E109" s="2"/>
@@ -4423,14 +4665,14 @@
         <v>9900</v>
       </c>
       <c r="L109">
-        <f>ROUNDUP((F109+D109)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>291051.8</v>
       </c>
       <c r="M109">
         <v>5000</v>
       </c>
       <c r="N109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>7277</v>
       </c>
     </row>
@@ -4439,15 +4681,15 @@
         <v>106</v>
       </c>
       <c r="B110" s="2">
-        <f>ROUND(F109+B109+D109,1)</f>
+        <f t="shared" si="21"/>
         <v>101338911.09999999</v>
       </c>
       <c r="C110">
-        <f>B110*K109</f>
+        <f t="shared" si="22"/>
         <v>1003255219890</v>
       </c>
       <c r="D110" s="2">
-        <f>ROUND((C110+E110)/(M110+J110),1)</f>
+        <f t="shared" si="23"/>
         <v>9554811.5999999996</v>
       </c>
       <c r="E110" s="2"/>
@@ -4458,14 +4700,14 @@
         <v>9900</v>
       </c>
       <c r="L110">
-        <f>ROUNDUP((F110+D110)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>318493.8</v>
       </c>
       <c r="M110">
         <v>5000</v>
       </c>
       <c r="N110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>7963</v>
       </c>
     </row>
@@ -4474,15 +4716,15 @@
         <v>107</v>
       </c>
       <c r="B111" s="2">
-        <f>ROUND(F110+B110+D110,1)</f>
+        <f t="shared" si="21"/>
         <v>110893722.7</v>
       </c>
       <c r="C111">
-        <f>B111*K110</f>
+        <f t="shared" si="22"/>
         <v>1097847854730</v>
       </c>
       <c r="D111" s="2">
-        <f>ROUND((C111+E111)/(M111+J111),1)</f>
+        <f t="shared" si="23"/>
         <v>10455693.9</v>
       </c>
       <c r="E111" s="2"/>
@@ -4493,14 +4735,14 @@
         <v>9900</v>
       </c>
       <c r="L111">
-        <f>ROUNDUP((F111+D111)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>348523.19999999995</v>
       </c>
       <c r="M111">
         <v>5000</v>
       </c>
       <c r="N111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>8714</v>
       </c>
     </row>
@@ -4509,15 +4751,15 @@
         <v>108</v>
       </c>
       <c r="B112" s="2">
-        <f>ROUND(F111+B111+D111,1)</f>
+        <f t="shared" si="21"/>
         <v>121349416.59999999</v>
       </c>
       <c r="C112">
-        <f>B112*K111</f>
+        <f t="shared" si="22"/>
         <v>1201359224340</v>
       </c>
       <c r="D112" s="2">
-        <f>ROUND((C112+E112)/(M112+J112),1)</f>
+        <f t="shared" si="23"/>
         <v>11441516.4</v>
       </c>
       <c r="E112" s="2"/>
@@ -4528,14 +4770,14 @@
         <v>9900</v>
       </c>
       <c r="L112">
-        <f>ROUNDUP((F112+D112)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>381383.89999999997</v>
       </c>
       <c r="M112">
         <v>5000</v>
       </c>
       <c r="N112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>9535</v>
       </c>
     </row>
@@ -4544,15 +4786,15 @@
         <v>109</v>
       </c>
       <c r="B113" s="2">
-        <f>ROUND(F112+B112+D112,1)</f>
+        <f t="shared" si="21"/>
         <v>132790933</v>
       </c>
       <c r="C113">
-        <f>B113*K112</f>
+        <f t="shared" si="22"/>
         <v>1314630236700</v>
       </c>
       <c r="D113" s="2">
-        <f>ROUND((C113+E113)/(M113+J113),1)</f>
+        <f t="shared" si="23"/>
         <v>12520288</v>
       </c>
       <c r="E113" s="2"/>
@@ -4563,14 +4805,14 @@
         <v>9900</v>
       </c>
       <c r="L113">
-        <f>ROUNDUP((F113+D113)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>417343</v>
       </c>
       <c r="M113">
         <v>5000</v>
       </c>
       <c r="N113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>10434</v>
       </c>
     </row>
@@ -4579,15 +4821,15 @@
         <v>110</v>
       </c>
       <c r="B114" s="2">
-        <f>ROUND(F113+B113+D113,1)</f>
+        <f t="shared" si="21"/>
         <v>145311221</v>
       </c>
       <c r="C114">
-        <f>B114*K113</f>
+        <f t="shared" si="22"/>
         <v>1438581087900</v>
       </c>
       <c r="D114" s="2">
-        <f>ROUND((C114+E114)/(M114+J114),1)</f>
+        <f t="shared" si="23"/>
         <v>13700772.300000001</v>
       </c>
       <c r="E114" s="2"/>
@@ -4598,14 +4840,14 @@
         <v>9900</v>
       </c>
       <c r="L114">
-        <f>ROUNDUP((F114+D114)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>456692.5</v>
       </c>
       <c r="M114">
         <v>5000</v>
       </c>
       <c r="N114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>11418</v>
       </c>
     </row>
@@ -4614,15 +4856,15 @@
         <v>111</v>
       </c>
       <c r="B115" s="2">
-        <f>ROUND(F114+B114+D114,1)</f>
+        <f t="shared" si="21"/>
         <v>159011993.30000001</v>
       </c>
       <c r="C115">
-        <f>B115*K114</f>
+        <f t="shared" si="22"/>
         <v>1574218733670</v>
       </c>
       <c r="D115" s="2">
-        <f>ROUND((C115+E115)/(M115+J115),1)</f>
+        <f t="shared" si="23"/>
         <v>14992559.4</v>
       </c>
       <c r="E115" s="2"/>
@@ -4633,14 +4875,14 @@
         <v>9900</v>
       </c>
       <c r="L115">
-        <f>ROUNDUP((F115+D115)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>499752</v>
       </c>
       <c r="M115">
         <v>5000</v>
       </c>
       <c r="N115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>12494</v>
       </c>
     </row>
@@ -4649,15 +4891,15 @@
         <v>112</v>
       </c>
       <c r="B116" s="2">
-        <f>ROUND(F115+B115+D115,1)</f>
+        <f t="shared" si="21"/>
         <v>174004552.69999999</v>
       </c>
       <c r="C116">
-        <f>B116*K115</f>
+        <f t="shared" si="22"/>
         <v>1722645071730</v>
       </c>
       <c r="D116" s="2">
-        <f>ROUND((C116+E116)/(M116+J116),1)</f>
+        <f t="shared" si="23"/>
         <v>16406143.5</v>
       </c>
       <c r="E116" s="2"/>
@@ -4668,14 +4910,14 @@
         <v>9900</v>
       </c>
       <c r="L116">
-        <f>ROUNDUP((F116+D116)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>546871.5</v>
       </c>
       <c r="M116">
         <v>5000</v>
       </c>
       <c r="N116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>13672</v>
       </c>
     </row>
@@ -4684,15 +4926,15 @@
         <v>113</v>
       </c>
       <c r="B117" s="2">
-        <f>ROUND(F116+B116+D116,1)</f>
+        <f t="shared" si="21"/>
         <v>190410696.19999999</v>
       </c>
       <c r="C117">
-        <f>B117*K116</f>
+        <f t="shared" si="22"/>
         <v>1885065892380</v>
       </c>
       <c r="D117" s="2">
-        <f>ROUND((C117+E117)/(M117+J117),1)</f>
+        <f t="shared" si="23"/>
         <v>17953008.5</v>
       </c>
       <c r="E117" s="2"/>
@@ -4703,14 +4945,14 @@
         <v>9900</v>
       </c>
       <c r="L117">
-        <f>ROUNDUP((F117+D117)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>598433.69999999995</v>
       </c>
       <c r="M117">
         <v>5000</v>
       </c>
       <c r="N117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>14961</v>
       </c>
     </row>
@@ -4719,15 +4961,15 @@
         <v>114</v>
       </c>
       <c r="B118" s="2">
-        <f>ROUND(F117+B117+D117,1)</f>
+        <f t="shared" si="21"/>
         <v>208363704.69999999</v>
       </c>
       <c r="C118">
-        <f>B118*K117</f>
+        <f t="shared" si="22"/>
         <v>2062800676530</v>
       </c>
       <c r="D118" s="2">
-        <f>ROUND((C118+E118)/(M118+J118),1)</f>
+        <f t="shared" si="23"/>
         <v>19645720.699999999</v>
       </c>
       <c r="E118" s="2"/>
@@ -4738,14 +4980,14 @@
         <v>9900</v>
       </c>
       <c r="L118">
-        <f>ROUNDUP((F118+D118)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>654857.4</v>
       </c>
       <c r="M118">
         <v>5000</v>
       </c>
       <c r="N118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>16372</v>
       </c>
     </row>
@@ -4754,15 +4996,15 @@
         <v>115</v>
       </c>
       <c r="B119" s="2">
-        <f>ROUND(F118+B118+D118,1)</f>
+        <f t="shared" si="21"/>
         <v>228009425.40000001</v>
       </c>
       <c r="C119">
-        <f>B119*K118</f>
+        <f t="shared" si="22"/>
         <v>2257293311460</v>
       </c>
       <c r="D119" s="2">
-        <f>ROUND((C119+E119)/(M119+J119),1)</f>
+        <f t="shared" si="23"/>
         <v>21498031.5</v>
       </c>
       <c r="E119" s="2"/>
@@ -4773,14 +5015,14 @@
         <v>9900</v>
       </c>
       <c r="L119">
-        <f>ROUNDUP((F119+D119)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>716601.1</v>
       </c>
       <c r="M119">
         <v>5000</v>
       </c>
       <c r="N119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>17916</v>
       </c>
     </row>
@@ -4789,15 +5031,15 @@
         <v>116</v>
       </c>
       <c r="B120" s="2">
-        <f>ROUND(F119+B119+D119,1)</f>
+        <f t="shared" si="21"/>
         <v>249507456.90000001</v>
       </c>
       <c r="C120">
-        <f>B120*K119</f>
+        <f t="shared" si="22"/>
         <v>2470123823310</v>
       </c>
       <c r="D120" s="2">
-        <f>ROUND((C120+E120)/(M120+J120),1)</f>
+        <f t="shared" si="23"/>
         <v>23524988.800000001</v>
       </c>
       <c r="E120" s="2"/>
@@ -4808,14 +5050,14 @@
         <v>9900</v>
       </c>
       <c r="L120">
-        <f>ROUNDUP((F120+D120)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>784166.29999999993</v>
       </c>
       <c r="M120">
         <v>5000</v>
       </c>
       <c r="N120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>19605</v>
       </c>
     </row>
@@ -4824,15 +5066,15 @@
         <v>117</v>
       </c>
       <c r="B121" s="2">
-        <f>ROUND(F120+B120+D120,1)</f>
+        <f t="shared" si="21"/>
         <v>273032445.69999999</v>
       </c>
       <c r="C121">
-        <f>B121*K120</f>
+        <f t="shared" si="22"/>
         <v>2703021212430</v>
       </c>
       <c r="D121" s="2">
-        <f>ROUND((C121+E121)/(M121+J121),1)</f>
+        <f t="shared" si="23"/>
         <v>25743059.199999999</v>
       </c>
       <c r="E121" s="2"/>
@@ -4843,14 +5085,14 @@
         <v>9900</v>
       </c>
       <c r="L121">
-        <f>ROUNDUP((F121+D121)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>858102</v>
       </c>
       <c r="M121">
         <v>5000</v>
       </c>
       <c r="N121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>21453</v>
       </c>
     </row>
@@ -4859,15 +5101,15 @@
         <v>118</v>
       </c>
       <c r="B122" s="2">
-        <f>ROUND(F121+B121+D121,1)</f>
+        <f t="shared" si="21"/>
         <v>298775504.89999998</v>
       </c>
       <c r="C122">
-        <f>B122*K121</f>
+        <f t="shared" si="22"/>
         <v>2957877498510</v>
       </c>
       <c r="D122" s="2">
-        <f>ROUND((C122+E122)/(M122+J122),1)</f>
+        <f t="shared" si="23"/>
         <v>28170261.899999999</v>
       </c>
       <c r="E122" s="2"/>
@@ -4878,14 +5120,14 @@
         <v>9900</v>
       </c>
       <c r="L122">
-        <f>ROUNDUP((F122+D122)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>939008.79999999993</v>
       </c>
       <c r="M122">
         <v>5000</v>
       </c>
       <c r="N122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>23476</v>
       </c>
     </row>
@@ -4894,15 +5136,15 @@
         <v>119</v>
       </c>
       <c r="B123" s="2">
-        <f>ROUND(F122+B122+D122,1)</f>
+        <f t="shared" si="21"/>
         <v>326945766.80000001</v>
       </c>
       <c r="C123">
-        <f>B123*K122</f>
+        <f t="shared" si="22"/>
         <v>3236763091320</v>
       </c>
       <c r="D123" s="2">
-        <f>ROUND((C123+E123)/(M123+J123),1)</f>
+        <f t="shared" si="23"/>
         <v>30826315.199999999</v>
       </c>
       <c r="E123" s="2"/>
@@ -4913,14 +5155,14 @@
         <v>9900</v>
       </c>
       <c r="L123">
-        <f>ROUNDUP((F123+D123)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>1027543.9</v>
       </c>
       <c r="M123">
         <v>5000</v>
       </c>
       <c r="N123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>25689</v>
       </c>
     </row>
@@ -4929,15 +5171,15 @@
         <v>120</v>
       </c>
       <c r="B124" s="2">
-        <f>ROUND(F123+B123+D123,1)</f>
+        <f t="shared" si="21"/>
         <v>357772082</v>
       </c>
       <c r="C124">
-        <f>B124*K123</f>
+        <f t="shared" si="22"/>
         <v>3541943611800</v>
       </c>
       <c r="D124" s="2">
-        <f>ROUND((C124+E124)/(M124+J124),1)</f>
+        <f t="shared" si="23"/>
         <v>33732796.299999997</v>
       </c>
       <c r="E124" s="2"/>
@@ -4948,18 +5190,19 @@
         <v>9900</v>
       </c>
       <c r="L124">
-        <f>ROUNDUP((F124+D124)/30,1)</f>
+        <f t="shared" si="20"/>
         <v>1124426.6000000001</v>
       </c>
       <c r="M124">
         <v>5000</v>
       </c>
       <c r="N124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>28111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/THUNG_GAO_IOT/TAI CHINH/buoc_nhay_san_pham_ko_tra_luong_ban_dau.xlsx
+++ b/THUNG_GAO_IOT/TAI CHINH/buoc_nhay_san_pham_ko_tra_luong_ban_dau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDT\Desktop\PROJECTS\THUNG_GAO_IOT\TAI CHINH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0083F00F-2E64-46C8-85F7-276BA8BAF419}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED644AE-B993-4163-9103-408229CC7B1C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3A1884C2-1EFC-44AC-BA95-2AB60B7F898A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Lưu ý tránh thuế thì phải lỗ tất cả các tháng, các năm đầu</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>tiền thu lại tháng</t>
-  </si>
-  <si>
-    <t>tổng chi phí</t>
   </si>
   <si>
     <t>số sp 1day</t>
@@ -112,6 +109,21 @@
   <si>
     <t>Lợi nhuận biên</t>
   </si>
+  <si>
+    <t>gia đoạn chửng sản phẩm</t>
+  </si>
+  <si>
+    <t>Giai đoạn cần mở thị trường</t>
+  </si>
+  <si>
+    <t>Gia đoạn tìm lối thoát ở các nước khác</t>
+  </si>
+  <si>
+    <t>Đến được đây là một kì tích</t>
+  </si>
+  <si>
+    <t>Vốn sở hữu</t>
+  </si>
 </sst>
 </file>
 
@@ -126,12 +138,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,11 +188,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -467,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B8D127-5AD6-47DC-B6C3-A8636D1C28B5}">
   <dimension ref="A1:X124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,11 +536,11 @@
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" customWidth="1"/>
     <col min="20" max="20" width="13.85546875" customWidth="1"/>
@@ -516,10 +568,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -531,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -540,43 +592,43 @@
         <v>9</v>
       </c>
       <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
       <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
       <c r="R3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
         <v>19</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>20</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>21</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>22</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>23</v>
       </c>
-      <c r="W3" t="s">
-        <v>24</v>
-      </c>
       <c r="X3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -720,9 +772,13 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="O5">
+        <f>O4+S4</f>
+        <v>1516718533.5</v>
+      </c>
       <c r="Q5">
-        <f>SUM(C16:C28)</f>
-        <v>4968822870</v>
+        <f>SUM(C17:C28)</f>
+        <v>4758385500</v>
       </c>
       <c r="R5">
         <f>SUM(C16:C27)</f>
@@ -730,27 +786,27 @@
       </c>
       <c r="S5">
         <f>Q5-R5</f>
-        <v>620429040</v>
+        <v>409991670</v>
       </c>
       <c r="T5">
         <f>S5*0.8</f>
-        <v>496343232</v>
+        <v>327993336</v>
       </c>
       <c r="U5">
-        <f>T5/O4*100</f>
-        <v>37.99666150510177</v>
+        <f>T5/(O5)*100</f>
+        <v>21.625194705250827</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="V5:V8" si="8">S5/Q5*100</f>
-        <v>12.48643906680457</v>
+        <f t="shared" ref="V5:V10" si="8">S5/Q5*100</f>
+        <v>8.616192824225779</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W8" si="9">T5*0.2</f>
-        <v>99268646.400000006</v>
+        <f t="shared" ref="W5:W10" si="9">T5*0.2</f>
+        <v>65598667.200000003</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5:X8" si="10">(T5/Q5)*100</f>
-        <v>9.9891512534436551</v>
+        <f t="shared" ref="X5:X10" si="10">(T5/Q5)*100</f>
+        <v>6.8929542593806232</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -804,9 +860,13 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O10" si="11">O5+S5</f>
+        <v>1926710203.5</v>
+      </c>
       <c r="Q6">
-        <f>SUM(C28:C40)</f>
-        <v>14649468570</v>
+        <f>SUM(C29:C40)</f>
+        <v>14029039530</v>
       </c>
       <c r="R6">
         <f>SUM(C28:C39)</f>
@@ -814,27 +874,27 @@
       </c>
       <c r="S6">
         <f>Q6-R6</f>
-        <v>1829196270</v>
+        <v>1208767230</v>
       </c>
       <c r="T6">
         <f>S6*0.8</f>
-        <v>1463357016</v>
+        <v>967013784</v>
       </c>
       <c r="U6">
-        <f>T6/O4*100</f>
-        <v>112.02465877094461</v>
+        <f>T6/(O6)*100</f>
+        <v>50.189892711594808</v>
       </c>
       <c r="V6">
         <f t="shared" si="8"/>
-        <v>12.486434311657764</v>
+        <v>8.6161795140369097</v>
       </c>
       <c r="W6">
         <f t="shared" si="9"/>
-        <v>292671403.19999999</v>
+        <v>193402756.80000001</v>
       </c>
       <c r="X6">
-        <f t="shared" si="10"/>
-        <v>9.9891474493262127</v>
+        <f>(T6/Q6)*100</f>
+        <v>6.8929436112295281</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -888,9 +948,13 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="11"/>
+        <v>3135477433.5</v>
+      </c>
       <c r="Q7">
-        <f>SUM(C40:C52)</f>
-        <v>43190735940</v>
+        <f>SUM(C41:C52)</f>
+        <v>41361539670</v>
       </c>
       <c r="R7">
         <f>SUM(C40:C51)</f>
@@ -898,27 +962,27 @@
       </c>
       <c r="S7">
         <f>Q7-R7</f>
-        <v>5392984410</v>
+        <v>3563788140</v>
       </c>
       <c r="T7">
         <f>S7*0.8</f>
-        <v>4314387528</v>
+        <v>2851030512</v>
       </c>
       <c r="U7">
-        <f>T7/O4*100</f>
-        <v>330.28016085298162</v>
+        <f>T7/(O7)*100</f>
+        <v>90.928114536532192</v>
       </c>
       <c r="V7">
         <f t="shared" si="8"/>
-        <v>12.486437872908354</v>
+        <v>8.6161882957777234</v>
       </c>
       <c r="W7">
         <f t="shared" si="9"/>
-        <v>862877505.60000002</v>
+        <v>570206102.39999998</v>
       </c>
       <c r="X7">
         <f t="shared" si="10"/>
-        <v>9.9891502983266829</v>
+        <v>6.8929506366221789</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -972,9 +1036,13 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="11"/>
+        <v>6699265573.5</v>
+      </c>
       <c r="Q8" s="3">
-        <f>SUM(C52:C64)</f>
-        <v>127338376770</v>
+        <f>SUM(C53:C64)</f>
+        <v>121945392360</v>
       </c>
       <c r="R8">
         <f>SUM(C52:C63)</f>
@@ -982,27 +1050,27 @@
       </c>
       <c r="S8">
         <f>Q8-R8</f>
-        <v>15900027660</v>
+        <v>10507043250</v>
       </c>
       <c r="T8">
         <f>S8*0.8</f>
-        <v>12720022128</v>
+        <v>8405634600</v>
       </c>
       <c r="U8">
-        <f>T8/O4*100</f>
-        <v>973.75836714344541</v>
+        <f>T8/(O8)*100</f>
+        <v>125.47098645036272</v>
       </c>
       <c r="V8">
         <f t="shared" si="8"/>
-        <v>12.486438152670038</v>
+        <v>8.6161871692386089</v>
       </c>
       <c r="W8">
         <f t="shared" si="9"/>
-        <v>2544004425.5999999</v>
+        <v>1681126920</v>
       </c>
       <c r="X8">
         <f t="shared" si="10"/>
-        <v>9.9891505221360291</v>
+        <v>6.8929497353908884</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1056,9 +1124,41 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="11"/>
+        <v>17206308823.5</v>
+      </c>
       <c r="Q9" s="3">
-        <f>SUM(C64:C76)</f>
-        <v>375429186000</v>
+        <f>SUM(C65:C76)</f>
+        <v>359529158340</v>
+      </c>
+      <c r="R9">
+        <f>SUM(C64:C75)</f>
+        <v>328551450480</v>
+      </c>
+      <c r="S9">
+        <f>Q9-R9</f>
+        <v>30977707860</v>
+      </c>
+      <c r="T9">
+        <f>S9*0.8</f>
+        <v>24782166288</v>
+      </c>
+      <c r="U9">
+        <f>T9/(O9)*100</f>
+        <v>144.02953324976394</v>
+      </c>
+      <c r="V9">
+        <f>S9/Q9*100</f>
+        <v>8.6161879061572417</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="9"/>
+        <v>4956433257.6000004</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="10"/>
+        <v>6.8929503249257937</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1112,9 +1212,41 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="11"/>
+        <v>48184016683.5</v>
+      </c>
       <c r="Q10" s="3">
-        <f>SUM(C76:C88)</f>
-        <v>1106870428620</v>
+        <f>SUM(C77:C88)</f>
+        <v>1059992693100</v>
+      </c>
+      <c r="R10">
+        <f>SUM(C76:C87)</f>
+        <v>968661731070</v>
+      </c>
+      <c r="S10">
+        <f>Q10-R10</f>
+        <v>91330962030</v>
+      </c>
+      <c r="T10">
+        <f>S10*0.8</f>
+        <v>73064769624</v>
+      </c>
+      <c r="U10">
+        <f>T10/(O10)*100</f>
+        <v>151.63694239924189</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="8"/>
+        <v>8.6161878873804465</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="9"/>
+        <v>14612953924.800001</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="10"/>
+        <v>6.8929503099043581</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1221,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1384,39 +1516,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <f t="shared" si="4"/>
         <v>21256.3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <f t="shared" si="5"/>
         <v>210437370</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <f t="shared" si="6"/>
         <v>2004.2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K16">
-        <v>9900</v>
-      </c>
-      <c r="L16">
+      <c r="J16" s="5">
+        <v>100000</v>
+      </c>
+      <c r="K16" s="4">
+        <v>9900</v>
+      </c>
+      <c r="L16" s="4">
         <f t="shared" si="2"/>
         <v>66.899999999999991</v>
       </c>
-      <c r="M16">
-        <v>5000</v>
-      </c>
-      <c r="N16">
+      <c r="M16" s="4">
+        <v>5000</v>
+      </c>
+      <c r="N16" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -1806,37 +1938,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <f t="shared" si="4"/>
         <v>62669.599999999999</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <f t="shared" si="5"/>
         <v>620429040</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <f t="shared" si="6"/>
         <v>5908.8</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="J28" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K28">
-        <v>9900</v>
-      </c>
-      <c r="L28">
+      <c r="J28" s="5">
+        <v>100000</v>
+      </c>
+      <c r="K28" s="4">
+        <v>9900</v>
+      </c>
+      <c r="L28" s="4">
         <f t="shared" si="2"/>
         <v>197</v>
       </c>
-      <c r="M28">
-        <v>5000</v>
-      </c>
-      <c r="N28">
+      <c r="M28" s="4">
+        <v>5000</v>
+      </c>
+      <c r="N28" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -2110,7 +2241,7 @@
         <v>9900</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:L67" si="11">ROUNDUP((F36+D36)/30,1)</f>
+        <f t="shared" ref="L36:L67" si="12">ROUNDUP((F36+D36)/30,1)</f>
         <v>405</v>
       </c>
       <c r="M36">
@@ -2126,15 +2257,15 @@
         <v>33</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" ref="B37:B68" si="12">ROUND(F36+B36+D36,1)</f>
+        <f t="shared" ref="B37:B68" si="13">ROUND(F36+B36+D36,1)</f>
         <v>141004.5</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:C68" si="13">B37*K36</f>
+        <f t="shared" ref="C37:C68" si="14">B37*K36</f>
         <v>1395944550</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" ref="D37:D68" si="14">ROUND((C37+E37)/(M37+J37),1)</f>
+        <f t="shared" ref="D37:D68" si="15">ROUND((C37+E37)/(M37+J37),1)</f>
         <v>13294.7</v>
       </c>
       <c r="E37" s="2"/>
@@ -2145,7 +2276,7 @@
         <v>9900</v>
       </c>
       <c r="L37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>443.20000000000005</v>
       </c>
       <c r="M37">
@@ -2161,15 +2292,15 @@
         <v>34</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>154299.20000000001</v>
       </c>
       <c r="C38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1527562080</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14548.2</v>
       </c>
       <c r="E38" s="2"/>
@@ -2180,7 +2311,7 @@
         <v>9900</v>
       </c>
       <c r="L38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>485</v>
       </c>
       <c r="M38">
@@ -2196,15 +2327,15 @@
         <v>35</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>168847.4</v>
       </c>
       <c r="C39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1671589260</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15919.9</v>
       </c>
       <c r="E39" s="2"/>
@@ -2215,7 +2346,7 @@
         <v>9900</v>
       </c>
       <c r="L39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>530.70000000000005</v>
       </c>
       <c r="M39">
@@ -2226,37 +2357,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
+        <f t="shared" si="13"/>
+        <v>184767.3</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="14"/>
+        <v>1829196270</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="15"/>
+        <v>17420.900000000001</v>
+      </c>
+      <c r="J40" s="5">
+        <v>100000</v>
+      </c>
+      <c r="K40" s="4">
+        <v>9900</v>
+      </c>
+      <c r="L40" s="4">
         <f t="shared" si="12"/>
-        <v>184767.3</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="13"/>
-        <v>1829196270</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="14"/>
-        <v>17420.900000000001</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="J40" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K40">
-        <v>9900</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="11"/>
         <v>580.70000000000005</v>
       </c>
-      <c r="M40">
-        <v>5000</v>
-      </c>
-      <c r="N40">
+      <c r="M40" s="4">
+        <v>5000</v>
+      </c>
+      <c r="N40" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -2266,15 +2396,15 @@
         <v>37</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>202188.2</v>
       </c>
       <c r="C41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2001663180</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>19063.5</v>
       </c>
       <c r="E41" s="2"/>
@@ -2285,7 +2415,7 @@
         <v>9900</v>
       </c>
       <c r="L41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>635.5</v>
       </c>
       <c r="M41">
@@ -2301,15 +2431,15 @@
         <v>38</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>221251.7</v>
       </c>
       <c r="C42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2190391830</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>20860.900000000001</v>
       </c>
       <c r="E42" s="2"/>
@@ -2320,7 +2450,7 @@
         <v>9900</v>
       </c>
       <c r="L42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>695.4</v>
       </c>
       <c r="M42">
@@ -2336,15 +2466,15 @@
         <v>39</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>242112.6</v>
       </c>
       <c r="C43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2396914740</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>22827.8</v>
       </c>
       <c r="E43" s="2"/>
@@ -2355,7 +2485,7 @@
         <v>9900</v>
       </c>
       <c r="L43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>761</v>
       </c>
       <c r="M43">
@@ -2371,15 +2501,15 @@
         <v>40</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>264940.40000000002</v>
       </c>
       <c r="C44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2622909960</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24980.1</v>
       </c>
       <c r="E44" s="2"/>
@@ -2390,7 +2520,7 @@
         <v>9900</v>
       </c>
       <c r="L44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>832.7</v>
       </c>
       <c r="M44">
@@ -2406,15 +2536,15 @@
         <v>41</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>289920.5</v>
       </c>
       <c r="C45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2870212950</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27335.4</v>
       </c>
       <c r="E45" s="2"/>
@@ -2425,7 +2555,7 @@
         <v>9900</v>
       </c>
       <c r="L45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>911.2</v>
       </c>
       <c r="M45">
@@ -2441,15 +2571,15 @@
         <v>42</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>317255.90000000002</v>
       </c>
       <c r="C46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3140833410</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29912.7</v>
       </c>
       <c r="E46" s="2"/>
@@ -2460,7 +2590,7 @@
         <v>9900</v>
       </c>
       <c r="L46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>997.1</v>
       </c>
       <c r="M46">
@@ -2476,15 +2606,15 @@
         <v>43</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>347168.6</v>
       </c>
       <c r="C47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3436969140</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32733</v>
       </c>
       <c r="E47" s="2"/>
@@ -2495,7 +2625,7 @@
         <v>9900</v>
       </c>
       <c r="L47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1091.0999999999999</v>
       </c>
       <c r="M47">
@@ -2511,15 +2641,15 @@
         <v>44</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>379901.6</v>
       </c>
       <c r="C48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3761025840</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>35819.300000000003</v>
       </c>
       <c r="E48" s="2"/>
@@ -2530,7 +2660,7 @@
         <v>9900</v>
       </c>
       <c r="L48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1194</v>
       </c>
       <c r="M48">
@@ -2541,20 +2671,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>415720.9</v>
       </c>
       <c r="C49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4115636910</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>39196.5</v>
       </c>
       <c r="E49" s="2"/>
@@ -2565,7 +2695,7 @@
         <v>9900</v>
       </c>
       <c r="L49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1306.5999999999999</v>
       </c>
       <c r="M49">
@@ -2576,20 +2706,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>454917.4</v>
       </c>
       <c r="C50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4503682260</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42892.2</v>
       </c>
       <c r="E50" s="2"/>
@@ -2600,7 +2730,7 @@
         <v>9900</v>
       </c>
       <c r="L50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1429.8</v>
       </c>
       <c r="M50">
@@ -2611,20 +2741,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>497809.6</v>
       </c>
       <c r="C51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4928315040</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46936.3</v>
       </c>
       <c r="E51" s="2"/>
@@ -2635,7 +2765,7 @@
         <v>9900</v>
       </c>
       <c r="L51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1564.6</v>
       </c>
       <c r="M51">
@@ -2646,1683 +2776,1867 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>48</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="4">
+        <f t="shared" si="13"/>
+        <v>544745.9</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="14"/>
+        <v>5392984410</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="15"/>
+        <v>51361.8</v>
+      </c>
+      <c r="J52" s="5">
+        <v>100000</v>
+      </c>
+      <c r="K52" s="4">
+        <v>9900</v>
+      </c>
+      <c r="L52" s="4">
         <f t="shared" si="12"/>
-        <v>544745.9</v>
-      </c>
-      <c r="C52">
+        <v>1712.1</v>
+      </c>
+      <c r="M52" s="4">
+        <v>5000</v>
+      </c>
+      <c r="N52" s="4">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>49</v>
+      </c>
+      <c r="B53" s="6">
         <f t="shared" si="13"/>
-        <v>5392984410</v>
-      </c>
-      <c r="D52" s="2">
+        <v>596107.69999999995</v>
+      </c>
+      <c r="C53" s="6">
         <f t="shared" si="14"/>
-        <v>51361.8</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="J52" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K52">
-        <v>9900</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="11"/>
-        <v>1712.1</v>
-      </c>
-      <c r="M52">
-        <v>5000</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>49</v>
-      </c>
-      <c r="B53" s="2">
+        <v>5901466230</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="15"/>
+        <v>56204.4</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="7">
+        <v>100000</v>
+      </c>
+      <c r="K53" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L53" s="6">
         <f t="shared" si="12"/>
-        <v>596107.69999999995</v>
-      </c>
-      <c r="C53">
+        <v>1873.5</v>
+      </c>
+      <c r="M53" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N53" s="6">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>50</v>
+      </c>
+      <c r="B54" s="6">
         <f t="shared" si="13"/>
-        <v>5901466230</v>
-      </c>
-      <c r="D53" s="2">
+        <v>652312.1</v>
+      </c>
+      <c r="C54" s="6">
         <f t="shared" si="14"/>
-        <v>56204.4</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="J53" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K53">
-        <v>9900</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="11"/>
-        <v>1873.5</v>
-      </c>
-      <c r="M53">
-        <v>5000</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>50</v>
-      </c>
-      <c r="B54" s="2">
+        <v>6457889790</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" si="15"/>
+        <v>61503.7</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="7">
+        <v>100000</v>
+      </c>
+      <c r="K54" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L54" s="6">
         <f t="shared" si="12"/>
-        <v>652312.1</v>
-      </c>
-      <c r="C54">
+        <v>2050.1999999999998</v>
+      </c>
+      <c r="M54" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N54" s="6">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>51</v>
+      </c>
+      <c r="B55" s="6">
         <f t="shared" si="13"/>
-        <v>6457889790</v>
-      </c>
-      <c r="D54" s="2">
+        <v>713815.8</v>
+      </c>
+      <c r="C55" s="6">
         <f t="shared" si="14"/>
-        <v>61503.7</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="J54" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K54">
-        <v>9900</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="11"/>
-        <v>2050.1999999999998</v>
-      </c>
-      <c r="M54">
-        <v>5000</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="3"/>
+        <v>7066776420</v>
+      </c>
+      <c r="D55" s="6">
+        <f t="shared" si="15"/>
+        <v>67302.600000000006</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="7">
+        <v>100000</v>
+      </c>
+      <c r="K55" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L55" s="6">
+        <f t="shared" si="12"/>
+        <v>2243.5</v>
+      </c>
+      <c r="M55" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N55" s="6">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="P55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>51</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="B56" s="6">
+        <f t="shared" si="13"/>
+        <v>781118.4</v>
+      </c>
+      <c r="C56" s="6">
+        <f t="shared" si="14"/>
+        <v>7733072160</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" si="15"/>
+        <v>73648.3</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="7">
+        <v>100000</v>
+      </c>
+      <c r="K56" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L56" s="6">
         <f t="shared" si="12"/>
-        <v>713815.8</v>
-      </c>
-      <c r="C55">
+        <v>2455</v>
+      </c>
+      <c r="M56" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N56" s="6">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>53</v>
+      </c>
+      <c r="B57" s="6">
         <f t="shared" si="13"/>
-        <v>7066776420</v>
-      </c>
-      <c r="D55" s="2">
+        <v>854766.7</v>
+      </c>
+      <c r="C57" s="6">
         <f t="shared" si="14"/>
-        <v>67302.600000000006</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="J55" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K55">
-        <v>9900</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="11"/>
-        <v>2243.5</v>
-      </c>
-      <c r="M55">
-        <v>5000</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="3"/>
+        <v>8462190330</v>
+      </c>
+      <c r="D57" s="6">
+        <f t="shared" si="15"/>
+        <v>80592.3</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="7">
+        <v>100000</v>
+      </c>
+      <c r="K57" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L57" s="6">
+        <f t="shared" si="12"/>
+        <v>2686.5</v>
+      </c>
+      <c r="M57" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N57" s="6">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>54</v>
+      </c>
+      <c r="B58" s="6">
+        <f t="shared" si="13"/>
+        <v>935359</v>
+      </c>
+      <c r="C58" s="6">
+        <f t="shared" si="14"/>
+        <v>9260054100</v>
+      </c>
+      <c r="D58" s="6">
+        <f t="shared" si="15"/>
+        <v>88191</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="7">
+        <v>100000</v>
+      </c>
+      <c r="K58" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L58" s="6">
+        <f t="shared" si="12"/>
+        <v>2939.7</v>
+      </c>
+      <c r="M58" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N58" s="6">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>55</v>
+      </c>
+      <c r="B59" s="6">
+        <f t="shared" si="13"/>
+        <v>1023550</v>
+      </c>
+      <c r="C59" s="6">
+        <f t="shared" si="14"/>
+        <v>10133145000</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" si="15"/>
+        <v>96506.1</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="7">
+        <v>100000</v>
+      </c>
+      <c r="K59" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L59" s="6">
+        <f t="shared" si="12"/>
+        <v>3216.9</v>
+      </c>
+      <c r="M59" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N59" s="6">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>56</v>
+      </c>
+      <c r="B60" s="6">
+        <f t="shared" si="13"/>
+        <v>1120056.1000000001</v>
+      </c>
+      <c r="C60" s="6">
+        <f t="shared" si="14"/>
+        <v>11088555390</v>
+      </c>
+      <c r="D60" s="6">
+        <f t="shared" si="15"/>
+        <v>105605.3</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="7">
+        <v>100000</v>
+      </c>
+      <c r="K60" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L60" s="6">
+        <f t="shared" si="12"/>
+        <v>3520.2</v>
+      </c>
+      <c r="M60" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N60" s="6">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>52</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="B61" s="6">
+        <f t="shared" si="13"/>
+        <v>1225661.3999999999</v>
+      </c>
+      <c r="C61" s="6">
+        <f t="shared" si="14"/>
+        <v>12134047860</v>
+      </c>
+      <c r="D61" s="6">
+        <f t="shared" si="15"/>
+        <v>115562.4</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="7">
+        <v>100000</v>
+      </c>
+      <c r="K61" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L61" s="6">
         <f t="shared" si="12"/>
-        <v>781118.4</v>
-      </c>
-      <c r="C56">
+        <v>3852.1</v>
+      </c>
+      <c r="M61" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N61" s="6">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>58</v>
+      </c>
+      <c r="B62" s="6">
         <f t="shared" si="13"/>
-        <v>7733072160</v>
-      </c>
-      <c r="D56" s="2">
+        <v>1341223.8</v>
+      </c>
+      <c r="C62" s="6">
         <f t="shared" si="14"/>
-        <v>73648.3</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="J56" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K56">
-        <v>9900</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="11"/>
-        <v>2455</v>
-      </c>
-      <c r="M56">
-        <v>5000</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="3"/>
+        <v>13278115620</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" si="15"/>
+        <v>126458.2</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="7">
+        <v>100000</v>
+      </c>
+      <c r="K62" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L62" s="6">
+        <f t="shared" si="12"/>
+        <v>4215.3</v>
+      </c>
+      <c r="M62" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N62" s="6">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>59</v>
+      </c>
+      <c r="B63" s="6">
+        <f t="shared" si="13"/>
+        <v>1467682</v>
+      </c>
+      <c r="C63" s="6">
+        <f t="shared" si="14"/>
+        <v>14530051800</v>
+      </c>
+      <c r="D63" s="6">
+        <f t="shared" si="15"/>
+        <v>138381.4</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="7">
+        <v>100000</v>
+      </c>
+      <c r="K63" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L63" s="6">
+        <f t="shared" si="12"/>
+        <v>4612.8</v>
+      </c>
+      <c r="M63" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N63" s="6">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>60</v>
+      </c>
+      <c r="B64" s="4">
+        <f t="shared" si="13"/>
+        <v>1606063.4</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="14"/>
+        <v>15900027660</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="15"/>
+        <v>151428.79999999999</v>
+      </c>
+      <c r="J64" s="5">
+        <v>100000</v>
+      </c>
+      <c r="K64" s="4">
+        <v>9900</v>
+      </c>
+      <c r="L64" s="4">
+        <f t="shared" si="12"/>
+        <v>5047.7000000000007</v>
+      </c>
+      <c r="M64" s="4">
+        <v>5000</v>
+      </c>
+      <c r="N64" s="4">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>61</v>
+      </c>
+      <c r="B65" s="8">
+        <f t="shared" si="13"/>
+        <v>1757492.2</v>
+      </c>
+      <c r="C65" s="8">
+        <f t="shared" si="14"/>
+        <v>17399172780</v>
+      </c>
+      <c r="D65" s="8">
+        <f t="shared" si="15"/>
+        <v>165706.4</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="9">
+        <v>100000</v>
+      </c>
+      <c r="K65" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L65" s="8">
+        <f t="shared" si="12"/>
+        <v>5523.6</v>
+      </c>
+      <c r="M65" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N65" s="8">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
         <v>62</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>53</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="B66" s="8">
+        <f t="shared" si="13"/>
+        <v>1923198.6</v>
+      </c>
+      <c r="C66" s="8">
+        <f t="shared" si="14"/>
+        <v>19039666140</v>
+      </c>
+      <c r="D66" s="8">
+        <f t="shared" si="15"/>
+        <v>181330.2</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="9">
+        <v>100000</v>
+      </c>
+      <c r="K66" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L66" s="8">
         <f t="shared" si="12"/>
-        <v>854766.7</v>
-      </c>
-      <c r="C57">
+        <v>6044.4000000000005</v>
+      </c>
+      <c r="M66" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N66" s="8">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>63</v>
+      </c>
+      <c r="B67" s="8">
         <f t="shared" si="13"/>
-        <v>8462190330</v>
-      </c>
-      <c r="D57" s="2">
+        <v>2104528.7999999998</v>
+      </c>
+      <c r="C67" s="8">
         <f t="shared" si="14"/>
-        <v>80592.3</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="J57" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K57">
-        <v>9900</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="11"/>
-        <v>2686.5</v>
-      </c>
-      <c r="M57">
-        <v>5000</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="3"/>
+        <v>20834835120</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" si="15"/>
+        <v>198427</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="9">
+        <v>100000</v>
+      </c>
+      <c r="K67" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L67" s="8">
+        <f t="shared" si="12"/>
+        <v>6614.3</v>
+      </c>
+      <c r="M67" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N67" s="8">
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
+      <c r="P67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>64</v>
+      </c>
+      <c r="B68" s="8">
+        <f t="shared" si="13"/>
+        <v>2302955.7999999998</v>
+      </c>
+      <c r="C68" s="8">
+        <f t="shared" si="14"/>
+        <v>22799262420</v>
+      </c>
+      <c r="D68" s="8">
+        <f t="shared" si="15"/>
+        <v>217135.8</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="9">
+        <v>100000</v>
+      </c>
+      <c r="K68" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L68" s="8">
+        <f t="shared" ref="L68:L99" si="16">ROUNDUP((F68+D68)/30,1)</f>
+        <v>7237.9000000000005</v>
+      </c>
+      <c r="M68" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N68" s="8">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>65</v>
+      </c>
+      <c r="B69" s="8">
+        <f t="shared" ref="B69:B100" si="17">ROUND(F68+B68+D68,1)</f>
+        <v>2520091.6</v>
+      </c>
+      <c r="C69" s="8">
+        <f t="shared" ref="C69:C100" si="18">B69*K68</f>
+        <v>24948906840</v>
+      </c>
+      <c r="D69" s="8">
+        <f t="shared" ref="D69:D100" si="19">ROUND((C69+E69)/(M69+J69),1)</f>
+        <v>237608.6</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="9">
+        <v>100000</v>
+      </c>
+      <c r="K69" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L69" s="8">
+        <f t="shared" si="16"/>
+        <v>7920.3</v>
+      </c>
+      <c r="M69" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N69" s="8">
+        <f t="shared" ref="N69:N124" si="20">ROUNDUP(L69/40,0.1)</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>66</v>
+      </c>
+      <c r="B70" s="8">
+        <f t="shared" si="17"/>
+        <v>2757700.2</v>
+      </c>
+      <c r="C70" s="8">
+        <f t="shared" si="18"/>
+        <v>27301231980</v>
+      </c>
+      <c r="D70" s="8">
+        <f t="shared" si="19"/>
+        <v>260011.7</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="9">
+        <v>100000</v>
+      </c>
+      <c r="K70" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L70" s="8">
+        <f t="shared" si="16"/>
+        <v>8667.1</v>
+      </c>
+      <c r="M70" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N70" s="8">
+        <f t="shared" si="20"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>67</v>
+      </c>
+      <c r="B71" s="8">
+        <f t="shared" si="17"/>
+        <v>3017711.9</v>
+      </c>
+      <c r="C71" s="8">
+        <f t="shared" si="18"/>
+        <v>29875347810</v>
+      </c>
+      <c r="D71" s="8">
+        <f t="shared" si="19"/>
+        <v>284527.09999999998</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="9">
+        <v>100000</v>
+      </c>
+      <c r="K71" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L71" s="8">
+        <f t="shared" si="16"/>
+        <v>9484.3000000000011</v>
+      </c>
+      <c r="M71" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N71" s="8">
+        <f t="shared" si="20"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
         <v>68</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>54</v>
-      </c>
-      <c r="B58" s="2">
-        <f t="shared" si="12"/>
-        <v>935359</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="13"/>
-        <v>9260054100</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" si="14"/>
-        <v>88191</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="J58" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K58">
-        <v>9900</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="11"/>
-        <v>2939.7</v>
-      </c>
-      <c r="M58">
-        <v>5000</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="3"/>
+      <c r="B72" s="8">
+        <f t="shared" si="17"/>
+        <v>3302239</v>
+      </c>
+      <c r="C72" s="8">
+        <f t="shared" si="18"/>
+        <v>32692166100</v>
+      </c>
+      <c r="D72" s="8">
+        <f t="shared" si="19"/>
+        <v>311354</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="9">
+        <v>100000</v>
+      </c>
+      <c r="K72" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L72" s="8">
+        <f t="shared" si="16"/>
+        <v>10378.5</v>
+      </c>
+      <c r="M72" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N72" s="8">
+        <f t="shared" si="20"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>69</v>
+      </c>
+      <c r="B73" s="8">
+        <f t="shared" si="17"/>
+        <v>3613593</v>
+      </c>
+      <c r="C73" s="8">
+        <f t="shared" si="18"/>
+        <v>35774570700</v>
+      </c>
+      <c r="D73" s="8">
+        <f t="shared" si="19"/>
+        <v>340710.2</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="9">
+        <v>100000</v>
+      </c>
+      <c r="K73" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L73" s="8">
+        <f t="shared" si="16"/>
+        <v>11357.1</v>
+      </c>
+      <c r="M73" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N73" s="8">
+        <f t="shared" si="20"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>70</v>
+      </c>
+      <c r="B74" s="8">
+        <f t="shared" si="17"/>
+        <v>3954303.2</v>
+      </c>
+      <c r="C74" s="8">
+        <f t="shared" si="18"/>
+        <v>39147601680</v>
+      </c>
+      <c r="D74" s="8">
+        <f t="shared" si="19"/>
+        <v>372834.3</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="9">
+        <v>100000</v>
+      </c>
+      <c r="K74" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L74" s="8">
+        <f t="shared" si="16"/>
+        <v>12427.9</v>
+      </c>
+      <c r="M74" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N74" s="8">
+        <f t="shared" si="20"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>71</v>
+      </c>
+      <c r="B75" s="8">
+        <f t="shared" si="17"/>
+        <v>4327137.5</v>
+      </c>
+      <c r="C75" s="8">
+        <f t="shared" si="18"/>
+        <v>42838661250</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" si="19"/>
+        <v>407987.3</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="9">
+        <v>100000</v>
+      </c>
+      <c r="K75" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L75" s="8">
+        <f t="shared" si="16"/>
+        <v>13599.6</v>
+      </c>
+      <c r="M75" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N75" s="8">
+        <f t="shared" si="20"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>72</v>
+      </c>
+      <c r="B76" s="4">
+        <f t="shared" si="17"/>
+        <v>4735124.8</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" si="18"/>
+        <v>46877735520</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="19"/>
+        <v>446454.6</v>
+      </c>
+      <c r="J76" s="5">
+        <v>100000</v>
+      </c>
+      <c r="K76" s="4">
+        <v>9900</v>
+      </c>
+      <c r="L76" s="4">
+        <f t="shared" si="16"/>
+        <v>14881.9</v>
+      </c>
+      <c r="M76" s="4">
+        <v>5000</v>
+      </c>
+      <c r="N76" s="4">
+        <f t="shared" si="20"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>73</v>
+      </c>
+      <c r="B77" s="10">
+        <f t="shared" si="17"/>
+        <v>5181579.4000000004</v>
+      </c>
+      <c r="C77" s="10">
+        <f t="shared" si="18"/>
+        <v>51297636060</v>
+      </c>
+      <c r="D77" s="10">
+        <f t="shared" si="19"/>
+        <v>488548.9</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K77" s="10">
+        <v>9900</v>
+      </c>
+      <c r="L77" s="10">
+        <f t="shared" si="16"/>
+        <v>16285</v>
+      </c>
+      <c r="M77" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N77" s="10">
+        <f t="shared" si="20"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
         <v>74</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>55</v>
-      </c>
-      <c r="B59" s="2">
-        <f t="shared" si="12"/>
-        <v>1023550</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="13"/>
-        <v>10133145000</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" si="14"/>
-        <v>96506.1</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="J59" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K59">
-        <v>9900</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="11"/>
-        <v>3216.9</v>
-      </c>
-      <c r="M59">
-        <v>5000</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="3"/>
+      <c r="B78" s="10">
+        <f t="shared" si="17"/>
+        <v>5670128.2999999998</v>
+      </c>
+      <c r="C78" s="10">
+        <f t="shared" si="18"/>
+        <v>56134270170</v>
+      </c>
+      <c r="D78" s="10">
+        <f t="shared" si="19"/>
+        <v>534612.1</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K78" s="10">
+        <v>9900</v>
+      </c>
+      <c r="L78" s="10">
+        <f t="shared" si="16"/>
+        <v>17820.5</v>
+      </c>
+      <c r="M78" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N78" s="10">
+        <f t="shared" si="20"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>75</v>
+      </c>
+      <c r="B79" s="10">
+        <f t="shared" si="17"/>
+        <v>6204740.4000000004</v>
+      </c>
+      <c r="C79" s="10">
+        <f t="shared" si="18"/>
+        <v>61426929960</v>
+      </c>
+      <c r="D79" s="10">
+        <f t="shared" si="19"/>
+        <v>585018.4</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K79" s="10">
+        <v>9900</v>
+      </c>
+      <c r="L79" s="10">
+        <f t="shared" si="16"/>
+        <v>19500.699999999997</v>
+      </c>
+      <c r="M79" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N79" s="10">
+        <f t="shared" si="20"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>76</v>
+      </c>
+      <c r="B80" s="10">
+        <f t="shared" si="17"/>
+        <v>6789758.7999999998</v>
+      </c>
+      <c r="C80" s="10">
+        <f t="shared" si="18"/>
+        <v>67218612120</v>
+      </c>
+      <c r="D80" s="10">
+        <f t="shared" si="19"/>
+        <v>640177.30000000005</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K80" s="10">
+        <v>9900</v>
+      </c>
+      <c r="L80" s="10">
+        <f t="shared" si="16"/>
+        <v>21339.3</v>
+      </c>
+      <c r="M80" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N80" s="10">
+        <f t="shared" si="20"/>
+        <v>534</v>
+      </c>
+      <c r="P80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>77</v>
+      </c>
+      <c r="B81" s="10">
+        <f t="shared" si="17"/>
+        <v>7429936.0999999996</v>
+      </c>
+      <c r="C81" s="10">
+        <f t="shared" si="18"/>
+        <v>73556367390</v>
+      </c>
+      <c r="D81" s="10">
+        <f t="shared" si="19"/>
+        <v>700536.8</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K81" s="10">
+        <v>9900</v>
+      </c>
+      <c r="L81" s="10">
+        <f t="shared" si="16"/>
+        <v>23351.3</v>
+      </c>
+      <c r="M81" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N81" s="10">
+        <f t="shared" si="20"/>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>78</v>
+      </c>
+      <c r="B82" s="10">
+        <f t="shared" si="17"/>
+        <v>8130472.9000000004</v>
+      </c>
+      <c r="C82" s="10">
+        <f t="shared" si="18"/>
+        <v>80491681710</v>
+      </c>
+      <c r="D82" s="10">
+        <f t="shared" si="19"/>
+        <v>766587.4</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K82" s="10">
+        <v>9900</v>
+      </c>
+      <c r="L82" s="10">
+        <f t="shared" si="16"/>
+        <v>25553</v>
+      </c>
+      <c r="M82" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N82" s="10">
+        <f t="shared" si="20"/>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>79</v>
+      </c>
+      <c r="B83" s="10">
+        <f t="shared" si="17"/>
+        <v>8897060.3000000007</v>
+      </c>
+      <c r="C83" s="10">
+        <f t="shared" si="18"/>
+        <v>88080896970</v>
+      </c>
+      <c r="D83" s="10">
+        <f t="shared" si="19"/>
+        <v>838865.7</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K83" s="10">
+        <v>9900</v>
+      </c>
+      <c r="L83" s="10">
+        <f t="shared" si="16"/>
+        <v>27962.199999999997</v>
+      </c>
+      <c r="M83" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N83" s="10">
+        <f t="shared" si="20"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>80</v>
+      </c>
+      <c r="B84" s="10">
+        <f t="shared" si="17"/>
+        <v>9735926</v>
+      </c>
+      <c r="C84" s="10">
+        <f t="shared" si="18"/>
+        <v>96385667400</v>
+      </c>
+      <c r="D84" s="10">
+        <f t="shared" si="19"/>
+        <v>917958.7</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K84" s="10">
+        <v>9900</v>
+      </c>
+      <c r="L84" s="10">
+        <f t="shared" si="16"/>
+        <v>30598.699999999997</v>
+      </c>
+      <c r="M84" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N84" s="10">
+        <f t="shared" si="20"/>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
         <v>81</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>56</v>
-      </c>
-      <c r="B60" s="2">
-        <f t="shared" si="12"/>
-        <v>1120056.1000000001</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="13"/>
-        <v>11088555390</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" si="14"/>
-        <v>105605.3</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="J60" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K60">
-        <v>9900</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="11"/>
-        <v>3520.2</v>
-      </c>
-      <c r="M60">
-        <v>5000</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="3"/>
+      <c r="B85" s="10">
+        <f t="shared" si="17"/>
+        <v>10653884.699999999</v>
+      </c>
+      <c r="C85" s="10">
+        <f t="shared" si="18"/>
+        <v>105473458530</v>
+      </c>
+      <c r="D85" s="10">
+        <f t="shared" si="19"/>
+        <v>1004509.1</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K85" s="10">
+        <v>9900</v>
+      </c>
+      <c r="L85" s="10">
+        <f t="shared" si="16"/>
+        <v>33483.699999999997</v>
+      </c>
+      <c r="M85" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N85" s="10">
+        <f t="shared" si="20"/>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>82</v>
+      </c>
+      <c r="B86" s="10">
+        <f t="shared" si="17"/>
+        <v>11658393.800000001</v>
+      </c>
+      <c r="C86" s="10">
+        <f t="shared" si="18"/>
+        <v>115418098620</v>
+      </c>
+      <c r="D86" s="10">
+        <f t="shared" si="19"/>
+        <v>1099220</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K86" s="10">
+        <v>9900</v>
+      </c>
+      <c r="L86" s="10">
+        <f t="shared" si="16"/>
+        <v>36640.699999999997</v>
+      </c>
+      <c r="M86" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N86" s="10">
+        <f t="shared" si="20"/>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>83</v>
+      </c>
+      <c r="B87" s="10">
+        <f t="shared" si="17"/>
+        <v>12757613.800000001</v>
+      </c>
+      <c r="C87" s="10">
+        <f t="shared" si="18"/>
+        <v>126300376620</v>
+      </c>
+      <c r="D87" s="10">
+        <f t="shared" si="19"/>
+        <v>1202860.7</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K87" s="10">
+        <v>9900</v>
+      </c>
+      <c r="L87" s="10">
+        <f t="shared" si="16"/>
+        <v>40095.4</v>
+      </c>
+      <c r="M87" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N87" s="10">
+        <f t="shared" si="20"/>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>84</v>
+      </c>
+      <c r="B88" s="4">
+        <f t="shared" si="17"/>
+        <v>13960474.5</v>
+      </c>
+      <c r="C88" s="4">
+        <f t="shared" si="18"/>
+        <v>138208697550</v>
+      </c>
+      <c r="D88" s="4">
+        <f t="shared" si="19"/>
+        <v>1316273.3</v>
+      </c>
+      <c r="J88" s="5">
+        <v>100000</v>
+      </c>
+      <c r="K88" s="4">
+        <v>9900</v>
+      </c>
+      <c r="L88" s="4">
+        <f t="shared" si="16"/>
+        <v>43875.799999999996</v>
+      </c>
+      <c r="M88" s="4">
+        <v>5000</v>
+      </c>
+      <c r="N88" s="4">
+        <f t="shared" si="20"/>
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
+        <v>85</v>
+      </c>
+      <c r="B89" s="12">
+        <f t="shared" si="17"/>
+        <v>15276747.800000001</v>
+      </c>
+      <c r="C89" s="12">
+        <f t="shared" si="18"/>
+        <v>151239803220</v>
+      </c>
+      <c r="D89" s="12">
+        <f t="shared" si="19"/>
+        <v>1440379.1</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="13">
+        <v>100000</v>
+      </c>
+      <c r="K89" s="12">
+        <v>9900</v>
+      </c>
+      <c r="L89" s="12">
+        <f t="shared" si="16"/>
+        <v>48012.7</v>
+      </c>
+      <c r="M89" s="12">
+        <v>5000</v>
+      </c>
+      <c r="N89" s="12">
+        <f t="shared" si="20"/>
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
+        <v>86</v>
+      </c>
+      <c r="B90" s="12">
+        <f t="shared" si="17"/>
+        <v>16717126.9</v>
+      </c>
+      <c r="C90" s="12">
+        <f t="shared" si="18"/>
+        <v>165499556310</v>
+      </c>
+      <c r="D90" s="12">
+        <f t="shared" si="19"/>
+        <v>1576186.3</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="13">
+        <v>100000</v>
+      </c>
+      <c r="K90" s="12">
+        <v>9900</v>
+      </c>
+      <c r="L90" s="12">
+        <f t="shared" si="16"/>
+        <v>52539.6</v>
+      </c>
+      <c r="M90" s="12">
+        <v>5000</v>
+      </c>
+      <c r="N90" s="12">
+        <f t="shared" si="20"/>
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="12">
+        <v>87</v>
+      </c>
+      <c r="B91" s="12">
+        <f t="shared" si="17"/>
+        <v>18293313.199999999</v>
+      </c>
+      <c r="C91" s="12">
+        <f t="shared" si="18"/>
+        <v>181103800680</v>
+      </c>
+      <c r="D91" s="12">
+        <f t="shared" si="19"/>
+        <v>1724798.1</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="13">
+        <v>100000</v>
+      </c>
+      <c r="K91" s="12">
+        <v>9900</v>
+      </c>
+      <c r="L91" s="12">
+        <f t="shared" si="16"/>
+        <v>57493.299999999996</v>
+      </c>
+      <c r="M91" s="12">
+        <v>5000</v>
+      </c>
+      <c r="N91" s="12">
+        <f t="shared" si="20"/>
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <v>88</v>
+      </c>
+      <c r="B92" s="12">
+        <f t="shared" si="17"/>
+        <v>20018111.300000001</v>
+      </c>
+      <c r="C92" s="12">
+        <f t="shared" si="18"/>
+        <v>198179301870</v>
+      </c>
+      <c r="D92" s="12">
+        <f t="shared" si="19"/>
+        <v>1887421.9</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="13">
+        <v>100000</v>
+      </c>
+      <c r="K92" s="12">
+        <v>9900</v>
+      </c>
+      <c r="L92" s="12">
+        <f t="shared" si="16"/>
+        <v>62914.1</v>
+      </c>
+      <c r="M92" s="12">
+        <v>5000</v>
+      </c>
+      <c r="N92" s="12">
+        <f t="shared" si="20"/>
+        <v>1573</v>
+      </c>
+      <c r="P92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="12">
         <v>89</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>57</v>
-      </c>
-      <c r="B61" s="2">
-        <f t="shared" si="12"/>
-        <v>1225661.3999999999</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="13"/>
-        <v>12134047860</v>
-      </c>
-      <c r="D61" s="2">
-        <f t="shared" si="14"/>
-        <v>115562.4</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="J61" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K61">
-        <v>9900</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="11"/>
-        <v>3852.1</v>
-      </c>
-      <c r="M61">
-        <v>5000</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="3"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>58</v>
-      </c>
-      <c r="B62" s="2">
-        <f t="shared" si="12"/>
-        <v>1341223.8</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="13"/>
-        <v>13278115620</v>
-      </c>
-      <c r="D62" s="2">
-        <f t="shared" si="14"/>
-        <v>126458.2</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="J62" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K62">
-        <v>9900</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="11"/>
-        <v>4215.3</v>
-      </c>
-      <c r="M62">
-        <v>5000</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="3"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>59</v>
-      </c>
-      <c r="B63" s="2">
-        <f t="shared" si="12"/>
-        <v>1467682</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="13"/>
-        <v>14530051800</v>
-      </c>
-      <c r="D63" s="2">
-        <f t="shared" si="14"/>
-        <v>138381.4</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="J63" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K63">
-        <v>9900</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="11"/>
-        <v>4612.8</v>
-      </c>
-      <c r="M63">
-        <v>5000</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>60</v>
-      </c>
-      <c r="B64" s="2">
-        <f t="shared" si="12"/>
-        <v>1606063.4</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="13"/>
-        <v>15900027660</v>
-      </c>
-      <c r="D64" s="2">
-        <f t="shared" si="14"/>
-        <v>151428.79999999999</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="J64" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K64">
-        <v>9900</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="11"/>
-        <v>5047.7000000000007</v>
-      </c>
-      <c r="M64">
-        <v>5000</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>61</v>
-      </c>
-      <c r="B65" s="2">
-        <f t="shared" si="12"/>
-        <v>1757492.2</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="13"/>
-        <v>17399172780</v>
-      </c>
-      <c r="D65" s="2">
-        <f t="shared" si="14"/>
-        <v>165706.4</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="J65" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K65">
-        <v>9900</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="11"/>
-        <v>5523.6</v>
-      </c>
-      <c r="M65">
-        <v>5000</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="3"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>62</v>
-      </c>
-      <c r="B66" s="2">
-        <f t="shared" si="12"/>
-        <v>1923198.6</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="13"/>
-        <v>19039666140</v>
-      </c>
-      <c r="D66" s="2">
-        <f t="shared" si="14"/>
-        <v>181330.2</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="J66" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K66">
-        <v>9900</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="11"/>
-        <v>6044.4000000000005</v>
-      </c>
-      <c r="M66">
-        <v>5000</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="3"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>63</v>
-      </c>
-      <c r="B67" s="2">
-        <f t="shared" si="12"/>
-        <v>2104528.7999999998</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="13"/>
-        <v>20834835120</v>
-      </c>
-      <c r="D67" s="2">
-        <f t="shared" si="14"/>
-        <v>198427</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="J67" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K67">
-        <v>9900</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="11"/>
-        <v>6614.3</v>
-      </c>
-      <c r="M67">
-        <v>5000</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="3"/>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>64</v>
-      </c>
-      <c r="B68" s="2">
-        <f t="shared" si="12"/>
-        <v>2302955.7999999998</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="13"/>
-        <v>22799262420</v>
-      </c>
-      <c r="D68" s="2">
-        <f t="shared" si="14"/>
-        <v>217135.8</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="J68" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K68">
-        <v>9900</v>
-      </c>
-      <c r="L68">
-        <f t="shared" ref="L68:L99" si="15">ROUNDUP((F68+D68)/30,1)</f>
-        <v>7237.9000000000005</v>
-      </c>
-      <c r="M68">
-        <v>5000</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="3"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>65</v>
-      </c>
-      <c r="B69" s="2">
-        <f t="shared" ref="B69:B100" si="16">ROUND(F68+B68+D68,1)</f>
-        <v>2520091.6</v>
-      </c>
-      <c r="C69">
-        <f t="shared" ref="C69:C100" si="17">B69*K68</f>
-        <v>24948906840</v>
-      </c>
-      <c r="D69" s="2">
-        <f t="shared" ref="D69:D100" si="18">ROUND((C69+E69)/(M69+J69),1)</f>
-        <v>237608.6</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="J69" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K69">
-        <v>9900</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="15"/>
-        <v>7920.3</v>
-      </c>
-      <c r="M69">
-        <v>5000</v>
-      </c>
-      <c r="N69">
-        <f t="shared" ref="N69:N124" si="19">ROUNDUP(L69/40,0.1)</f>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>66</v>
-      </c>
-      <c r="B70" s="2">
+      <c r="B93" s="12">
+        <f t="shared" si="17"/>
+        <v>21905533.199999999</v>
+      </c>
+      <c r="C93" s="12">
+        <f t="shared" si="18"/>
+        <v>216864778680</v>
+      </c>
+      <c r="D93" s="12">
+        <f t="shared" si="19"/>
+        <v>2065378.8</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="13">
+        <v>100000</v>
+      </c>
+      <c r="K93" s="12">
+        <v>9900</v>
+      </c>
+      <c r="L93" s="12">
         <f t="shared" si="16"/>
-        <v>2757700.2</v>
-      </c>
-      <c r="C70">
+        <v>68846</v>
+      </c>
+      <c r="M93" s="12">
+        <v>5000</v>
+      </c>
+      <c r="N93" s="12">
+        <f t="shared" si="20"/>
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
+        <v>90</v>
+      </c>
+      <c r="B94" s="12">
         <f t="shared" si="17"/>
-        <v>27301231980</v>
-      </c>
-      <c r="D70" s="2">
+        <v>23970912</v>
+      </c>
+      <c r="C94" s="12">
         <f t="shared" si="18"/>
-        <v>260011.7</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="J70" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K70">
-        <v>9900</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="15"/>
-        <v>8667.1</v>
-      </c>
-      <c r="M70">
-        <v>5000</v>
-      </c>
-      <c r="N70">
+        <v>237312028800</v>
+      </c>
+      <c r="D94" s="12">
         <f t="shared" si="19"/>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>67</v>
-      </c>
-      <c r="B71" s="2">
+        <v>2260114.6</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="13">
+        <v>100000</v>
+      </c>
+      <c r="K94" s="12">
+        <v>9900</v>
+      </c>
+      <c r="L94" s="12">
         <f t="shared" si="16"/>
-        <v>3017711.9</v>
-      </c>
-      <c r="C71">
+        <v>75337.200000000012</v>
+      </c>
+      <c r="M94" s="12">
+        <v>5000</v>
+      </c>
+      <c r="N94" s="12">
+        <f t="shared" si="20"/>
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
+        <v>91</v>
+      </c>
+      <c r="B95" s="12">
         <f t="shared" si="17"/>
-        <v>29875347810</v>
-      </c>
-      <c r="D71" s="2">
+        <v>26231026.600000001</v>
+      </c>
+      <c r="C95" s="12">
         <f t="shared" si="18"/>
-        <v>284527.09999999998</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="J71" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K71">
-        <v>9900</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="15"/>
-        <v>9484.3000000000011</v>
-      </c>
-      <c r="M71">
-        <v>5000</v>
-      </c>
-      <c r="N71">
+        <v>259687163340</v>
+      </c>
+      <c r="D95" s="12">
         <f t="shared" si="19"/>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>68</v>
-      </c>
-      <c r="B72" s="2">
+        <v>2473211.1</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="13">
+        <v>100000</v>
+      </c>
+      <c r="K95" s="12">
+        <v>9900</v>
+      </c>
+      <c r="L95" s="12">
         <f t="shared" si="16"/>
-        <v>3302239</v>
-      </c>
-      <c r="C72">
+        <v>82440.400000000009</v>
+      </c>
+      <c r="M95" s="12">
+        <v>5000</v>
+      </c>
+      <c r="N95" s="12">
+        <f t="shared" si="20"/>
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
+        <v>92</v>
+      </c>
+      <c r="B96" s="12">
         <f t="shared" si="17"/>
-        <v>32692166100</v>
-      </c>
-      <c r="D72" s="2">
+        <v>28704237.699999999</v>
+      </c>
+      <c r="C96" s="12">
         <f t="shared" si="18"/>
-        <v>311354</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="J72" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K72">
-        <v>9900</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="15"/>
-        <v>10378.5</v>
-      </c>
-      <c r="M72">
-        <v>5000</v>
-      </c>
-      <c r="N72">
+        <v>284171953230</v>
+      </c>
+      <c r="D96" s="12">
         <f t="shared" si="19"/>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>69</v>
-      </c>
-      <c r="B73" s="2">
+        <v>2706399.6</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="13">
+        <v>100000</v>
+      </c>
+      <c r="K96" s="12">
+        <v>9900</v>
+      </c>
+      <c r="L96" s="12">
         <f t="shared" si="16"/>
-        <v>3613593</v>
-      </c>
-      <c r="C73">
+        <v>90213.400000000009</v>
+      </c>
+      <c r="M96" s="12">
+        <v>5000</v>
+      </c>
+      <c r="N96" s="12">
+        <f t="shared" si="20"/>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <v>93</v>
+      </c>
+      <c r="B97" s="12">
         <f t="shared" si="17"/>
-        <v>35774570700</v>
-      </c>
-      <c r="D73" s="2">
+        <v>31410637.300000001</v>
+      </c>
+      <c r="C97" s="12">
         <f t="shared" si="18"/>
-        <v>340710.2</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="J73" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K73">
-        <v>9900</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="15"/>
-        <v>11357.1</v>
-      </c>
-      <c r="M73">
-        <v>5000</v>
-      </c>
-      <c r="N73">
+        <v>310965309270</v>
+      </c>
+      <c r="D97" s="12">
         <f t="shared" si="19"/>
-        <v>284</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>70</v>
-      </c>
-      <c r="B74" s="2">
+        <v>2961574.4</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="13">
+        <v>100000</v>
+      </c>
+      <c r="K97" s="12">
+        <v>9900</v>
+      </c>
+      <c r="L97" s="12">
         <f t="shared" si="16"/>
-        <v>3954303.2</v>
-      </c>
-      <c r="C74">
+        <v>98719.200000000012</v>
+      </c>
+      <c r="M97" s="12">
+        <v>5000</v>
+      </c>
+      <c r="N97" s="12">
+        <f t="shared" si="20"/>
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
+        <v>94</v>
+      </c>
+      <c r="B98" s="12">
         <f t="shared" si="17"/>
-        <v>39147601680</v>
-      </c>
-      <c r="D74" s="2">
+        <v>34372211.700000003</v>
+      </c>
+      <c r="C98" s="12">
         <f t="shared" si="18"/>
-        <v>372834.3</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="J74" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K74">
-        <v>9900</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="15"/>
-        <v>12427.9</v>
-      </c>
-      <c r="M74">
-        <v>5000</v>
-      </c>
-      <c r="N74">
+        <v>340284895830</v>
+      </c>
+      <c r="D98" s="12">
         <f t="shared" si="19"/>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>71</v>
-      </c>
-      <c r="B75" s="2">
+        <v>3240808.5</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="13">
+        <v>100000</v>
+      </c>
+      <c r="K98" s="12">
+        <v>9900</v>
+      </c>
+      <c r="L98" s="12">
         <f t="shared" si="16"/>
-        <v>4327137.5</v>
-      </c>
-      <c r="C75">
+        <v>108027</v>
+      </c>
+      <c r="M98" s="12">
+        <v>5000</v>
+      </c>
+      <c r="N98" s="12">
+        <f t="shared" si="20"/>
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <v>95</v>
+      </c>
+      <c r="B99" s="12">
         <f t="shared" si="17"/>
-        <v>42838661250</v>
-      </c>
-      <c r="D75" s="2">
+        <v>37613020.200000003</v>
+      </c>
+      <c r="C99" s="12">
         <f t="shared" si="18"/>
-        <v>407987.3</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="J75" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K75">
-        <v>9900</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="15"/>
-        <v>13599.6</v>
-      </c>
-      <c r="M75">
-        <v>5000</v>
-      </c>
-      <c r="N75">
+        <v>372368899980</v>
+      </c>
+      <c r="D99" s="12">
         <f t="shared" si="19"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>72</v>
-      </c>
-      <c r="B76" s="2">
+        <v>3546370.5</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="13">
+        <v>100000</v>
+      </c>
+      <c r="K99" s="12">
+        <v>9900</v>
+      </c>
+      <c r="L99" s="12">
         <f t="shared" si="16"/>
-        <v>4735124.8</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="17"/>
-        <v>46877735520</v>
-      </c>
-      <c r="D76" s="2">
-        <f t="shared" si="18"/>
-        <v>446454.6</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="J76" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K76">
-        <v>9900</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="15"/>
-        <v>14881.9</v>
-      </c>
-      <c r="M76">
-        <v>5000</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="19"/>
-        <v>373</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>73</v>
-      </c>
-      <c r="B77" s="2">
-        <f t="shared" si="16"/>
-        <v>5181579.4000000004</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="17"/>
-        <v>51297636060</v>
-      </c>
-      <c r="D77" s="2">
-        <f t="shared" si="18"/>
-        <v>488548.9</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="J77" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K77">
-        <v>9900</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="15"/>
-        <v>16285</v>
-      </c>
-      <c r="M77">
-        <v>5000</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="19"/>
-        <v>408</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>74</v>
-      </c>
-      <c r="B78" s="2">
-        <f t="shared" si="16"/>
-        <v>5670128.2999999998</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="17"/>
-        <v>56134270170</v>
-      </c>
-      <c r="D78" s="2">
-        <f t="shared" si="18"/>
-        <v>534612.1</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="J78" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K78">
-        <v>9900</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="15"/>
-        <v>17820.5</v>
-      </c>
-      <c r="M78">
-        <v>5000</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="19"/>
-        <v>446</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>75</v>
-      </c>
-      <c r="B79" s="2">
-        <f t="shared" si="16"/>
-        <v>6204740.4000000004</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="17"/>
-        <v>61426929960</v>
-      </c>
-      <c r="D79" s="2">
-        <f t="shared" si="18"/>
-        <v>585018.4</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="J79" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K79">
-        <v>9900</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="15"/>
-        <v>19500.699999999997</v>
-      </c>
-      <c r="M79">
-        <v>5000</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="19"/>
-        <v>488</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>76</v>
-      </c>
-      <c r="B80" s="2">
-        <f t="shared" si="16"/>
-        <v>6789758.7999999998</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="17"/>
-        <v>67218612120</v>
-      </c>
-      <c r="D80" s="2">
-        <f t="shared" si="18"/>
-        <v>640177.30000000005</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="J80" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K80">
-        <v>9900</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="15"/>
-        <v>21339.3</v>
-      </c>
-      <c r="M80">
-        <v>5000</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="19"/>
-        <v>534</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>77</v>
-      </c>
-      <c r="B81" s="2">
-        <f t="shared" si="16"/>
-        <v>7429936.0999999996</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="17"/>
-        <v>73556367390</v>
-      </c>
-      <c r="D81" s="2">
-        <f t="shared" si="18"/>
-        <v>700536.8</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="J81" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K81">
-        <v>9900</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="15"/>
-        <v>23351.3</v>
-      </c>
-      <c r="M81">
-        <v>5000</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="19"/>
-        <v>584</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>78</v>
-      </c>
-      <c r="B82" s="2">
-        <f t="shared" si="16"/>
-        <v>8130472.9000000004</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="17"/>
-        <v>80491681710</v>
-      </c>
-      <c r="D82" s="2">
-        <f t="shared" si="18"/>
-        <v>766587.4</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="J82" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K82">
-        <v>9900</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="15"/>
-        <v>25553</v>
-      </c>
-      <c r="M82">
-        <v>5000</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="19"/>
-        <v>639</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>79</v>
-      </c>
-      <c r="B83" s="2">
-        <f t="shared" si="16"/>
-        <v>8897060.3000000007</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="17"/>
-        <v>88080896970</v>
-      </c>
-      <c r="D83" s="2">
-        <f t="shared" si="18"/>
-        <v>838865.7</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="J83" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K83">
-        <v>9900</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="15"/>
-        <v>27962.199999999997</v>
-      </c>
-      <c r="M83">
-        <v>5000</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="19"/>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>80</v>
-      </c>
-      <c r="B84" s="2">
-        <f t="shared" si="16"/>
-        <v>9735926</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="17"/>
-        <v>96385667400</v>
-      </c>
-      <c r="D84" s="2">
-        <f t="shared" si="18"/>
-        <v>917958.7</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="J84" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K84">
-        <v>9900</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="15"/>
-        <v>30598.699999999997</v>
-      </c>
-      <c r="M84">
-        <v>5000</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="19"/>
-        <v>765</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>81</v>
-      </c>
-      <c r="B85" s="2">
-        <f t="shared" si="16"/>
-        <v>10653884.699999999</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="17"/>
-        <v>105473458530</v>
-      </c>
-      <c r="D85" s="2">
-        <f t="shared" si="18"/>
-        <v>1004509.1</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="J85" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K85">
-        <v>9900</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="15"/>
-        <v>33483.699999999997</v>
-      </c>
-      <c r="M85">
-        <v>5000</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="19"/>
-        <v>838</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>82</v>
-      </c>
-      <c r="B86" s="2">
-        <f t="shared" si="16"/>
-        <v>11658393.800000001</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="17"/>
-        <v>115418098620</v>
-      </c>
-      <c r="D86" s="2">
-        <f t="shared" si="18"/>
-        <v>1099220</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="J86" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K86">
-        <v>9900</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="15"/>
-        <v>36640.699999999997</v>
-      </c>
-      <c r="M86">
-        <v>5000</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="19"/>
-        <v>917</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>83</v>
-      </c>
-      <c r="B87" s="2">
-        <f t="shared" si="16"/>
-        <v>12757613.800000001</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="17"/>
-        <v>126300376620</v>
-      </c>
-      <c r="D87" s="2">
-        <f t="shared" si="18"/>
-        <v>1202860.7</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="J87" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K87">
-        <v>9900</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="15"/>
-        <v>40095.4</v>
-      </c>
-      <c r="M87">
-        <v>5000</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="19"/>
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>84</v>
-      </c>
-      <c r="B88" s="2">
-        <f t="shared" si="16"/>
-        <v>13960474.5</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="17"/>
-        <v>138208697550</v>
-      </c>
-      <c r="D88" s="2">
-        <f t="shared" si="18"/>
-        <v>1316273.3</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="J88" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K88">
-        <v>9900</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="15"/>
-        <v>43875.799999999996</v>
-      </c>
-      <c r="M88">
-        <v>5000</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="19"/>
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>85</v>
-      </c>
-      <c r="B89" s="2">
-        <f t="shared" si="16"/>
-        <v>15276747.800000001</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="17"/>
-        <v>151239803220</v>
-      </c>
-      <c r="D89" s="2">
-        <f t="shared" si="18"/>
-        <v>1440379.1</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="J89" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K89">
-        <v>9900</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="15"/>
-        <v>48012.7</v>
-      </c>
-      <c r="M89">
-        <v>5000</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="19"/>
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>86</v>
-      </c>
-      <c r="B90" s="2">
-        <f t="shared" si="16"/>
-        <v>16717126.9</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="17"/>
-        <v>165499556310</v>
-      </c>
-      <c r="D90" s="2">
-        <f t="shared" si="18"/>
-        <v>1576186.3</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="J90" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K90">
-        <v>9900</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="15"/>
-        <v>52539.6</v>
-      </c>
-      <c r="M90">
-        <v>5000</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="19"/>
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>87</v>
-      </c>
-      <c r="B91" s="2">
-        <f t="shared" si="16"/>
-        <v>18293313.199999999</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="17"/>
-        <v>181103800680</v>
-      </c>
-      <c r="D91" s="2">
-        <f t="shared" si="18"/>
-        <v>1724798.1</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="J91" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K91">
-        <v>9900</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="15"/>
-        <v>57493.299999999996</v>
-      </c>
-      <c r="M91">
-        <v>5000</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="19"/>
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>88</v>
-      </c>
-      <c r="B92" s="2">
-        <f t="shared" si="16"/>
-        <v>20018111.300000001</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="17"/>
-        <v>198179301870</v>
-      </c>
-      <c r="D92" s="2">
-        <f t="shared" si="18"/>
-        <v>1887421.9</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="J92" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K92">
-        <v>9900</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="15"/>
-        <v>62914.1</v>
-      </c>
-      <c r="M92">
-        <v>5000</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="19"/>
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>89</v>
-      </c>
-      <c r="B93" s="2">
-        <f t="shared" si="16"/>
-        <v>21905533.199999999</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="17"/>
-        <v>216864778680</v>
-      </c>
-      <c r="D93" s="2">
-        <f t="shared" si="18"/>
-        <v>2065378.8</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="J93" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K93">
-        <v>9900</v>
-      </c>
-      <c r="L93">
-        <f t="shared" si="15"/>
-        <v>68846</v>
-      </c>
-      <c r="M93">
-        <v>5000</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="19"/>
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>90</v>
-      </c>
-      <c r="B94" s="2">
-        <f t="shared" si="16"/>
-        <v>23970912</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="17"/>
-        <v>237312028800</v>
-      </c>
-      <c r="D94" s="2">
-        <f t="shared" si="18"/>
-        <v>2260114.6</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="J94" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K94">
-        <v>9900</v>
-      </c>
-      <c r="L94">
-        <f t="shared" si="15"/>
-        <v>75337.200000000012</v>
-      </c>
-      <c r="M94">
-        <v>5000</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="19"/>
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>91</v>
-      </c>
-      <c r="B95" s="2">
-        <f t="shared" si="16"/>
-        <v>26231026.600000001</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="17"/>
-        <v>259687163340</v>
-      </c>
-      <c r="D95" s="2">
-        <f t="shared" si="18"/>
-        <v>2473211.1</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="J95" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K95">
-        <v>9900</v>
-      </c>
-      <c r="L95">
-        <f t="shared" si="15"/>
-        <v>82440.400000000009</v>
-      </c>
-      <c r="M95">
-        <v>5000</v>
-      </c>
-      <c r="N95">
-        <f t="shared" si="19"/>
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>92</v>
-      </c>
-      <c r="B96" s="2">
-        <f t="shared" si="16"/>
-        <v>28704237.699999999</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="17"/>
-        <v>284171953230</v>
-      </c>
-      <c r="D96" s="2">
-        <f t="shared" si="18"/>
-        <v>2706399.6</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="J96" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K96">
-        <v>9900</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="15"/>
-        <v>90213.400000000009</v>
-      </c>
-      <c r="M96">
-        <v>5000</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="19"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>93</v>
-      </c>
-      <c r="B97" s="2">
-        <f t="shared" si="16"/>
-        <v>31410637.300000001</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="17"/>
-        <v>310965309270</v>
-      </c>
-      <c r="D97" s="2">
-        <f t="shared" si="18"/>
-        <v>2961574.4</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="J97" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K97">
-        <v>9900</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="15"/>
-        <v>98719.200000000012</v>
-      </c>
-      <c r="M97">
-        <v>5000</v>
-      </c>
-      <c r="N97">
-        <f t="shared" si="19"/>
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>94</v>
-      </c>
-      <c r="B98" s="2">
-        <f t="shared" si="16"/>
-        <v>34372211.700000003</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="17"/>
-        <v>340284895830</v>
-      </c>
-      <c r="D98" s="2">
-        <f t="shared" si="18"/>
-        <v>3240808.5</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="J98" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K98">
-        <v>9900</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="15"/>
-        <v>108027</v>
-      </c>
-      <c r="M98">
-        <v>5000</v>
-      </c>
-      <c r="N98">
-        <f t="shared" si="19"/>
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>95</v>
-      </c>
-      <c r="B99" s="2">
-        <f t="shared" si="16"/>
-        <v>37613020.200000003</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="17"/>
-        <v>372368899980</v>
-      </c>
-      <c r="D99" s="2">
-        <f t="shared" si="18"/>
-        <v>3546370.5</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="J99" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K99">
-        <v>9900</v>
-      </c>
-      <c r="L99">
-        <f t="shared" si="15"/>
         <v>118212.40000000001</v>
       </c>
-      <c r="M99">
-        <v>5000</v>
-      </c>
-      <c r="N99">
-        <f t="shared" si="19"/>
+      <c r="M99" s="12">
+        <v>5000</v>
+      </c>
+      <c r="N99" s="12">
+        <f t="shared" si="20"/>
         <v>2956</v>
       </c>
     </row>
@@ -4331,15 +4645,15 @@
         <v>96</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41159390.700000003</v>
       </c>
       <c r="C100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>407477967930</v>
       </c>
       <c r="D100" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3880742.6</v>
       </c>
       <c r="E100" s="2"/>
@@ -4350,14 +4664,14 @@
         <v>9900</v>
       </c>
       <c r="L100">
-        <f t="shared" ref="L100:L124" si="20">ROUNDUP((F100+D100)/30,1)</f>
+        <f t="shared" ref="L100:L124" si="21">ROUNDUP((F100+D100)/30,1)</f>
         <v>129358.1</v>
       </c>
       <c r="M100">
         <v>5000</v>
       </c>
       <c r="N100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3234</v>
       </c>
     </row>
@@ -4366,15 +4680,15 @@
         <v>97</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" ref="B101:B124" si="21">ROUND(F100+B100+D100,1)</f>
+        <f t="shared" ref="B101:B124" si="22">ROUND(F100+B100+D100,1)</f>
         <v>45040133.299999997</v>
       </c>
       <c r="C101">
-        <f t="shared" ref="C101:C132" si="22">B101*K100</f>
+        <f t="shared" ref="C101:C124" si="23">B101*K100</f>
         <v>445897319670</v>
       </c>
       <c r="D101" s="2">
-        <f t="shared" ref="D101:D132" si="23">ROUND((C101+E101)/(M101+J101),1)</f>
+        <f t="shared" ref="D101:D124" si="24">ROUND((C101+E101)/(M101+J101),1)</f>
         <v>4246641.0999999996</v>
       </c>
       <c r="E101" s="2"/>
@@ -4385,14 +4699,14 @@
         <v>9900</v>
       </c>
       <c r="L101">
+        <f t="shared" si="21"/>
+        <v>141554.80000000002</v>
+      </c>
+      <c r="M101">
+        <v>5000</v>
+      </c>
+      <c r="N101">
         <f t="shared" si="20"/>
-        <v>141554.80000000002</v>
-      </c>
-      <c r="M101">
-        <v>5000</v>
-      </c>
-      <c r="N101">
-        <f t="shared" si="19"/>
         <v>3539</v>
       </c>
     </row>
@@ -4401,15 +4715,15 @@
         <v>98</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>49286774.399999999</v>
       </c>
       <c r="C102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>487939066560</v>
       </c>
       <c r="D102" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4647038.7</v>
       </c>
       <c r="E102" s="2"/>
@@ -4420,14 +4734,14 @@
         <v>9900</v>
       </c>
       <c r="L102">
+        <f t="shared" si="21"/>
+        <v>154901.30000000002</v>
+      </c>
+      <c r="M102">
+        <v>5000</v>
+      </c>
+      <c r="N102">
         <f t="shared" si="20"/>
-        <v>154901.30000000002</v>
-      </c>
-      <c r="M102">
-        <v>5000</v>
-      </c>
-      <c r="N102">
-        <f t="shared" si="19"/>
         <v>3873</v>
       </c>
     </row>
@@ -4436,15 +4750,15 @@
         <v>99</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>53933813.100000001</v>
       </c>
       <c r="C103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>533944749690</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5085188.0999999996</v>
       </c>
       <c r="E103" s="2"/>
@@ -4455,14 +4769,14 @@
         <v>9900</v>
       </c>
       <c r="L103">
+        <f t="shared" si="21"/>
+        <v>169506.30000000002</v>
+      </c>
+      <c r="M103">
+        <v>5000</v>
+      </c>
+      <c r="N103">
         <f t="shared" si="20"/>
-        <v>169506.30000000002</v>
-      </c>
-      <c r="M103">
-        <v>5000</v>
-      </c>
-      <c r="N103">
-        <f t="shared" si="19"/>
         <v>4238</v>
       </c>
     </row>
@@ -4471,15 +4785,15 @@
         <v>100</v>
       </c>
       <c r="B104" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>59019001.200000003</v>
       </c>
       <c r="C104">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>584288111880</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5564648.7000000002</v>
       </c>
       <c r="E104" s="2"/>
@@ -4490,14 +4804,14 @@
         <v>9900</v>
       </c>
       <c r="L104">
+        <f t="shared" si="21"/>
+        <v>185488.30000000002</v>
+      </c>
+      <c r="M104">
+        <v>5000</v>
+      </c>
+      <c r="N104">
         <f t="shared" si="20"/>
-        <v>185488.30000000002</v>
-      </c>
-      <c r="M104">
-        <v>5000</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="19"/>
         <v>4638</v>
       </c>
     </row>
@@ -4506,15 +4820,15 @@
         <v>101</v>
       </c>
       <c r="B105" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>64583649.899999999</v>
       </c>
       <c r="C105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>639378134010</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6089315.5999999996</v>
       </c>
       <c r="E105" s="2"/>
@@ -4525,14 +4839,14 @@
         <v>9900</v>
       </c>
       <c r="L105">
+        <f t="shared" si="21"/>
+        <v>202977.2</v>
+      </c>
+      <c r="M105">
+        <v>5000</v>
+      </c>
+      <c r="N105">
         <f t="shared" si="20"/>
-        <v>202977.2</v>
-      </c>
-      <c r="M105">
-        <v>5000</v>
-      </c>
-      <c r="N105">
-        <f t="shared" si="19"/>
         <v>5075</v>
       </c>
     </row>
@@ -4541,15 +4855,15 @@
         <v>102</v>
       </c>
       <c r="B106" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>70672965.5</v>
       </c>
       <c r="C106">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>699662358450</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6663451</v>
       </c>
       <c r="E106" s="2"/>
@@ -4560,14 +4874,14 @@
         <v>9900</v>
       </c>
       <c r="L106">
+        <f t="shared" si="21"/>
+        <v>222115.1</v>
+      </c>
+      <c r="M106">
+        <v>5000</v>
+      </c>
+      <c r="N106">
         <f t="shared" si="20"/>
-        <v>222115.1</v>
-      </c>
-      <c r="M106">
-        <v>5000</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="19"/>
         <v>5553</v>
       </c>
     </row>
@@ -4576,15 +4890,15 @@
         <v>103</v>
       </c>
       <c r="B107" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>77336416.5</v>
       </c>
       <c r="C107">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>765630523350</v>
       </c>
       <c r="D107" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7291719.2999999998</v>
       </c>
       <c r="E107" s="2"/>
@@ -4595,14 +4909,14 @@
         <v>9900</v>
       </c>
       <c r="L107">
+        <f t="shared" si="21"/>
+        <v>243057.4</v>
+      </c>
+      <c r="M107">
+        <v>5000</v>
+      </c>
+      <c r="N107">
         <f t="shared" si="20"/>
-        <v>243057.4</v>
-      </c>
-      <c r="M107">
-        <v>5000</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="19"/>
         <v>6077</v>
       </c>
     </row>
@@ -4611,15 +4925,15 @@
         <v>104</v>
       </c>
       <c r="B108" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>84628135.799999997</v>
       </c>
       <c r="C108">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>837818544420</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7979224.2000000002</v>
       </c>
       <c r="E108" s="2"/>
@@ -4630,14 +4944,14 @@
         <v>9900</v>
       </c>
       <c r="L108">
+        <f t="shared" si="21"/>
+        <v>265974.19999999995</v>
+      </c>
+      <c r="M108">
+        <v>5000</v>
+      </c>
+      <c r="N108">
         <f t="shared" si="20"/>
-        <v>265974.19999999995</v>
-      </c>
-      <c r="M108">
-        <v>5000</v>
-      </c>
-      <c r="N108">
-        <f t="shared" si="19"/>
         <v>6650</v>
       </c>
     </row>
@@ -4646,15 +4960,15 @@
         <v>105</v>
       </c>
       <c r="B109" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>92607360</v>
       </c>
       <c r="C109">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>916812864000</v>
       </c>
       <c r="D109" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8731551.0999999996</v>
       </c>
       <c r="E109" s="2"/>
@@ -4665,14 +4979,14 @@
         <v>9900</v>
       </c>
       <c r="L109">
+        <f t="shared" si="21"/>
+        <v>291051.8</v>
+      </c>
+      <c r="M109">
+        <v>5000</v>
+      </c>
+      <c r="N109">
         <f t="shared" si="20"/>
-        <v>291051.8</v>
-      </c>
-      <c r="M109">
-        <v>5000</v>
-      </c>
-      <c r="N109">
-        <f t="shared" si="19"/>
         <v>7277</v>
       </c>
     </row>
@@ -4681,15 +4995,15 @@
         <v>106</v>
       </c>
       <c r="B110" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>101338911.09999999</v>
       </c>
       <c r="C110">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1003255219890</v>
       </c>
       <c r="D110" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9554811.5999999996</v>
       </c>
       <c r="E110" s="2"/>
@@ -4700,14 +5014,14 @@
         <v>9900</v>
       </c>
       <c r="L110">
+        <f t="shared" si="21"/>
+        <v>318493.8</v>
+      </c>
+      <c r="M110">
+        <v>5000</v>
+      </c>
+      <c r="N110">
         <f t="shared" si="20"/>
-        <v>318493.8</v>
-      </c>
-      <c r="M110">
-        <v>5000</v>
-      </c>
-      <c r="N110">
-        <f t="shared" si="19"/>
         <v>7963</v>
       </c>
     </row>
@@ -4716,15 +5030,15 @@
         <v>107</v>
       </c>
       <c r="B111" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>110893722.7</v>
       </c>
       <c r="C111">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1097847854730</v>
       </c>
       <c r="D111" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10455693.9</v>
       </c>
       <c r="E111" s="2"/>
@@ -4735,14 +5049,14 @@
         <v>9900</v>
       </c>
       <c r="L111">
+        <f t="shared" si="21"/>
+        <v>348523.19999999995</v>
+      </c>
+      <c r="M111">
+        <v>5000</v>
+      </c>
+      <c r="N111">
         <f t="shared" si="20"/>
-        <v>348523.19999999995</v>
-      </c>
-      <c r="M111">
-        <v>5000</v>
-      </c>
-      <c r="N111">
-        <f t="shared" si="19"/>
         <v>8714</v>
       </c>
     </row>
@@ -4751,15 +5065,15 @@
         <v>108</v>
       </c>
       <c r="B112" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>121349416.59999999</v>
       </c>
       <c r="C112">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1201359224340</v>
       </c>
       <c r="D112" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11441516.4</v>
       </c>
       <c r="E112" s="2"/>
@@ -4770,14 +5084,14 @@
         <v>9900</v>
       </c>
       <c r="L112">
+        <f t="shared" si="21"/>
+        <v>381383.89999999997</v>
+      </c>
+      <c r="M112">
+        <v>5000</v>
+      </c>
+      <c r="N112">
         <f t="shared" si="20"/>
-        <v>381383.89999999997</v>
-      </c>
-      <c r="M112">
-        <v>5000</v>
-      </c>
-      <c r="N112">
-        <f t="shared" si="19"/>
         <v>9535</v>
       </c>
     </row>
@@ -4786,15 +5100,15 @@
         <v>109</v>
       </c>
       <c r="B113" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>132790933</v>
       </c>
       <c r="C113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1314630236700</v>
       </c>
       <c r="D113" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12520288</v>
       </c>
       <c r="E113" s="2"/>
@@ -4805,14 +5119,14 @@
         <v>9900</v>
       </c>
       <c r="L113">
+        <f t="shared" si="21"/>
+        <v>417343</v>
+      </c>
+      <c r="M113">
+        <v>5000</v>
+      </c>
+      <c r="N113">
         <f t="shared" si="20"/>
-        <v>417343</v>
-      </c>
-      <c r="M113">
-        <v>5000</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="19"/>
         <v>10434</v>
       </c>
     </row>
@@ -4821,15 +5135,15 @@
         <v>110</v>
       </c>
       <c r="B114" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>145311221</v>
       </c>
       <c r="C114">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1438581087900</v>
       </c>
       <c r="D114" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13700772.300000001</v>
       </c>
       <c r="E114" s="2"/>
@@ -4840,14 +5154,14 @@
         <v>9900</v>
       </c>
       <c r="L114">
+        <f t="shared" si="21"/>
+        <v>456692.5</v>
+      </c>
+      <c r="M114">
+        <v>5000</v>
+      </c>
+      <c r="N114">
         <f t="shared" si="20"/>
-        <v>456692.5</v>
-      </c>
-      <c r="M114">
-        <v>5000</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="19"/>
         <v>11418</v>
       </c>
     </row>
@@ -4856,15 +5170,15 @@
         <v>111</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>159011993.30000001</v>
       </c>
       <c r="C115">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1574218733670</v>
       </c>
       <c r="D115" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14992559.4</v>
       </c>
       <c r="E115" s="2"/>
@@ -4875,14 +5189,14 @@
         <v>9900</v>
       </c>
       <c r="L115">
+        <f t="shared" si="21"/>
+        <v>499752</v>
+      </c>
+      <c r="M115">
+        <v>5000</v>
+      </c>
+      <c r="N115">
         <f t="shared" si="20"/>
-        <v>499752</v>
-      </c>
-      <c r="M115">
-        <v>5000</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="19"/>
         <v>12494</v>
       </c>
     </row>
@@ -4891,15 +5205,15 @@
         <v>112</v>
       </c>
       <c r="B116" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>174004552.69999999</v>
       </c>
       <c r="C116">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1722645071730</v>
       </c>
       <c r="D116" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16406143.5</v>
       </c>
       <c r="E116" s="2"/>
@@ -4910,14 +5224,14 @@
         <v>9900</v>
       </c>
       <c r="L116">
+        <f t="shared" si="21"/>
+        <v>546871.5</v>
+      </c>
+      <c r="M116">
+        <v>5000</v>
+      </c>
+      <c r="N116">
         <f t="shared" si="20"/>
-        <v>546871.5</v>
-      </c>
-      <c r="M116">
-        <v>5000</v>
-      </c>
-      <c r="N116">
-        <f t="shared" si="19"/>
         <v>13672</v>
       </c>
     </row>
@@ -4926,15 +5240,15 @@
         <v>113</v>
       </c>
       <c r="B117" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>190410696.19999999</v>
       </c>
       <c r="C117">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1885065892380</v>
       </c>
       <c r="D117" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17953008.5</v>
       </c>
       <c r="E117" s="2"/>
@@ -4945,14 +5259,14 @@
         <v>9900</v>
       </c>
       <c r="L117">
+        <f t="shared" si="21"/>
+        <v>598433.69999999995</v>
+      </c>
+      <c r="M117">
+        <v>5000</v>
+      </c>
+      <c r="N117">
         <f t="shared" si="20"/>
-        <v>598433.69999999995</v>
-      </c>
-      <c r="M117">
-        <v>5000</v>
-      </c>
-      <c r="N117">
-        <f t="shared" si="19"/>
         <v>14961</v>
       </c>
     </row>
@@ -4961,15 +5275,15 @@
         <v>114</v>
       </c>
       <c r="B118" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>208363704.69999999</v>
       </c>
       <c r="C118">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2062800676530</v>
       </c>
       <c r="D118" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>19645720.699999999</v>
       </c>
       <c r="E118" s="2"/>
@@ -4980,14 +5294,14 @@
         <v>9900</v>
       </c>
       <c r="L118">
+        <f t="shared" si="21"/>
+        <v>654857.4</v>
+      </c>
+      <c r="M118">
+        <v>5000</v>
+      </c>
+      <c r="N118">
         <f t="shared" si="20"/>
-        <v>654857.4</v>
-      </c>
-      <c r="M118">
-        <v>5000</v>
-      </c>
-      <c r="N118">
-        <f t="shared" si="19"/>
         <v>16372</v>
       </c>
     </row>
@@ -4996,15 +5310,15 @@
         <v>115</v>
       </c>
       <c r="B119" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>228009425.40000001</v>
       </c>
       <c r="C119">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2257293311460</v>
       </c>
       <c r="D119" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>21498031.5</v>
       </c>
       <c r="E119" s="2"/>
@@ -5015,14 +5329,14 @@
         <v>9900</v>
       </c>
       <c r="L119">
+        <f t="shared" si="21"/>
+        <v>716601.1</v>
+      </c>
+      <c r="M119">
+        <v>5000</v>
+      </c>
+      <c r="N119">
         <f t="shared" si="20"/>
-        <v>716601.1</v>
-      </c>
-      <c r="M119">
-        <v>5000</v>
-      </c>
-      <c r="N119">
-        <f t="shared" si="19"/>
         <v>17916</v>
       </c>
     </row>
@@ -5031,15 +5345,15 @@
         <v>116</v>
       </c>
       <c r="B120" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>249507456.90000001</v>
       </c>
       <c r="C120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2470123823310</v>
       </c>
       <c r="D120" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23524988.800000001</v>
       </c>
       <c r="E120" s="2"/>
@@ -5050,14 +5364,14 @@
         <v>9900</v>
       </c>
       <c r="L120">
+        <f t="shared" si="21"/>
+        <v>784166.29999999993</v>
+      </c>
+      <c r="M120">
+        <v>5000</v>
+      </c>
+      <c r="N120">
         <f t="shared" si="20"/>
-        <v>784166.29999999993</v>
-      </c>
-      <c r="M120">
-        <v>5000</v>
-      </c>
-      <c r="N120">
-        <f t="shared" si="19"/>
         <v>19605</v>
       </c>
     </row>
@@ -5066,15 +5380,15 @@
         <v>117</v>
       </c>
       <c r="B121" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>273032445.69999999</v>
       </c>
       <c r="C121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2703021212430</v>
       </c>
       <c r="D121" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>25743059.199999999</v>
       </c>
       <c r="E121" s="2"/>
@@ -5085,14 +5399,14 @@
         <v>9900</v>
       </c>
       <c r="L121">
+        <f t="shared" si="21"/>
+        <v>858102</v>
+      </c>
+      <c r="M121">
+        <v>5000</v>
+      </c>
+      <c r="N121">
         <f t="shared" si="20"/>
-        <v>858102</v>
-      </c>
-      <c r="M121">
-        <v>5000</v>
-      </c>
-      <c r="N121">
-        <f t="shared" si="19"/>
         <v>21453</v>
       </c>
     </row>
@@ -5101,15 +5415,15 @@
         <v>118</v>
       </c>
       <c r="B122" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>298775504.89999998</v>
       </c>
       <c r="C122">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2957877498510</v>
       </c>
       <c r="D122" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>28170261.899999999</v>
       </c>
       <c r="E122" s="2"/>
@@ -5120,14 +5434,14 @@
         <v>9900</v>
       </c>
       <c r="L122">
+        <f t="shared" si="21"/>
+        <v>939008.79999999993</v>
+      </c>
+      <c r="M122">
+        <v>5000</v>
+      </c>
+      <c r="N122">
         <f t="shared" si="20"/>
-        <v>939008.79999999993</v>
-      </c>
-      <c r="M122">
-        <v>5000</v>
-      </c>
-      <c r="N122">
-        <f t="shared" si="19"/>
         <v>23476</v>
       </c>
     </row>
@@ -5136,15 +5450,15 @@
         <v>119</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>326945766.80000001</v>
       </c>
       <c r="C123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3236763091320</v>
       </c>
       <c r="D123" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>30826315.199999999</v>
       </c>
       <c r="E123" s="2"/>
@@ -5155,14 +5469,14 @@
         <v>9900</v>
       </c>
       <c r="L123">
+        <f t="shared" si="21"/>
+        <v>1027543.9</v>
+      </c>
+      <c r="M123">
+        <v>5000</v>
+      </c>
+      <c r="N123">
         <f t="shared" si="20"/>
-        <v>1027543.9</v>
-      </c>
-      <c r="M123">
-        <v>5000</v>
-      </c>
-      <c r="N123">
-        <f t="shared" si="19"/>
         <v>25689</v>
       </c>
     </row>
@@ -5171,15 +5485,15 @@
         <v>120</v>
       </c>
       <c r="B124" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>357772082</v>
       </c>
       <c r="C124">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3541943611800</v>
       </c>
       <c r="D124" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>33732796.299999997</v>
       </c>
       <c r="E124" s="2"/>
@@ -5190,14 +5504,14 @@
         <v>9900</v>
       </c>
       <c r="L124">
+        <f t="shared" si="21"/>
+        <v>1124426.6000000001</v>
+      </c>
+      <c r="M124">
+        <v>5000</v>
+      </c>
+      <c r="N124">
         <f t="shared" si="20"/>
-        <v>1124426.6000000001</v>
-      </c>
-      <c r="M124">
-        <v>5000</v>
-      </c>
-      <c r="N124">
-        <f t="shared" si="19"/>
         <v>28111</v>
       </c>
     </row>

--- a/THUNG_GAO_IOT/TAI CHINH/buoc_nhay_san_pham_ko_tra_luong_ban_dau.xlsx
+++ b/THUNG_GAO_IOT/TAI CHINH/buoc_nhay_san_pham_ko_tra_luong_ban_dau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDT\Desktop\PROJECTS\THUNG_GAO_IOT\TAI CHINH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED644AE-B993-4163-9103-408229CC7B1C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181FE5B9-6483-4F10-BAF7-8D5F1FDAFB37}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3A1884C2-1EFC-44AC-BA95-2AB60B7F898A}"/>
   </bookViews>
@@ -188,21 +188,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -520,7 +515,7 @@
   <dimension ref="A1:X124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,76 +644,76 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="G4">
-        <f>F4*100000</f>
-        <v>100000000</v>
+        <f>F4*J4</f>
+        <v>378000000</v>
       </c>
       <c r="H4">
         <f>G4+I4</f>
-        <v>105000000</v>
+        <v>398340000</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I15" si="1">F4*M4+E4</f>
-        <v>5000000</v>
+        <v>20340000</v>
       </c>
       <c r="J4" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K4">
         <v>9900</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L35" si="2">ROUNDUP((F4+D4)/30,1)</f>
-        <v>33.4</v>
+        <v>150</v>
       </c>
       <c r="M4">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N68" si="3">ROUNDUP(L4/40,0.1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O4">
         <f>SUM(H4:H106)</f>
-        <v>1306281163.5</v>
+        <v>2432172372.8571429</v>
       </c>
       <c r="P4">
         <f>SUM(I4:I28)</f>
-        <v>106281163.5</v>
+        <v>164172372.85714287</v>
       </c>
       <c r="Q4">
         <f>SUM(C5:C16)</f>
-        <v>1136060640</v>
+        <v>4320841140</v>
       </c>
       <c r="R4">
         <f>SUM(C5:C15)</f>
-        <v>925623270</v>
+        <v>3641558580</v>
       </c>
       <c r="S4">
-        <f>Q4-R4</f>
-        <v>210437370</v>
+        <f t="shared" ref="S4:S10" si="4">Q4-R4</f>
+        <v>679282560</v>
       </c>
       <c r="T4">
-        <f>S4*0.8</f>
-        <v>168349896</v>
+        <f t="shared" ref="T4:T10" si="5">S4*0.8</f>
+        <v>543426048</v>
       </c>
       <c r="U4">
         <f>T4/O4*100</f>
-        <v>12.887722850487235</v>
+        <v>22.343237431055172</v>
       </c>
       <c r="V4">
         <f>S4/Q4*100</f>
-        <v>18.523427587456951</v>
+        <v>15.721072309545727</v>
       </c>
       <c r="W4">
         <f>T4*0.2</f>
-        <v>33669979.200000003</v>
+        <v>108685209.60000001</v>
       </c>
       <c r="X4">
         <f>(T4/Q4)*100</f>
-        <v>14.818742069965559</v>
+        <v>12.576857847636584</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -726,87 +721,88 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B36" si="4">ROUND(F4+B4+D4,1)</f>
-        <v>1000</v>
+        <f t="shared" ref="B5:B36" si="6">ROUND(F4+B4+D4,1)</f>
+        <v>4500</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C36" si="5">B5*K4</f>
-        <v>9900000</v>
+        <f t="shared" ref="C5:C36" si="7">B5*K4</f>
+        <v>44550000</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D36" si="6">ROUND((C5+E5)/(M5+J5),1)</f>
-        <v>99</v>
+        <f t="shared" ref="D5:D36" si="8">ROUND((C5+E5)/(M5+J5),1)</f>
+        <v>530.4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>495000</v>
+        <v>2397214.2857142859</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="G5">
-        <v>100000000</v>
+        <f t="shared" ref="G5:G15" si="9">F5*J5</f>
+        <v>378000000</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H15" si="7">G5+I5</f>
-        <v>105495000</v>
+        <f t="shared" ref="H5:H15" si="10">G5+I5</f>
+        <v>400737214.28571427</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>5495000</v>
+        <v>22737214.285714287</v>
       </c>
       <c r="J5" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K5">
         <v>9900</v>
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>36.700000000000003</v>
+        <v>167.7</v>
       </c>
       <c r="M5">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O5">
         <f>O4+S4</f>
-        <v>1516718533.5</v>
+        <v>3111454932.8571429</v>
       </c>
       <c r="Q5">
         <f>SUM(C17:C28)</f>
-        <v>4758385500</v>
+        <v>17346134520</v>
       </c>
       <c r="R5">
         <f>SUM(C16:C27)</f>
-        <v>4348393830</v>
+        <v>15601299120</v>
       </c>
       <c r="S5">
-        <f>Q5-R5</f>
-        <v>409991670</v>
+        <f t="shared" si="4"/>
+        <v>1744835400</v>
       </c>
       <c r="T5">
-        <f>S5*0.8</f>
-        <v>327993336</v>
+        <f t="shared" si="5"/>
+        <v>1395868320</v>
       </c>
       <c r="U5">
-        <f>T5/(O5)*100</f>
-        <v>21.625194705250827</v>
+        <f t="shared" ref="U5:U10" si="11">T5/(O5)*100</f>
+        <v>44.862238088668754</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="V5:V10" si="8">S5/Q5*100</f>
-        <v>8.616192824225779</v>
+        <f t="shared" ref="V5:V10" si="12">S5/Q5*100</f>
+        <v>10.058929255899718</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W10" si="9">T5*0.2</f>
-        <v>65598667.200000003</v>
+        <f t="shared" ref="W5:W10" si="13">T5*0.2</f>
+        <v>279173664</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5:X10" si="10">(T5/Q5)*100</f>
-        <v>6.8929542593806232</v>
+        <f t="shared" ref="X5:X10" si="14">(T5/Q5)*100</f>
+        <v>8.0471434047197743</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -814,87 +810,88 @@
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="4"/>
-        <v>2099</v>
+        <f t="shared" si="6"/>
+        <v>9530.4</v>
       </c>
       <c r="C6">
-        <f t="shared" si="5"/>
-        <v>20780100</v>
+        <f t="shared" si="7"/>
+        <v>94350960</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="6"/>
-        <v>207.8</v>
+        <f t="shared" si="8"/>
+        <v>1123.2</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>1039004.9999999999</v>
+        <v>5076980.2285714289</v>
       </c>
       <c r="F6">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="G6">
-        <v>100000000</v>
+        <f t="shared" si="9"/>
+        <v>378000000</v>
       </c>
       <c r="H6">
-        <f t="shared" si="7"/>
-        <v>106039005</v>
+        <f t="shared" si="10"/>
+        <v>403416980.22857141</v>
       </c>
       <c r="I6">
         <f>F6*M6+E6</f>
-        <v>6039005</v>
+        <v>25416980.22857143</v>
       </c>
       <c r="J6" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K6">
         <v>9900</v>
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
-        <v>40.300000000000004</v>
+        <v>187.5</v>
       </c>
       <c r="M6">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O10" si="11">O5+S5</f>
-        <v>1926710203.5</v>
+        <f t="shared" ref="O6:O10" si="15">O5+S5</f>
+        <v>4856290332.8571434</v>
       </c>
       <c r="Q6">
         <f>SUM(C29:C40)</f>
-        <v>14029039530</v>
+        <v>61902210150</v>
       </c>
       <c r="R6">
         <f>SUM(C28:C39)</f>
-        <v>12820272300</v>
+        <v>55675509120</v>
       </c>
       <c r="S6">
-        <f>Q6-R6</f>
-        <v>1208767230</v>
+        <f t="shared" si="4"/>
+        <v>6226701030</v>
       </c>
       <c r="T6">
-        <f>S6*0.8</f>
-        <v>967013784</v>
+        <f t="shared" si="5"/>
+        <v>4981360824</v>
       </c>
       <c r="U6">
-        <f>T6/(O6)*100</f>
-        <v>50.189892711594808</v>
+        <f t="shared" si="11"/>
+        <v>102.5754327391969</v>
       </c>
       <c r="V6">
-        <f t="shared" si="8"/>
-        <v>8.6161795140369097</v>
+        <f t="shared" si="12"/>
+        <v>10.058931684202555</v>
       </c>
       <c r="W6">
-        <f t="shared" si="9"/>
-        <v>193402756.80000001</v>
+        <f t="shared" si="13"/>
+        <v>996272164.80000007</v>
       </c>
       <c r="X6">
         <f>(T6/Q6)*100</f>
-        <v>6.8929436112295281</v>
+        <v>8.0471453473620453</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -902,87 +899,88 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="4"/>
-        <v>3306.8</v>
+        <f t="shared" si="6"/>
+        <v>15153.6</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="5"/>
-        <v>32737320</v>
+        <f t="shared" si="7"/>
+        <v>150020640</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="6"/>
-        <v>327.39999999999998</v>
+        <f t="shared" si="8"/>
+        <v>1786</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>1636866</v>
+        <v>8072539.2000000002</v>
       </c>
       <c r="F7">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="G7">
-        <v>100000000</v>
+        <f t="shared" si="9"/>
+        <v>378000000</v>
       </c>
       <c r="H7">
-        <f t="shared" si="7"/>
-        <v>106636866</v>
+        <f t="shared" si="10"/>
+        <v>406412539.19999999</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>6636866</v>
+        <v>28412539.199999999</v>
       </c>
       <c r="J7" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K7">
         <v>9900</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>44.300000000000004</v>
+        <v>209.6</v>
       </c>
       <c r="M7">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O7">
-        <f t="shared" si="11"/>
-        <v>3135477433.5</v>
+        <f t="shared" si="15"/>
+        <v>11082991362.857143</v>
       </c>
       <c r="Q7">
         <f>SUM(C41:C52)</f>
-        <v>41361539670</v>
+        <v>220907074410</v>
       </c>
       <c r="R7">
         <f>SUM(C40:C51)</f>
-        <v>37797751530</v>
+        <v>198686184840</v>
       </c>
       <c r="S7">
-        <f>Q7-R7</f>
-        <v>3563788140</v>
+        <f t="shared" si="4"/>
+        <v>22220889570</v>
       </c>
       <c r="T7">
-        <f>S7*0.8</f>
-        <v>2851030512</v>
+        <f t="shared" si="5"/>
+        <v>17776711656</v>
       </c>
       <c r="U7">
-        <f>T7/(O7)*100</f>
-        <v>90.928114536532192</v>
+        <f t="shared" si="11"/>
+        <v>160.39633230768166</v>
       </c>
       <c r="V7">
-        <f t="shared" si="8"/>
-        <v>8.6161882957777234</v>
+        <f t="shared" si="12"/>
+        <v>10.058930719782374</v>
       </c>
       <c r="W7">
-        <f t="shared" si="9"/>
-        <v>570206102.39999998</v>
+        <f t="shared" si="13"/>
+        <v>3555342331.2000003</v>
       </c>
       <c r="X7">
-        <f t="shared" si="10"/>
-        <v>6.8929506366221789</v>
+        <f t="shared" si="14"/>
+        <v>8.0471445758259001</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -990,87 +988,88 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="4"/>
-        <v>4634.2</v>
+        <f t="shared" si="6"/>
+        <v>21439.599999999999</v>
       </c>
       <c r="C8">
-        <f t="shared" si="5"/>
-        <v>45878580</v>
+        <f t="shared" si="7"/>
+        <v>212252040</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="6"/>
-        <v>458.8</v>
+        <f t="shared" si="8"/>
+        <v>2526.8000000000002</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>2293929</v>
+        <v>11421181.199999999</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="G8">
-        <v>100000000</v>
+        <f t="shared" si="9"/>
+        <v>378000000</v>
       </c>
       <c r="H8">
-        <f t="shared" si="7"/>
-        <v>107293929</v>
+        <f t="shared" si="10"/>
+        <v>409761181.19999999</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>7293929</v>
+        <v>31761181.199999999</v>
       </c>
       <c r="J8" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K8">
         <v>9900</v>
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>48.7</v>
+        <v>234.29999999999998</v>
       </c>
       <c r="M8">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O8">
-        <f t="shared" si="11"/>
-        <v>6699265573.5</v>
+        <f t="shared" si="15"/>
+        <v>33303880932.857143</v>
       </c>
       <c r="Q8" s="3">
         <f>SUM(C53:C64)</f>
-        <v>121945392360</v>
+        <v>788339141370</v>
       </c>
       <c r="R8">
         <f>SUM(C52:C63)</f>
-        <v>111438349110</v>
+        <v>709040650230</v>
       </c>
       <c r="S8">
-        <f>Q8-R8</f>
-        <v>10507043250</v>
+        <f t="shared" si="4"/>
+        <v>79298491140</v>
       </c>
       <c r="T8">
-        <f>S8*0.8</f>
-        <v>8405634600</v>
+        <f t="shared" si="5"/>
+        <v>63438792912</v>
       </c>
       <c r="U8">
-        <f>T8/(O8)*100</f>
-        <v>125.47098645036272</v>
+        <f t="shared" si="11"/>
+        <v>190.48468567341104</v>
       </c>
       <c r="V8">
-        <f t="shared" si="8"/>
-        <v>8.6161871692386089</v>
+        <f t="shared" si="12"/>
+        <v>10.058931109546666</v>
       </c>
       <c r="W8">
-        <f t="shared" si="9"/>
-        <v>1681126920</v>
+        <f t="shared" si="13"/>
+        <v>12687758582.400002</v>
       </c>
       <c r="X8">
-        <f t="shared" si="10"/>
-        <v>6.8929497353908884</v>
+        <f t="shared" si="14"/>
+        <v>8.0471448876373319</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1078,87 +1077,88 @@
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="4"/>
-        <v>6093</v>
+        <f t="shared" si="6"/>
+        <v>28466.400000000001</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
-        <v>60320700</v>
+        <f t="shared" si="7"/>
+        <v>281817360</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="6"/>
-        <v>603.20000000000005</v>
+        <f t="shared" si="8"/>
+        <v>3355</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>3016035</v>
+        <v>15164457.942857143</v>
       </c>
       <c r="F9">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="G9">
-        <v>100000000</v>
+        <f t="shared" si="9"/>
+        <v>378000000</v>
       </c>
       <c r="H9">
-        <f t="shared" si="7"/>
-        <v>108016035</v>
+        <f t="shared" si="10"/>
+        <v>413504457.94285715</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>8016035</v>
+        <v>35504457.942857146</v>
       </c>
       <c r="J9" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K9">
         <v>9900</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>53.5</v>
+        <v>261.90000000000003</v>
       </c>
       <c r="M9">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O9">
-        <f t="shared" si="11"/>
-        <v>17206308823.5</v>
+        <f t="shared" si="15"/>
+        <v>112602372072.85715</v>
       </c>
       <c r="Q9" s="3">
         <f>SUM(C65:C76)</f>
-        <v>359529158340</v>
+        <v>2813303295990</v>
       </c>
       <c r="R9">
         <f>SUM(C64:C75)</f>
-        <v>328551450480</v>
+        <v>2530315055070</v>
       </c>
       <c r="S9">
-        <f>Q9-R9</f>
-        <v>30977707860</v>
+        <f t="shared" si="4"/>
+        <v>282988240920</v>
       </c>
       <c r="T9">
-        <f>S9*0.8</f>
-        <v>24782166288</v>
+        <f t="shared" si="5"/>
+        <v>226390592736</v>
       </c>
       <c r="U9">
-        <f>T9/(O9)*100</f>
-        <v>144.02953324976394</v>
+        <f t="shared" si="11"/>
+        <v>201.05312931553379</v>
       </c>
       <c r="V9">
         <f>S9/Q9*100</f>
-        <v>8.6161879061572417</v>
+        <v>10.058931126386662</v>
       </c>
       <c r="W9">
-        <f t="shared" si="9"/>
-        <v>4956433257.6000004</v>
+        <f t="shared" si="13"/>
+        <v>45278118547.200005</v>
       </c>
       <c r="X9">
-        <f t="shared" si="10"/>
-        <v>6.8929503249257937</v>
+        <f t="shared" si="14"/>
+        <v>8.0471449011093288</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1166,87 +1166,87 @@
         <v>6</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="4"/>
-        <v>7696.2</v>
+        <f t="shared" si="6"/>
+        <v>36321.4</v>
       </c>
       <c r="C10">
-        <f t="shared" si="5"/>
-        <v>76192380</v>
+        <f t="shared" si="7"/>
+        <v>359581860</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="6"/>
-        <v>761.9</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>3809619</v>
+        <f t="shared" si="8"/>
+        <v>4062.2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>100000000</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="7"/>
-        <v>108809619</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>8809619</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K10">
         <v>9900</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>58.800000000000004</v>
+        <v>135.5</v>
       </c>
       <c r="M10">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O10">
-        <f t="shared" si="11"/>
-        <v>48184016683.5</v>
+        <f t="shared" si="15"/>
+        <v>395590612992.85718</v>
       </c>
       <c r="Q10" s="3">
         <f>SUM(C77:C88)</f>
-        <v>1059992693100</v>
+        <v>10039683448080</v>
       </c>
       <c r="R10">
         <f>SUM(C76:C87)</f>
-        <v>968661731070</v>
+        <v>9029798607060</v>
       </c>
       <c r="S10">
-        <f>Q10-R10</f>
-        <v>91330962030</v>
+        <f t="shared" si="4"/>
+        <v>1009884841020</v>
       </c>
       <c r="T10">
-        <f>S10*0.8</f>
-        <v>73064769624</v>
+        <f t="shared" si="5"/>
+        <v>807907872816</v>
       </c>
       <c r="U10">
-        <f>T10/(O10)*100</f>
-        <v>151.63694239924189</v>
+        <f t="shared" si="11"/>
+        <v>204.22827192580218</v>
       </c>
       <c r="V10">
-        <f t="shared" si="8"/>
-        <v>8.6161878873804465</v>
+        <f t="shared" si="12"/>
+        <v>10.058931103182655</v>
       </c>
       <c r="W10">
-        <f t="shared" si="9"/>
-        <v>14612953924.800001</v>
+        <f t="shared" si="13"/>
+        <v>161581574563.20001</v>
       </c>
       <c r="X10">
-        <f t="shared" si="10"/>
-        <v>6.8929503099043581</v>
+        <f t="shared" si="14"/>
+        <v>8.0471448825461245</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1254,51 +1254,51 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="4"/>
-        <v>9458.1</v>
+        <f t="shared" si="6"/>
+        <v>40383.599999999999</v>
       </c>
       <c r="C11">
-        <f t="shared" si="5"/>
-        <v>93635190</v>
+        <f t="shared" si="7"/>
+        <v>399797640</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="6"/>
-        <v>936.4</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>4681759.5</v>
+        <f t="shared" si="8"/>
+        <v>4516.5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>100000000</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="7"/>
-        <v>109681759.5</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>9681759.5</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K11">
         <v>9900</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>64.599999999999994</v>
+        <v>150.6</v>
       </c>
       <c r="M11">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1306,51 +1306,51 @@
         <v>8</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="4"/>
-        <v>11394.5</v>
+        <f t="shared" si="6"/>
+        <v>44900.1</v>
       </c>
       <c r="C12">
-        <f t="shared" si="5"/>
-        <v>112805550</v>
+        <f t="shared" si="7"/>
+        <v>444510990</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="6"/>
-        <v>1128.0999999999999</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>5640277.5</v>
+        <f t="shared" si="8"/>
+        <v>5021.6000000000004</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>100000000</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="7"/>
-        <v>110640277.5</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>10640277.5</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K12">
         <v>9900</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>167.4</v>
       </c>
       <c r="M12">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R12" t="s">
         <v>24</v>
@@ -1361,51 +1361,51 @@
         <v>9</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="4"/>
-        <v>13522.6</v>
+        <f t="shared" si="6"/>
+        <v>49921.7</v>
       </c>
       <c r="C13">
-        <f t="shared" si="5"/>
-        <v>133873740</v>
+        <f t="shared" si="7"/>
+        <v>494224830</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="6"/>
-        <v>1338.7</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>6693687</v>
+        <f t="shared" si="8"/>
+        <v>5583.2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>100000000</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="7"/>
-        <v>111693687</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>11693687</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K13">
         <v>9900</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>186.2</v>
       </c>
       <c r="M13">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R13">
         <f>1400000000/10000</f>
@@ -1417,51 +1417,51 @@
         <v>10</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="4"/>
-        <v>15861.3</v>
+        <f t="shared" si="6"/>
+        <v>55504.9</v>
       </c>
       <c r="C14">
-        <f t="shared" si="5"/>
-        <v>157026870</v>
+        <f t="shared" si="7"/>
+        <v>549498510</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="6"/>
-        <v>1570.3</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>7851343.5</v>
+        <f t="shared" si="8"/>
+        <v>6207.6</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>100000000</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="7"/>
-        <v>112851343.5</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>12851343.5</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K14">
         <v>9900</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>85.699999999999989</v>
+        <v>207</v>
       </c>
       <c r="M14">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1469,51 +1469,51 @@
         <v>11</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="4"/>
-        <v>18431.599999999999</v>
+        <f t="shared" si="6"/>
+        <v>61712.5</v>
       </c>
       <c r="C15">
-        <f t="shared" si="5"/>
-        <v>182472840</v>
+        <f t="shared" si="7"/>
+        <v>610953750</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="6"/>
-        <v>1824.7</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>9123642</v>
+        <f t="shared" si="8"/>
+        <v>6901.9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>100000000</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="7"/>
-        <v>114123642</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>14123642</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K15">
         <v>9900</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>94.199999999999989</v>
+        <v>230.1</v>
       </c>
       <c r="M15">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1521,36 +1521,36 @@
         <v>12</v>
       </c>
       <c r="B16" s="4">
-        <f t="shared" si="4"/>
-        <v>21256.3</v>
+        <f t="shared" si="6"/>
+        <v>68614.399999999994</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="5"/>
-        <v>210437370</v>
+        <f t="shared" si="7"/>
+        <v>679282560</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="6"/>
-        <v>2004.2</v>
+        <f t="shared" si="8"/>
+        <v>7673.8</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="5">
-        <v>100000</v>
+      <c r="J16" s="1">
+        <v>84000</v>
       </c>
       <c r="K16" s="4">
         <v>9900</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="2"/>
-        <v>66.899999999999991</v>
-      </c>
-      <c r="M16" s="4">
-        <v>5000</v>
+        <v>255.79999999999998</v>
+      </c>
+      <c r="M16">
+        <v>4520</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1558,34 +1558,34 @@
         <v>13</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="4"/>
-        <v>23260.5</v>
+        <f t="shared" si="6"/>
+        <v>76288.2</v>
       </c>
       <c r="C17">
-        <f t="shared" si="5"/>
-        <v>230278950</v>
+        <f t="shared" si="7"/>
+        <v>755253180</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
-        <v>2193.1</v>
+        <f t="shared" si="8"/>
+        <v>8532</v>
       </c>
       <c r="E17" s="2"/>
       <c r="J17" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K17">
         <v>9900</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>73.199999999999989</v>
+        <v>284.39999999999998</v>
       </c>
       <c r="M17">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1593,34 +1593,34 @@
         <v>14</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="4"/>
-        <v>25453.599999999999</v>
+        <f t="shared" si="6"/>
+        <v>84820.2</v>
       </c>
       <c r="C18">
-        <f t="shared" si="5"/>
-        <v>251990640</v>
+        <f t="shared" si="7"/>
+        <v>839719980</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="6"/>
-        <v>2399.9</v>
+        <f t="shared" si="8"/>
+        <v>9486.2000000000007</v>
       </c>
       <c r="E18" s="2"/>
       <c r="J18" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K18">
         <v>9900</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>316.3</v>
       </c>
       <c r="M18">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1628,34 +1628,34 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="4"/>
-        <v>27853.5</v>
+        <f t="shared" si="6"/>
+        <v>94306.4</v>
       </c>
       <c r="C19">
-        <f t="shared" si="5"/>
-        <v>275749650</v>
+        <f t="shared" si="7"/>
+        <v>933633360</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
-        <v>2626.2</v>
+        <f t="shared" si="8"/>
+        <v>10547.1</v>
       </c>
       <c r="E19" s="2"/>
       <c r="J19" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K19">
         <v>9900</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
-        <v>87.6</v>
+        <v>351.6</v>
       </c>
       <c r="M19">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1663,34 +1663,34 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="4"/>
-        <v>30479.7</v>
+        <f t="shared" si="6"/>
+        <v>104853.5</v>
       </c>
       <c r="C20">
-        <f t="shared" si="5"/>
-        <v>301749030</v>
+        <f t="shared" si="7"/>
+        <v>1038049650</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
-        <v>2873.8</v>
+        <f t="shared" si="8"/>
+        <v>11726.7</v>
       </c>
       <c r="E20" s="2"/>
       <c r="J20" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K20">
         <v>9900</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>95.8</v>
+        <v>390.90000000000003</v>
       </c>
       <c r="M20">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1698,34 +1698,34 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="4"/>
-        <v>33353.5</v>
+        <f t="shared" si="6"/>
+        <v>116580.2</v>
       </c>
       <c r="C21">
-        <f t="shared" si="5"/>
-        <v>330199650</v>
+        <f t="shared" si="7"/>
+        <v>1154143980</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="6"/>
-        <v>3144.8</v>
+        <f t="shared" si="8"/>
+        <v>13038.2</v>
       </c>
       <c r="E21" s="2"/>
       <c r="J21" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K21">
         <v>9900</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>104.89999999999999</v>
+        <v>434.70000000000005</v>
       </c>
       <c r="M21">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N21">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1733,34 +1733,34 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="4"/>
-        <v>36498.300000000003</v>
+        <f t="shared" si="6"/>
+        <v>129618.4</v>
       </c>
       <c r="C22">
-        <f t="shared" si="5"/>
-        <v>361333170</v>
+        <f t="shared" si="7"/>
+        <v>1283222160</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="6"/>
-        <v>3441.3</v>
+        <f t="shared" si="8"/>
+        <v>14496.4</v>
       </c>
       <c r="E22" s="2"/>
       <c r="J22" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K22">
         <v>9900</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
-        <v>114.8</v>
+        <v>483.3</v>
       </c>
       <c r="M22">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N22">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1768,34 +1768,34 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="4"/>
-        <v>39939.599999999999</v>
+        <f t="shared" si="6"/>
+        <v>144114.79999999999</v>
       </c>
       <c r="C23">
-        <f t="shared" si="5"/>
-        <v>395402040</v>
+        <f t="shared" si="7"/>
+        <v>1426736520</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="6"/>
-        <v>3765.7</v>
+        <f t="shared" si="8"/>
+        <v>16117.7</v>
       </c>
       <c r="E23" s="2"/>
       <c r="J23" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K23">
         <v>9900</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>125.6</v>
+        <v>537.30000000000007</v>
       </c>
       <c r="M23">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N23">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1803,34 +1803,34 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="4"/>
-        <v>43705.3</v>
+        <f t="shared" si="6"/>
+        <v>160232.5</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
-        <v>432682470</v>
+        <f t="shared" si="7"/>
+        <v>1586301750</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="6"/>
-        <v>4120.8</v>
+        <f t="shared" si="8"/>
+        <v>17920.3</v>
       </c>
       <c r="E24" s="2"/>
       <c r="J24" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K24">
         <v>9900</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>137.4</v>
+        <v>597.4</v>
       </c>
       <c r="M24">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1838,34 +1838,34 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="4"/>
-        <v>47826.1</v>
+        <f t="shared" si="6"/>
+        <v>178152.8</v>
       </c>
       <c r="C25">
-        <f t="shared" si="5"/>
-        <v>473478390</v>
+        <f t="shared" si="7"/>
+        <v>1763712720</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="6"/>
-        <v>4509.3</v>
+        <f t="shared" si="8"/>
+        <v>19924.5</v>
       </c>
       <c r="E25" s="2"/>
       <c r="J25" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K25">
         <v>9900</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
-        <v>150.4</v>
+        <v>664.2</v>
       </c>
       <c r="M25">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1873,34 +1873,34 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="4"/>
-        <v>52335.4</v>
+        <f t="shared" si="6"/>
+        <v>198077.3</v>
       </c>
       <c r="C26">
-        <f t="shared" si="5"/>
-        <v>518120460</v>
+        <f t="shared" si="7"/>
+        <v>1960965270</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="6"/>
-        <v>4934.5</v>
+        <f t="shared" si="8"/>
+        <v>22152.799999999999</v>
       </c>
       <c r="E26" s="2"/>
       <c r="J26" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K26">
         <v>9900</v>
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>164.5</v>
+        <v>738.5</v>
       </c>
       <c r="M26">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N26">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1908,34 +1908,34 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="4"/>
-        <v>57269.9</v>
+        <f t="shared" si="6"/>
+        <v>220230.1</v>
       </c>
       <c r="C27">
-        <f t="shared" si="5"/>
-        <v>566972010</v>
+        <f t="shared" si="7"/>
+        <v>2180277990</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="6"/>
-        <v>5399.7</v>
+        <f t="shared" si="8"/>
+        <v>24630.3</v>
       </c>
       <c r="E27" s="2"/>
       <c r="J27" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K27">
         <v>9900</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>821.1</v>
       </c>
       <c r="M27">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N27">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1943,33 +1943,33 @@
         <v>24</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="4"/>
-        <v>62669.599999999999</v>
+        <f t="shared" si="6"/>
+        <v>244860.4</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="5"/>
-        <v>620429040</v>
+        <f t="shared" si="7"/>
+        <v>2424117960</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="6"/>
-        <v>5908.8</v>
-      </c>
-      <c r="J28" s="5">
-        <v>100000</v>
+        <f t="shared" si="8"/>
+        <v>27385</v>
+      </c>
+      <c r="J28" s="1">
+        <v>84000</v>
       </c>
       <c r="K28" s="4">
         <v>9900</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="2"/>
-        <v>197</v>
-      </c>
-      <c r="M28" s="4">
-        <v>5000</v>
+        <v>912.9</v>
+      </c>
+      <c r="M28">
+        <v>4520</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1977,34 +1977,34 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="4"/>
-        <v>68578.399999999994</v>
+        <f t="shared" si="6"/>
+        <v>272245.40000000002</v>
       </c>
       <c r="C29">
-        <f t="shared" si="5"/>
-        <v>678926160</v>
+        <f t="shared" si="7"/>
+        <v>2695229460</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="6"/>
-        <v>6466</v>
+        <f t="shared" si="8"/>
+        <v>30447.7</v>
       </c>
       <c r="E29" s="2"/>
       <c r="J29" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K29">
         <v>9900</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>215.6</v>
+        <v>1015</v>
       </c>
       <c r="M29">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N29">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2012,34 +2012,34 @@
         <v>26</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="4"/>
-        <v>75044.399999999994</v>
+        <f t="shared" si="6"/>
+        <v>302693.09999999998</v>
       </c>
       <c r="C30">
-        <f t="shared" si="5"/>
-        <v>742939560</v>
+        <f t="shared" si="7"/>
+        <v>2996661690</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="6"/>
-        <v>7075.6</v>
+        <f t="shared" si="8"/>
+        <v>33852.9</v>
       </c>
       <c r="E30" s="2"/>
       <c r="J30" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K30">
         <v>9900</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>235.9</v>
+        <v>1128.5</v>
       </c>
       <c r="M30">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N30">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2047,34 +2047,34 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="4"/>
-        <v>82120</v>
+        <f t="shared" si="6"/>
+        <v>336546</v>
       </c>
       <c r="C31">
-        <f t="shared" si="5"/>
-        <v>812988000</v>
+        <f t="shared" si="7"/>
+        <v>3331805400</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="6"/>
-        <v>7742.7</v>
+        <f t="shared" si="8"/>
+        <v>37639</v>
       </c>
       <c r="E31" s="2"/>
       <c r="J31" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K31">
         <v>9900</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>258.10000000000002</v>
+        <v>1254.6999999999998</v>
       </c>
       <c r="M31">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N31">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2082,34 +2082,34 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="4"/>
-        <v>89862.7</v>
+        <f t="shared" si="6"/>
+        <v>374185</v>
       </c>
       <c r="C32">
-        <f t="shared" si="5"/>
-        <v>889640730</v>
+        <f t="shared" si="7"/>
+        <v>3704431500</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="6"/>
-        <v>8472.7999999999993</v>
+        <f t="shared" si="8"/>
+        <v>41848.5</v>
       </c>
       <c r="E32" s="2"/>
       <c r="J32" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K32">
         <v>9900</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>282.5</v>
+        <v>1395</v>
       </c>
       <c r="M32">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N32">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2117,34 +2117,34 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="4"/>
-        <v>98335.5</v>
+        <f t="shared" si="6"/>
+        <v>416033.5</v>
       </c>
       <c r="C33">
-        <f t="shared" si="5"/>
-        <v>973521450</v>
+        <f t="shared" si="7"/>
+        <v>4118731650</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="6"/>
-        <v>9271.6</v>
+        <f t="shared" si="8"/>
+        <v>46528.800000000003</v>
       </c>
       <c r="E33" s="2"/>
       <c r="J33" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K33">
         <v>9900</v>
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>309.10000000000002</v>
+        <v>1551</v>
       </c>
       <c r="M33">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N33">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2152,34 +2152,34 @@
         <v>30</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="4"/>
-        <v>107607.1</v>
+        <f t="shared" si="6"/>
+        <v>462562.3</v>
       </c>
       <c r="C34">
-        <f t="shared" si="5"/>
-        <v>1065310290</v>
+        <f t="shared" si="7"/>
+        <v>4579366770</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="6"/>
-        <v>10145.799999999999</v>
+        <f t="shared" si="8"/>
+        <v>51732.6</v>
       </c>
       <c r="E34" s="2"/>
       <c r="J34" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K34">
         <v>9900</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>338.20000000000005</v>
+        <v>1724.5</v>
       </c>
       <c r="M34">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N34">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2187,34 +2187,34 @@
         <v>31</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="4"/>
-        <v>117752.9</v>
+        <f t="shared" si="6"/>
+        <v>514294.9</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
-        <v>1165753710</v>
+        <f t="shared" si="7"/>
+        <v>5091519510</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="6"/>
-        <v>11102.4</v>
+        <f t="shared" si="8"/>
+        <v>57518.3</v>
       </c>
       <c r="E35" s="2"/>
       <c r="J35" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K35">
         <v>9900</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>370.1</v>
+        <v>1917.3</v>
       </c>
       <c r="M35">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N35">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2222,34 +2222,34 @@
         <v>32</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="4"/>
-        <v>128855.3</v>
+        <f t="shared" si="6"/>
+        <v>571813.19999999995</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
-        <v>1275667470</v>
+        <f t="shared" si="7"/>
+        <v>5660950680</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="6"/>
-        <v>12149.2</v>
+        <f t="shared" si="8"/>
+        <v>63951.1</v>
       </c>
       <c r="E36" s="2"/>
       <c r="J36" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K36">
         <v>9900</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:L67" si="12">ROUNDUP((F36+D36)/30,1)</f>
-        <v>405</v>
+        <f t="shared" ref="L36:L67" si="16">ROUNDUP((F36+D36)/30,1)</f>
+        <v>2131.7999999999997</v>
       </c>
       <c r="M36">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N36">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2257,34 +2257,34 @@
         <v>33</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" ref="B37:B68" si="13">ROUND(F36+B36+D36,1)</f>
-        <v>141004.5</v>
+        <f t="shared" ref="B37:B68" si="17">ROUND(F36+B36+D36,1)</f>
+        <v>635764.30000000005</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:C68" si="14">B37*K36</f>
-        <v>1395944550</v>
+        <f t="shared" ref="C37:C68" si="18">B37*K36</f>
+        <v>6294066570</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" ref="D37:D68" si="15">ROUND((C37+E37)/(M37+J37),1)</f>
-        <v>13294.7</v>
+        <f t="shared" ref="D37:D68" si="19">ROUND((C37+E37)/(M37+J37),1)</f>
+        <v>71103.3</v>
       </c>
       <c r="E37" s="2"/>
       <c r="J37" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K37">
         <v>9900</v>
       </c>
       <c r="L37">
-        <f t="shared" si="12"/>
-        <v>443.20000000000005</v>
+        <f t="shared" si="16"/>
+        <v>2370.1999999999998</v>
       </c>
       <c r="M37">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N37">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2292,34 +2292,34 @@
         <v>34</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="13"/>
-        <v>154299.20000000001</v>
+        <f t="shared" si="17"/>
+        <v>706867.6</v>
       </c>
       <c r="C38">
-        <f t="shared" si="14"/>
-        <v>1527562080</v>
+        <f t="shared" si="18"/>
+        <v>6997989240</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="15"/>
-        <v>14548.2</v>
+        <f t="shared" si="19"/>
+        <v>79055.5</v>
       </c>
       <c r="E38" s="2"/>
       <c r="J38" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K38">
         <v>9900</v>
       </c>
       <c r="L38">
-        <f t="shared" si="12"/>
-        <v>485</v>
+        <f t="shared" si="16"/>
+        <v>2635.2</v>
       </c>
       <c r="M38">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N38">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2327,34 +2327,34 @@
         <v>35</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="13"/>
-        <v>168847.4</v>
+        <f t="shared" si="17"/>
+        <v>785923.1</v>
       </c>
       <c r="C39">
-        <f t="shared" si="14"/>
-        <v>1671589260</v>
+        <f t="shared" si="18"/>
+        <v>7780638690</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="15"/>
-        <v>15919.9</v>
+        <f t="shared" si="19"/>
+        <v>87897</v>
       </c>
       <c r="E39" s="2"/>
       <c r="J39" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K39">
         <v>9900</v>
       </c>
       <c r="L39">
-        <f t="shared" si="12"/>
-        <v>530.70000000000005</v>
+        <f t="shared" si="16"/>
+        <v>2929.9</v>
       </c>
       <c r="M39">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N39">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2362,33 +2362,33 @@
         <v>36</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="13"/>
-        <v>184767.3</v>
+        <f t="shared" si="17"/>
+        <v>873820.1</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="14"/>
-        <v>1829196270</v>
+        <f t="shared" si="18"/>
+        <v>8650818990</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="15"/>
-        <v>17420.900000000001</v>
-      </c>
-      <c r="J40" s="5">
-        <v>100000</v>
+        <f t="shared" si="19"/>
+        <v>97727.3</v>
+      </c>
+      <c r="J40" s="1">
+        <v>84000</v>
       </c>
       <c r="K40" s="4">
         <v>9900</v>
       </c>
       <c r="L40" s="4">
-        <f t="shared" si="12"/>
-        <v>580.70000000000005</v>
-      </c>
-      <c r="M40" s="4">
-        <v>5000</v>
+        <f t="shared" si="16"/>
+        <v>3257.6</v>
+      </c>
+      <c r="M40">
+        <v>4520</v>
       </c>
       <c r="N40" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -2396,34 +2396,34 @@
         <v>37</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="13"/>
-        <v>202188.2</v>
+        <f t="shared" si="17"/>
+        <v>971547.4</v>
       </c>
       <c r="C41">
-        <f t="shared" si="14"/>
-        <v>2001663180</v>
+        <f t="shared" si="18"/>
+        <v>9618319260</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="15"/>
-        <v>19063.5</v>
+        <f t="shared" si="19"/>
+        <v>108657</v>
       </c>
       <c r="E41" s="2"/>
       <c r="J41" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K41">
         <v>9900</v>
       </c>
       <c r="L41">
-        <f t="shared" si="12"/>
-        <v>635.5</v>
+        <f t="shared" si="16"/>
+        <v>3621.9</v>
       </c>
       <c r="M41">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N41">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2431,34 +2431,34 @@
         <v>38</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="13"/>
-        <v>221251.7</v>
+        <f t="shared" si="17"/>
+        <v>1080204.3999999999</v>
       </c>
       <c r="C42">
-        <f t="shared" si="14"/>
-        <v>2190391830</v>
+        <f t="shared" si="18"/>
+        <v>10694023560</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="15"/>
-        <v>20860.900000000001</v>
+        <f t="shared" si="19"/>
+        <v>120809.1</v>
       </c>
       <c r="E42" s="2"/>
       <c r="J42" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K42">
         <v>9900</v>
       </c>
       <c r="L42">
-        <f t="shared" si="12"/>
-        <v>695.4</v>
+        <f t="shared" si="16"/>
+        <v>4027</v>
       </c>
       <c r="M42">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N42">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2466,34 +2466,34 @@
         <v>39</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="13"/>
-        <v>242112.6</v>
+        <f t="shared" si="17"/>
+        <v>1201013.5</v>
       </c>
       <c r="C43">
-        <f t="shared" si="14"/>
-        <v>2396914740</v>
+        <f t="shared" si="18"/>
+        <v>11890033650</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="15"/>
-        <v>22827.8</v>
+        <f t="shared" si="19"/>
+        <v>134320.29999999999</v>
       </c>
       <c r="E43" s="2"/>
       <c r="J43" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K43">
         <v>9900</v>
       </c>
       <c r="L43">
-        <f t="shared" si="12"/>
-        <v>761</v>
+        <f t="shared" si="16"/>
+        <v>4477.4000000000005</v>
       </c>
       <c r="M43">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N43">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2501,34 +2501,34 @@
         <v>40</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="13"/>
-        <v>264940.40000000002</v>
+        <f t="shared" si="17"/>
+        <v>1335333.8</v>
       </c>
       <c r="C44">
-        <f t="shared" si="14"/>
-        <v>2622909960</v>
+        <f t="shared" si="18"/>
+        <v>13219804620</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="15"/>
-        <v>24980.1</v>
+        <f t="shared" si="19"/>
+        <v>149342.6</v>
       </c>
       <c r="E44" s="2"/>
       <c r="J44" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K44">
         <v>9900</v>
       </c>
       <c r="L44">
-        <f t="shared" si="12"/>
-        <v>832.7</v>
+        <f t="shared" si="16"/>
+        <v>4978.1000000000004</v>
       </c>
       <c r="M44">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N44">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2536,34 +2536,34 @@
         <v>41</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="13"/>
-        <v>289920.5</v>
+        <f t="shared" si="17"/>
+        <v>1484676.4</v>
       </c>
       <c r="C45">
-        <f t="shared" si="14"/>
-        <v>2870212950</v>
+        <f t="shared" si="18"/>
+        <v>14698296360</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="15"/>
-        <v>27335.4</v>
+        <f t="shared" si="19"/>
+        <v>166044.9</v>
       </c>
       <c r="E45" s="2"/>
       <c r="J45" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K45">
         <v>9900</v>
       </c>
       <c r="L45">
-        <f t="shared" si="12"/>
-        <v>911.2</v>
+        <f t="shared" si="16"/>
+        <v>5534.9000000000005</v>
       </c>
       <c r="M45">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N45">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2571,34 +2571,34 @@
         <v>42</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="13"/>
-        <v>317255.90000000002</v>
+        <f t="shared" si="17"/>
+        <v>1650721.3</v>
       </c>
       <c r="C46">
-        <f t="shared" si="14"/>
-        <v>3140833410</v>
+        <f t="shared" si="18"/>
+        <v>16342140870</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="15"/>
-        <v>29912.7</v>
+        <f t="shared" si="19"/>
+        <v>184615.2</v>
       </c>
       <c r="E46" s="2"/>
       <c r="J46" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K46">
         <v>9900</v>
       </c>
       <c r="L46">
-        <f t="shared" si="12"/>
-        <v>997.1</v>
+        <f t="shared" si="16"/>
+        <v>6153.9000000000005</v>
       </c>
       <c r="M46">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N46">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -2606,34 +2606,34 @@
         <v>43</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="13"/>
-        <v>347168.6</v>
+        <f t="shared" si="17"/>
+        <v>1835336.5</v>
       </c>
       <c r="C47">
-        <f t="shared" si="14"/>
-        <v>3436969140</v>
+        <f t="shared" si="18"/>
+        <v>18169831350</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="15"/>
-        <v>32733</v>
+        <f t="shared" si="19"/>
+        <v>205262.4</v>
       </c>
       <c r="E47" s="2"/>
       <c r="J47" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K47">
         <v>9900</v>
       </c>
       <c r="L47">
-        <f t="shared" si="12"/>
-        <v>1091.0999999999999</v>
+        <f t="shared" si="16"/>
+        <v>6842.1</v>
       </c>
       <c r="M47">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N47">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2641,34 +2641,34 @@
         <v>44</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="13"/>
-        <v>379901.6</v>
+        <f t="shared" si="17"/>
+        <v>2040598.9</v>
       </c>
       <c r="C48">
-        <f t="shared" si="14"/>
-        <v>3761025840</v>
+        <f t="shared" si="18"/>
+        <v>20201929110</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="15"/>
-        <v>35819.300000000003</v>
+        <f t="shared" si="19"/>
+        <v>228218.8</v>
       </c>
       <c r="E48" s="2"/>
       <c r="J48" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K48">
         <v>9900</v>
       </c>
       <c r="L48">
-        <f t="shared" si="12"/>
-        <v>1194</v>
+        <f t="shared" si="16"/>
+        <v>7607.3</v>
       </c>
       <c r="M48">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N48">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2676,34 +2676,34 @@
         <v>45</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="13"/>
-        <v>415720.9</v>
+        <f t="shared" si="17"/>
+        <v>2268817.7000000002</v>
       </c>
       <c r="C49">
-        <f t="shared" si="14"/>
-        <v>4115636910</v>
+        <f t="shared" si="18"/>
+        <v>22461295230</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="15"/>
-        <v>39196.5</v>
+        <f t="shared" si="19"/>
+        <v>253742.6</v>
       </c>
       <c r="E49" s="2"/>
       <c r="J49" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K49">
         <v>9900</v>
       </c>
       <c r="L49">
-        <f t="shared" si="12"/>
-        <v>1306.5999999999999</v>
+        <f t="shared" si="16"/>
+        <v>8458.1</v>
       </c>
       <c r="M49">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N49">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2711,34 +2711,34 @@
         <v>46</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" si="13"/>
-        <v>454917.4</v>
+        <f t="shared" si="17"/>
+        <v>2522560.2999999998</v>
       </c>
       <c r="C50">
-        <f t="shared" si="14"/>
-        <v>4503682260</v>
+        <f t="shared" si="18"/>
+        <v>24973346970</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="15"/>
-        <v>42892.2</v>
+        <f t="shared" si="19"/>
+        <v>282121</v>
       </c>
       <c r="E50" s="2"/>
       <c r="J50" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K50">
         <v>9900</v>
       </c>
       <c r="L50">
-        <f t="shared" si="12"/>
-        <v>1429.8</v>
+        <f t="shared" si="16"/>
+        <v>9404.1</v>
       </c>
       <c r="M50">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N50">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -2746,34 +2746,34 @@
         <v>47</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" si="13"/>
-        <v>497809.6</v>
+        <f t="shared" si="17"/>
+        <v>2804681.3</v>
       </c>
       <c r="C51">
-        <f t="shared" si="14"/>
-        <v>4928315040</v>
+        <f t="shared" si="18"/>
+        <v>27766344870</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="15"/>
-        <v>46936.3</v>
+        <f t="shared" si="19"/>
+        <v>313673.09999999998</v>
       </c>
       <c r="E51" s="2"/>
       <c r="J51" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K51">
         <v>9900</v>
       </c>
       <c r="L51">
-        <f t="shared" si="12"/>
-        <v>1564.6</v>
+        <f t="shared" si="16"/>
+        <v>10455.800000000001</v>
       </c>
       <c r="M51">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N51">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2781,465 +2781,465 @@
         <v>48</v>
       </c>
       <c r="B52" s="4">
-        <f t="shared" si="13"/>
-        <v>544745.9</v>
+        <f t="shared" si="17"/>
+        <v>3118354.4</v>
       </c>
       <c r="C52" s="4">
-        <f t="shared" si="14"/>
-        <v>5392984410</v>
+        <f t="shared" si="18"/>
+        <v>30871708560</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="15"/>
-        <v>51361.8</v>
-      </c>
-      <c r="J52" s="5">
-        <v>100000</v>
+        <f t="shared" si="19"/>
+        <v>348754.1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>84000</v>
       </c>
       <c r="K52" s="4">
         <v>9900</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="12"/>
-        <v>1712.1</v>
-      </c>
-      <c r="M52" s="4">
-        <v>5000</v>
+        <f t="shared" si="16"/>
+        <v>11625.2</v>
+      </c>
+      <c r="M52">
+        <v>4520</v>
       </c>
       <c r="N52" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>49</v>
       </c>
-      <c r="B53" s="6">
-        <f t="shared" si="13"/>
-        <v>596107.69999999995</v>
-      </c>
-      <c r="C53" s="6">
-        <f t="shared" si="14"/>
-        <v>5901466230</v>
-      </c>
-      <c r="D53" s="6">
-        <f t="shared" si="15"/>
-        <v>56204.4</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="7">
-        <v>100000</v>
-      </c>
-      <c r="K53" s="6">
-        <v>9900</v>
-      </c>
-      <c r="L53" s="6">
-        <f t="shared" si="12"/>
-        <v>1873.5</v>
-      </c>
-      <c r="M53" s="6">
-        <v>5000</v>
-      </c>
-      <c r="N53" s="6">
-        <f t="shared" si="3"/>
-        <v>47</v>
+      <c r="B53" s="5">
+        <f t="shared" si="17"/>
+        <v>3467108.5</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="18"/>
+        <v>34324374150</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="19"/>
+        <v>387758.4</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K53" s="5">
+        <v>9900</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" si="16"/>
+        <v>12925.300000000001</v>
+      </c>
+      <c r="M53">
+        <v>4520</v>
+      </c>
+      <c r="N53" s="5">
+        <f t="shared" si="3"/>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>50</v>
       </c>
-      <c r="B54" s="6">
-        <f t="shared" si="13"/>
-        <v>652312.1</v>
-      </c>
-      <c r="C54" s="6">
-        <f t="shared" si="14"/>
-        <v>6457889790</v>
-      </c>
-      <c r="D54" s="6">
-        <f t="shared" si="15"/>
-        <v>61503.7</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="7">
-        <v>100000</v>
-      </c>
-      <c r="K54" s="6">
-        <v>9900</v>
-      </c>
-      <c r="L54" s="6">
-        <f t="shared" si="12"/>
-        <v>2050.1999999999998</v>
-      </c>
-      <c r="M54" s="6">
-        <v>5000</v>
-      </c>
-      <c r="N54" s="6">
-        <f t="shared" si="3"/>
-        <v>52</v>
+      <c r="B54" s="5">
+        <f t="shared" si="17"/>
+        <v>3854866.9</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="18"/>
+        <v>38163182310</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="19"/>
+        <v>431125</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K54" s="5">
+        <v>9900</v>
+      </c>
+      <c r="L54" s="5">
+        <f t="shared" si="16"/>
+        <v>14370.9</v>
+      </c>
+      <c r="M54">
+        <v>4520</v>
+      </c>
+      <c r="N54" s="5">
+        <f t="shared" si="3"/>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>51</v>
       </c>
-      <c r="B55" s="6">
-        <f t="shared" si="13"/>
-        <v>713815.8</v>
-      </c>
-      <c r="C55" s="6">
-        <f t="shared" si="14"/>
-        <v>7066776420</v>
-      </c>
-      <c r="D55" s="6">
-        <f t="shared" si="15"/>
-        <v>67302.600000000006</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="7">
-        <v>100000</v>
-      </c>
-      <c r="K55" s="6">
-        <v>9900</v>
-      </c>
-      <c r="L55" s="6">
-        <f t="shared" si="12"/>
-        <v>2243.5</v>
-      </c>
-      <c r="M55" s="6">
-        <v>5000</v>
-      </c>
-      <c r="N55" s="6">
-        <f t="shared" si="3"/>
-        <v>57</v>
+      <c r="B55" s="5">
+        <f t="shared" si="17"/>
+        <v>4285991.9000000004</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="18"/>
+        <v>42431319810</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="19"/>
+        <v>479341.6</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K55" s="5">
+        <v>9900</v>
+      </c>
+      <c r="L55" s="5">
+        <f t="shared" si="16"/>
+        <v>15978.1</v>
+      </c>
+      <c r="M55">
+        <v>4520</v>
+      </c>
+      <c r="N55" s="5">
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="P55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>52</v>
       </c>
-      <c r="B56" s="6">
-        <f t="shared" si="13"/>
-        <v>781118.4</v>
-      </c>
-      <c r="C56" s="6">
-        <f t="shared" si="14"/>
-        <v>7733072160</v>
-      </c>
-      <c r="D56" s="6">
-        <f t="shared" si="15"/>
-        <v>73648.3</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="7">
-        <v>100000</v>
-      </c>
-      <c r="K56" s="6">
-        <v>9900</v>
-      </c>
-      <c r="L56" s="6">
-        <f t="shared" si="12"/>
-        <v>2455</v>
-      </c>
-      <c r="M56" s="6">
-        <v>5000</v>
-      </c>
-      <c r="N56" s="6">
-        <f t="shared" si="3"/>
-        <v>62</v>
+      <c r="B56" s="5">
+        <f t="shared" si="17"/>
+        <v>4765333.5</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="18"/>
+        <v>47176801650</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="19"/>
+        <v>532950.80000000005</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K56" s="5">
+        <v>9900</v>
+      </c>
+      <c r="L56" s="5">
+        <f t="shared" si="16"/>
+        <v>17765.099999999999</v>
+      </c>
+      <c r="M56">
+        <v>4520</v>
+      </c>
+      <c r="N56" s="5">
+        <f t="shared" si="3"/>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>53</v>
       </c>
-      <c r="B57" s="6">
-        <f t="shared" si="13"/>
-        <v>854766.7</v>
-      </c>
-      <c r="C57" s="6">
-        <f t="shared" si="14"/>
-        <v>8462190330</v>
-      </c>
-      <c r="D57" s="6">
-        <f t="shared" si="15"/>
-        <v>80592.3</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="7">
-        <v>100000</v>
-      </c>
-      <c r="K57" s="6">
-        <v>9900</v>
-      </c>
-      <c r="L57" s="6">
-        <f t="shared" si="12"/>
-        <v>2686.5</v>
-      </c>
-      <c r="M57" s="6">
-        <v>5000</v>
-      </c>
-      <c r="N57" s="6">
-        <f t="shared" si="3"/>
-        <v>68</v>
+      <c r="B57" s="5">
+        <f t="shared" si="17"/>
+        <v>5298284.3</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="18"/>
+        <v>52453014570</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="19"/>
+        <v>592555.5</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K57" s="5">
+        <v>9900</v>
+      </c>
+      <c r="L57" s="5">
+        <f t="shared" si="16"/>
+        <v>19751.899999999998</v>
+      </c>
+      <c r="M57">
+        <v>4520</v>
+      </c>
+      <c r="N57" s="5">
+        <f t="shared" si="3"/>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>54</v>
       </c>
-      <c r="B58" s="6">
-        <f t="shared" si="13"/>
-        <v>935359</v>
-      </c>
-      <c r="C58" s="6">
-        <f t="shared" si="14"/>
-        <v>9260054100</v>
-      </c>
-      <c r="D58" s="6">
-        <f t="shared" si="15"/>
-        <v>88191</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="7">
-        <v>100000</v>
-      </c>
-      <c r="K58" s="6">
-        <v>9900</v>
-      </c>
-      <c r="L58" s="6">
-        <f t="shared" si="12"/>
-        <v>2939.7</v>
-      </c>
-      <c r="M58" s="6">
-        <v>5000</v>
-      </c>
-      <c r="N58" s="6">
-        <f t="shared" si="3"/>
-        <v>74</v>
+      <c r="B58" s="5">
+        <f t="shared" si="17"/>
+        <v>5890839.7999999998</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="18"/>
+        <v>58319314020</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="19"/>
+        <v>658826.4</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K58" s="5">
+        <v>9900</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="shared" si="16"/>
+        <v>21960.899999999998</v>
+      </c>
+      <c r="M58">
+        <v>4520</v>
+      </c>
+      <c r="N58" s="5">
+        <f t="shared" si="3"/>
+        <v>550</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>55</v>
       </c>
-      <c r="B59" s="6">
-        <f t="shared" si="13"/>
-        <v>1023550</v>
-      </c>
-      <c r="C59" s="6">
-        <f t="shared" si="14"/>
-        <v>10133145000</v>
-      </c>
-      <c r="D59" s="6">
-        <f t="shared" si="15"/>
-        <v>96506.1</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="7">
-        <v>100000</v>
-      </c>
-      <c r="K59" s="6">
-        <v>9900</v>
-      </c>
-      <c r="L59" s="6">
-        <f t="shared" si="12"/>
-        <v>3216.9</v>
-      </c>
-      <c r="M59" s="6">
-        <v>5000</v>
-      </c>
-      <c r="N59" s="6">
-        <f t="shared" si="3"/>
-        <v>81</v>
+      <c r="B59" s="5">
+        <f t="shared" si="17"/>
+        <v>6549666.2000000002</v>
+      </c>
+      <c r="C59" s="5">
+        <f t="shared" si="18"/>
+        <v>64841695380</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="19"/>
+        <v>732509</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K59" s="5">
+        <v>9900</v>
+      </c>
+      <c r="L59" s="5">
+        <f t="shared" si="16"/>
+        <v>24417</v>
+      </c>
+      <c r="M59">
+        <v>4520</v>
+      </c>
+      <c r="N59" s="5">
+        <f t="shared" si="3"/>
+        <v>611</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>56</v>
       </c>
-      <c r="B60" s="6">
-        <f t="shared" si="13"/>
-        <v>1120056.1000000001</v>
-      </c>
-      <c r="C60" s="6">
-        <f t="shared" si="14"/>
-        <v>11088555390</v>
-      </c>
-      <c r="D60" s="6">
-        <f t="shared" si="15"/>
-        <v>105605.3</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="7">
-        <v>100000</v>
-      </c>
-      <c r="K60" s="6">
-        <v>9900</v>
-      </c>
-      <c r="L60" s="6">
-        <f t="shared" si="12"/>
-        <v>3520.2</v>
-      </c>
-      <c r="M60" s="6">
-        <v>5000</v>
-      </c>
-      <c r="N60" s="6">
-        <f t="shared" si="3"/>
-        <v>89</v>
+      <c r="B60" s="5">
+        <f t="shared" si="17"/>
+        <v>7282175.2000000002</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" si="18"/>
+        <v>72093534480</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="19"/>
+        <v>814432.2</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K60" s="5">
+        <v>9900</v>
+      </c>
+      <c r="L60" s="5">
+        <f t="shared" si="16"/>
+        <v>27147.8</v>
+      </c>
+      <c r="M60">
+        <v>4520</v>
+      </c>
+      <c r="N60" s="5">
+        <f t="shared" si="3"/>
+        <v>679</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>57</v>
       </c>
-      <c r="B61" s="6">
-        <f t="shared" si="13"/>
-        <v>1225661.3999999999</v>
-      </c>
-      <c r="C61" s="6">
-        <f t="shared" si="14"/>
-        <v>12134047860</v>
-      </c>
-      <c r="D61" s="6">
-        <f t="shared" si="15"/>
-        <v>115562.4</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="7">
-        <v>100000</v>
-      </c>
-      <c r="K61" s="6">
-        <v>9900</v>
-      </c>
-      <c r="L61" s="6">
-        <f t="shared" si="12"/>
-        <v>3852.1</v>
-      </c>
-      <c r="M61" s="6">
-        <v>5000</v>
-      </c>
-      <c r="N61" s="6">
-        <f t="shared" si="3"/>
-        <v>97</v>
+      <c r="B61" s="5">
+        <f t="shared" si="17"/>
+        <v>8096607.4000000004</v>
+      </c>
+      <c r="C61" s="5">
+        <f t="shared" si="18"/>
+        <v>80156413260</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="19"/>
+        <v>905517.5</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K61" s="5">
+        <v>9900</v>
+      </c>
+      <c r="L61" s="5">
+        <f t="shared" si="16"/>
+        <v>30184</v>
+      </c>
+      <c r="M61">
+        <v>4520</v>
+      </c>
+      <c r="N61" s="5">
+        <f t="shared" si="3"/>
+        <v>755</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>58</v>
       </c>
-      <c r="B62" s="6">
-        <f t="shared" si="13"/>
-        <v>1341223.8</v>
-      </c>
-      <c r="C62" s="6">
-        <f t="shared" si="14"/>
-        <v>13278115620</v>
-      </c>
-      <c r="D62" s="6">
-        <f t="shared" si="15"/>
-        <v>126458.2</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="7">
-        <v>100000</v>
-      </c>
-      <c r="K62" s="6">
-        <v>9900</v>
-      </c>
-      <c r="L62" s="6">
-        <f t="shared" si="12"/>
-        <v>4215.3</v>
-      </c>
-      <c r="M62" s="6">
-        <v>5000</v>
-      </c>
-      <c r="N62" s="6">
-        <f t="shared" si="3"/>
-        <v>106</v>
+      <c r="B62" s="5">
+        <f t="shared" si="17"/>
+        <v>9002124.9000000004</v>
+      </c>
+      <c r="C62" s="5">
+        <f t="shared" si="18"/>
+        <v>89121036510</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="19"/>
+        <v>1006789.8</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K62" s="5">
+        <v>9900</v>
+      </c>
+      <c r="L62" s="5">
+        <f t="shared" si="16"/>
+        <v>33559.699999999997</v>
+      </c>
+      <c r="M62">
+        <v>4520</v>
+      </c>
+      <c r="N62" s="5">
+        <f t="shared" si="3"/>
+        <v>839</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>59</v>
       </c>
-      <c r="B63" s="6">
-        <f t="shared" si="13"/>
-        <v>1467682</v>
-      </c>
-      <c r="C63" s="6">
-        <f t="shared" si="14"/>
-        <v>14530051800</v>
-      </c>
-      <c r="D63" s="6">
-        <f t="shared" si="15"/>
-        <v>138381.4</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="7">
-        <v>100000</v>
-      </c>
-      <c r="K63" s="6">
-        <v>9900</v>
-      </c>
-      <c r="L63" s="6">
-        <f t="shared" si="12"/>
-        <v>4612.8</v>
-      </c>
-      <c r="M63" s="6">
-        <v>5000</v>
-      </c>
-      <c r="N63" s="6">
-        <f t="shared" si="3"/>
-        <v>116</v>
+      <c r="B63" s="5">
+        <f t="shared" si="17"/>
+        <v>10008914.699999999</v>
+      </c>
+      <c r="C63" s="5">
+        <f t="shared" si="18"/>
+        <v>99088255530</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="19"/>
+        <v>1119388.3</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K63" s="5">
+        <v>9900</v>
+      </c>
+      <c r="L63" s="5">
+        <f t="shared" si="16"/>
+        <v>37313</v>
+      </c>
+      <c r="M63">
+        <v>4520</v>
+      </c>
+      <c r="N63" s="5">
+        <f t="shared" si="3"/>
+        <v>933</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3247,465 +3247,465 @@
         <v>60</v>
       </c>
       <c r="B64" s="4">
-        <f t="shared" si="13"/>
-        <v>1606063.4</v>
+        <f t="shared" si="17"/>
+        <v>11128303</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="14"/>
-        <v>15900027660</v>
+        <f t="shared" si="18"/>
+        <v>110170199700</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="15"/>
-        <v>151428.79999999999</v>
-      </c>
-      <c r="J64" s="5">
-        <v>100000</v>
+        <f t="shared" si="19"/>
+        <v>1244579.8</v>
+      </c>
+      <c r="J64" s="1">
+        <v>84000</v>
       </c>
       <c r="K64" s="4">
         <v>9900</v>
       </c>
       <c r="L64" s="4">
-        <f t="shared" si="12"/>
-        <v>5047.7000000000007</v>
-      </c>
-      <c r="M64" s="4">
-        <v>5000</v>
+        <f t="shared" si="16"/>
+        <v>41486</v>
+      </c>
+      <c r="M64">
+        <v>4520</v>
       </c>
       <c r="N64" s="4">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="6">
         <v>61</v>
       </c>
-      <c r="B65" s="8">
-        <f t="shared" si="13"/>
-        <v>1757492.2</v>
-      </c>
-      <c r="C65" s="8">
-        <f t="shared" si="14"/>
-        <v>17399172780</v>
-      </c>
-      <c r="D65" s="8">
-        <f t="shared" si="15"/>
-        <v>165706.4</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="9">
-        <v>100000</v>
-      </c>
-      <c r="K65" s="8">
-        <v>9900</v>
-      </c>
-      <c r="L65" s="8">
-        <f t="shared" si="12"/>
-        <v>5523.6</v>
-      </c>
-      <c r="M65" s="8">
-        <v>5000</v>
-      </c>
-      <c r="N65" s="8">
-        <f t="shared" si="3"/>
-        <v>139</v>
+      <c r="B65" s="6">
+        <f t="shared" si="17"/>
+        <v>12372882.800000001</v>
+      </c>
+      <c r="C65" s="6">
+        <f t="shared" si="18"/>
+        <v>122491539720</v>
+      </c>
+      <c r="D65" s="6">
+        <f t="shared" si="19"/>
+        <v>1383772.5</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K65" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L65" s="6">
+        <f t="shared" si="16"/>
+        <v>46125.799999999996</v>
+      </c>
+      <c r="M65">
+        <v>4520</v>
+      </c>
+      <c r="N65" s="6">
+        <f t="shared" si="3"/>
+        <v>1154</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="A66" s="6">
         <v>62</v>
       </c>
-      <c r="B66" s="8">
-        <f t="shared" si="13"/>
-        <v>1923198.6</v>
-      </c>
-      <c r="C66" s="8">
-        <f t="shared" si="14"/>
-        <v>19039666140</v>
-      </c>
-      <c r="D66" s="8">
-        <f t="shared" si="15"/>
-        <v>181330.2</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="9">
-        <v>100000</v>
-      </c>
-      <c r="K66" s="8">
-        <v>9900</v>
-      </c>
-      <c r="L66" s="8">
-        <f t="shared" si="12"/>
-        <v>6044.4000000000005</v>
-      </c>
-      <c r="M66" s="8">
-        <v>5000</v>
-      </c>
-      <c r="N66" s="8">
-        <f t="shared" si="3"/>
-        <v>152</v>
+      <c r="B66" s="6">
+        <f t="shared" si="17"/>
+        <v>13756655.300000001</v>
+      </c>
+      <c r="C66" s="6">
+        <f t="shared" si="18"/>
+        <v>136190887470</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" si="19"/>
+        <v>1538532.4</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K66" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L66" s="6">
+        <f t="shared" si="16"/>
+        <v>51284.5</v>
+      </c>
+      <c r="M66">
+        <v>4520</v>
+      </c>
+      <c r="N66" s="6">
+        <f t="shared" si="3"/>
+        <v>1283</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+      <c r="A67" s="6">
         <v>63</v>
       </c>
-      <c r="B67" s="8">
-        <f t="shared" si="13"/>
-        <v>2104528.7999999998</v>
-      </c>
-      <c r="C67" s="8">
-        <f t="shared" si="14"/>
-        <v>20834835120</v>
-      </c>
-      <c r="D67" s="8">
-        <f t="shared" si="15"/>
-        <v>198427</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="9">
-        <v>100000</v>
-      </c>
-      <c r="K67" s="8">
-        <v>9900</v>
-      </c>
-      <c r="L67" s="8">
-        <f t="shared" si="12"/>
-        <v>6614.3</v>
-      </c>
-      <c r="M67" s="8">
-        <v>5000</v>
-      </c>
-      <c r="N67" s="8">
-        <f t="shared" si="3"/>
-        <v>166</v>
+      <c r="B67" s="6">
+        <f t="shared" si="17"/>
+        <v>15295187.699999999</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" si="18"/>
+        <v>151422358230</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="19"/>
+        <v>1710600.5</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K67" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L67" s="6">
+        <f t="shared" si="16"/>
+        <v>57020.1</v>
+      </c>
+      <c r="M67">
+        <v>4520</v>
+      </c>
+      <c r="N67" s="6">
+        <f t="shared" si="3"/>
+        <v>1426</v>
       </c>
       <c r="P67" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+      <c r="A68" s="6">
         <v>64</v>
       </c>
-      <c r="B68" s="8">
-        <f t="shared" si="13"/>
-        <v>2302955.7999999998</v>
-      </c>
-      <c r="C68" s="8">
-        <f t="shared" si="14"/>
-        <v>22799262420</v>
-      </c>
-      <c r="D68" s="8">
-        <f t="shared" si="15"/>
-        <v>217135.8</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="9">
-        <v>100000</v>
-      </c>
-      <c r="K68" s="8">
-        <v>9900</v>
-      </c>
-      <c r="L68" s="8">
-        <f t="shared" ref="L68:L99" si="16">ROUNDUP((F68+D68)/30,1)</f>
-        <v>7237.9000000000005</v>
-      </c>
-      <c r="M68" s="8">
-        <v>5000</v>
-      </c>
-      <c r="N68" s="8">
-        <f t="shared" si="3"/>
-        <v>181</v>
+      <c r="B68" s="6">
+        <f t="shared" si="17"/>
+        <v>17005788.199999999</v>
+      </c>
+      <c r="C68" s="6">
+        <f t="shared" si="18"/>
+        <v>168357303180</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="19"/>
+        <v>1901912.6</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K68" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L68" s="6">
+        <f t="shared" ref="L68:L99" si="20">ROUNDUP((F68+D68)/30,1)</f>
+        <v>63397.1</v>
+      </c>
+      <c r="M68">
+        <v>4520</v>
+      </c>
+      <c r="N68" s="6">
+        <f t="shared" si="3"/>
+        <v>1585</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="A69" s="6">
         <v>65</v>
       </c>
-      <c r="B69" s="8">
-        <f t="shared" ref="B69:B100" si="17">ROUND(F68+B68+D68,1)</f>
-        <v>2520091.6</v>
-      </c>
-      <c r="C69" s="8">
-        <f t="shared" ref="C69:C100" si="18">B69*K68</f>
-        <v>24948906840</v>
-      </c>
-      <c r="D69" s="8">
-        <f t="shared" ref="D69:D100" si="19">ROUND((C69+E69)/(M69+J69),1)</f>
-        <v>237608.6</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="9">
-        <v>100000</v>
-      </c>
-      <c r="K69" s="8">
-        <v>9900</v>
-      </c>
-      <c r="L69" s="8">
-        <f t="shared" si="16"/>
-        <v>7920.3</v>
-      </c>
-      <c r="M69" s="8">
-        <v>5000</v>
-      </c>
-      <c r="N69" s="8">
-        <f t="shared" ref="N69:N124" si="20">ROUNDUP(L69/40,0.1)</f>
-        <v>199</v>
+      <c r="B69" s="6">
+        <f t="shared" ref="B69:B100" si="21">ROUND(F68+B68+D68,1)</f>
+        <v>18907700.800000001</v>
+      </c>
+      <c r="C69" s="6">
+        <f t="shared" ref="C69:C100" si="22">B69*K68</f>
+        <v>187186237920</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" ref="D69:D100" si="23">ROUND((C69+E69)/(M69+J69),1)</f>
+        <v>2114620.9</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K69" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L69" s="6">
+        <f t="shared" si="20"/>
+        <v>70487.400000000009</v>
+      </c>
+      <c r="M69">
+        <v>4520</v>
+      </c>
+      <c r="N69" s="6">
+        <f t="shared" ref="N69:N124" si="24">ROUNDUP(L69/40,0.1)</f>
+        <v>1763</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="A70" s="6">
         <v>66</v>
       </c>
-      <c r="B70" s="8">
-        <f t="shared" si="17"/>
-        <v>2757700.2</v>
-      </c>
-      <c r="C70" s="8">
-        <f t="shared" si="18"/>
-        <v>27301231980</v>
-      </c>
-      <c r="D70" s="8">
-        <f t="shared" si="19"/>
-        <v>260011.7</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="9">
-        <v>100000</v>
-      </c>
-      <c r="K70" s="8">
-        <v>9900</v>
-      </c>
-      <c r="L70" s="8">
-        <f t="shared" si="16"/>
-        <v>8667.1</v>
-      </c>
-      <c r="M70" s="8">
-        <v>5000</v>
-      </c>
-      <c r="N70" s="8">
+      <c r="B70" s="6">
+        <f t="shared" si="21"/>
+        <v>21022321.699999999</v>
+      </c>
+      <c r="C70" s="6">
+        <f t="shared" si="22"/>
+        <v>208120984830</v>
+      </c>
+      <c r="D70" s="6">
+        <f t="shared" si="23"/>
+        <v>2351118.2000000002</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K70" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L70" s="6">
         <f t="shared" si="20"/>
-        <v>217</v>
+        <v>78370.700000000012</v>
+      </c>
+      <c r="M70">
+        <v>4520</v>
+      </c>
+      <c r="N70" s="6">
+        <f t="shared" si="24"/>
+        <v>1960</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+      <c r="A71" s="6">
         <v>67</v>
       </c>
-      <c r="B71" s="8">
-        <f t="shared" si="17"/>
-        <v>3017711.9</v>
-      </c>
-      <c r="C71" s="8">
-        <f t="shared" si="18"/>
-        <v>29875347810</v>
-      </c>
-      <c r="D71" s="8">
-        <f t="shared" si="19"/>
-        <v>284527.09999999998</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="9">
-        <v>100000</v>
-      </c>
-      <c r="K71" s="8">
-        <v>9900</v>
-      </c>
-      <c r="L71" s="8">
-        <f t="shared" si="16"/>
-        <v>9484.3000000000011</v>
-      </c>
-      <c r="M71" s="8">
-        <v>5000</v>
-      </c>
-      <c r="N71" s="8">
+      <c r="B71" s="6">
+        <f t="shared" si="21"/>
+        <v>23373439.899999999</v>
+      </c>
+      <c r="C71" s="6">
+        <f t="shared" si="22"/>
+        <v>231397055010</v>
+      </c>
+      <c r="D71" s="6">
+        <f t="shared" si="23"/>
+        <v>2614065.2000000002</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K71" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L71" s="6">
         <f t="shared" si="20"/>
-        <v>238</v>
+        <v>87135.6</v>
+      </c>
+      <c r="M71">
+        <v>4520</v>
+      </c>
+      <c r="N71" s="6">
+        <f t="shared" si="24"/>
+        <v>2179</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
+      <c r="A72" s="6">
         <v>68</v>
       </c>
-      <c r="B72" s="8">
-        <f t="shared" si="17"/>
-        <v>3302239</v>
-      </c>
-      <c r="C72" s="8">
-        <f t="shared" si="18"/>
-        <v>32692166100</v>
-      </c>
-      <c r="D72" s="8">
-        <f t="shared" si="19"/>
-        <v>311354</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="9">
-        <v>100000</v>
-      </c>
-      <c r="K72" s="8">
-        <v>9900</v>
-      </c>
-      <c r="L72" s="8">
-        <f t="shared" si="16"/>
-        <v>10378.5</v>
-      </c>
-      <c r="M72" s="8">
-        <v>5000</v>
-      </c>
-      <c r="N72" s="8">
+      <c r="B72" s="6">
+        <f t="shared" si="21"/>
+        <v>25987505.100000001</v>
+      </c>
+      <c r="C72" s="6">
+        <f t="shared" si="22"/>
+        <v>257276300490</v>
+      </c>
+      <c r="D72" s="6">
+        <f t="shared" si="23"/>
+        <v>2906420</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K72" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L72" s="6">
         <f t="shared" si="20"/>
-        <v>260</v>
+        <v>96880.700000000012</v>
+      </c>
+      <c r="M72">
+        <v>4520</v>
+      </c>
+      <c r="N72" s="6">
+        <f t="shared" si="24"/>
+        <v>2423</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
+      <c r="A73" s="6">
         <v>69</v>
       </c>
-      <c r="B73" s="8">
-        <f t="shared" si="17"/>
-        <v>3613593</v>
-      </c>
-      <c r="C73" s="8">
-        <f t="shared" si="18"/>
-        <v>35774570700</v>
-      </c>
-      <c r="D73" s="8">
-        <f t="shared" si="19"/>
-        <v>340710.2</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="9">
-        <v>100000</v>
-      </c>
-      <c r="K73" s="8">
-        <v>9900</v>
-      </c>
-      <c r="L73" s="8">
-        <f t="shared" si="16"/>
-        <v>11357.1</v>
-      </c>
-      <c r="M73" s="8">
-        <v>5000</v>
-      </c>
-      <c r="N73" s="8">
+      <c r="B73" s="6">
+        <f t="shared" si="21"/>
+        <v>28893925.100000001</v>
+      </c>
+      <c r="C73" s="6">
+        <f t="shared" si="22"/>
+        <v>286049858490</v>
+      </c>
+      <c r="D73" s="6">
+        <f t="shared" si="23"/>
+        <v>3231471.5</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K73" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L73" s="6">
         <f t="shared" si="20"/>
-        <v>284</v>
+        <v>107715.8</v>
+      </c>
+      <c r="M73">
+        <v>4520</v>
+      </c>
+      <c r="N73" s="6">
+        <f t="shared" si="24"/>
+        <v>2693</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
+      <c r="A74" s="6">
         <v>70</v>
       </c>
-      <c r="B74" s="8">
-        <f t="shared" si="17"/>
-        <v>3954303.2</v>
-      </c>
-      <c r="C74" s="8">
-        <f t="shared" si="18"/>
-        <v>39147601680</v>
-      </c>
-      <c r="D74" s="8">
-        <f t="shared" si="19"/>
-        <v>372834.3</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="9">
-        <v>100000</v>
-      </c>
-      <c r="K74" s="8">
-        <v>9900</v>
-      </c>
-      <c r="L74" s="8">
-        <f t="shared" si="16"/>
-        <v>12427.9</v>
-      </c>
-      <c r="M74" s="8">
-        <v>5000</v>
-      </c>
-      <c r="N74" s="8">
+      <c r="B74" s="6">
+        <f t="shared" si="21"/>
+        <v>32125396.600000001</v>
+      </c>
+      <c r="C74" s="6">
+        <f t="shared" si="22"/>
+        <v>318041426340</v>
+      </c>
+      <c r="D74" s="6">
+        <f t="shared" si="23"/>
+        <v>3592876.5</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K74" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L74" s="6">
         <f t="shared" si="20"/>
-        <v>311</v>
+        <v>119762.6</v>
+      </c>
+      <c r="M74">
+        <v>4520</v>
+      </c>
+      <c r="N74" s="6">
+        <f t="shared" si="24"/>
+        <v>2995</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
+      <c r="A75" s="6">
         <v>71</v>
       </c>
-      <c r="B75" s="8">
-        <f t="shared" si="17"/>
-        <v>4327137.5</v>
-      </c>
-      <c r="C75" s="8">
-        <f t="shared" si="18"/>
-        <v>42838661250</v>
-      </c>
-      <c r="D75" s="8">
-        <f t="shared" si="19"/>
-        <v>407987.3</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="9">
-        <v>100000</v>
-      </c>
-      <c r="K75" s="8">
-        <v>9900</v>
-      </c>
-      <c r="L75" s="8">
-        <f t="shared" si="16"/>
-        <v>13599.6</v>
-      </c>
-      <c r="M75" s="8">
-        <v>5000</v>
-      </c>
-      <c r="N75" s="8">
+      <c r="B75" s="6">
+        <f t="shared" si="21"/>
+        <v>35718273.100000001</v>
+      </c>
+      <c r="C75" s="6">
+        <f t="shared" si="22"/>
+        <v>353610903690</v>
+      </c>
+      <c r="D75" s="6">
+        <f t="shared" si="23"/>
+        <v>3994700.7</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K75" s="6">
+        <v>9900</v>
+      </c>
+      <c r="L75" s="6">
         <f t="shared" si="20"/>
-        <v>340</v>
+        <v>133156.70000000001</v>
+      </c>
+      <c r="M75">
+        <v>4520</v>
+      </c>
+      <c r="N75" s="6">
+        <f t="shared" si="24"/>
+        <v>3329</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3713,465 +3713,465 @@
         <v>72</v>
       </c>
       <c r="B76" s="4">
-        <f t="shared" si="17"/>
-        <v>4735124.8</v>
+        <f t="shared" si="21"/>
+        <v>39712973.799999997</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" si="18"/>
-        <v>46877735520</v>
+        <f t="shared" si="22"/>
+        <v>393158440620</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="19"/>
-        <v>446454.6</v>
-      </c>
-      <c r="J76" s="5">
-        <v>100000</v>
+        <f t="shared" si="23"/>
+        <v>4441464.5</v>
+      </c>
+      <c r="J76" s="1">
+        <v>84000</v>
       </c>
       <c r="K76" s="4">
         <v>9900</v>
       </c>
       <c r="L76" s="4">
-        <f t="shared" si="16"/>
-        <v>14881.9</v>
-      </c>
-      <c r="M76" s="4">
-        <v>5000</v>
+        <f t="shared" si="20"/>
+        <v>148048.9</v>
+      </c>
+      <c r="M76">
+        <v>4520</v>
       </c>
       <c r="N76" s="4">
+        <f t="shared" si="24"/>
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>73</v>
+      </c>
+      <c r="B77" s="7">
+        <f t="shared" si="21"/>
+        <v>44154438.299999997</v>
+      </c>
+      <c r="C77" s="7">
+        <f t="shared" si="22"/>
+        <v>437128939170</v>
+      </c>
+      <c r="D77" s="7">
+        <f t="shared" si="23"/>
+        <v>4938194.0999999996</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K77" s="7">
+        <v>9900</v>
+      </c>
+      <c r="L77" s="7">
         <f t="shared" si="20"/>
-        <v>373</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
-        <v>73</v>
-      </c>
-      <c r="B77" s="10">
-        <f t="shared" si="17"/>
-        <v>5181579.4000000004</v>
-      </c>
-      <c r="C77" s="10">
-        <f t="shared" si="18"/>
-        <v>51297636060</v>
-      </c>
-      <c r="D77" s="10">
-        <f t="shared" si="19"/>
-        <v>488548.9</v>
-      </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="11">
-        <v>100000</v>
-      </c>
-      <c r="K77" s="10">
-        <v>9900</v>
-      </c>
-      <c r="L77" s="10">
-        <f t="shared" si="16"/>
-        <v>16285</v>
-      </c>
-      <c r="M77" s="10">
-        <v>5000</v>
-      </c>
-      <c r="N77" s="10">
+        <v>164606.5</v>
+      </c>
+      <c r="M77">
+        <v>4520</v>
+      </c>
+      <c r="N77" s="7">
+        <f t="shared" si="24"/>
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>74</v>
+      </c>
+      <c r="B78" s="7">
+        <f t="shared" si="21"/>
+        <v>49092632.399999999</v>
+      </c>
+      <c r="C78" s="7">
+        <f t="shared" si="22"/>
+        <v>486017060760</v>
+      </c>
+      <c r="D78" s="7">
+        <f t="shared" si="23"/>
+        <v>5490477.4000000004</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K78" s="7">
+        <v>9900</v>
+      </c>
+      <c r="L78" s="7">
         <f t="shared" si="20"/>
-        <v>408</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
-        <v>74</v>
-      </c>
-      <c r="B78" s="10">
-        <f t="shared" si="17"/>
-        <v>5670128.2999999998</v>
-      </c>
-      <c r="C78" s="10">
-        <f t="shared" si="18"/>
-        <v>56134270170</v>
-      </c>
-      <c r="D78" s="10">
-        <f t="shared" si="19"/>
-        <v>534612.1</v>
-      </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="11">
-        <v>100000</v>
-      </c>
-      <c r="K78" s="10">
-        <v>9900</v>
-      </c>
-      <c r="L78" s="10">
-        <f t="shared" si="16"/>
-        <v>17820.5</v>
-      </c>
-      <c r="M78" s="10">
-        <v>5000</v>
-      </c>
-      <c r="N78" s="10">
+        <v>183016</v>
+      </c>
+      <c r="M78">
+        <v>4520</v>
+      </c>
+      <c r="N78" s="7">
+        <f t="shared" si="24"/>
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>75</v>
+      </c>
+      <c r="B79" s="7">
+        <f t="shared" si="21"/>
+        <v>54583109.799999997</v>
+      </c>
+      <c r="C79" s="7">
+        <f t="shared" si="22"/>
+        <v>540372787020</v>
+      </c>
+      <c r="D79" s="7">
+        <f t="shared" si="23"/>
+        <v>6104527.5999999996</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K79" s="7">
+        <v>9900</v>
+      </c>
+      <c r="L79" s="7">
         <f t="shared" si="20"/>
-        <v>446</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
-        <v>75</v>
-      </c>
-      <c r="B79" s="10">
-        <f t="shared" si="17"/>
-        <v>6204740.4000000004</v>
-      </c>
-      <c r="C79" s="10">
-        <f t="shared" si="18"/>
-        <v>61426929960</v>
-      </c>
-      <c r="D79" s="10">
-        <f t="shared" si="19"/>
-        <v>585018.4</v>
-      </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="11">
-        <v>100000</v>
-      </c>
-      <c r="K79" s="10">
-        <v>9900</v>
-      </c>
-      <c r="L79" s="10">
-        <f t="shared" si="16"/>
-        <v>19500.699999999997</v>
-      </c>
-      <c r="M79" s="10">
-        <v>5000</v>
-      </c>
-      <c r="N79" s="10">
+        <v>203484.30000000002</v>
+      </c>
+      <c r="M79">
+        <v>4520</v>
+      </c>
+      <c r="N79" s="7">
+        <f t="shared" si="24"/>
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>76</v>
+      </c>
+      <c r="B80" s="7">
+        <f t="shared" si="21"/>
+        <v>60687637.399999999</v>
+      </c>
+      <c r="C80" s="7">
+        <f t="shared" si="22"/>
+        <v>600807610260</v>
+      </c>
+      <c r="D80" s="7">
+        <f t="shared" si="23"/>
+        <v>6787252.7000000002</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K80" s="7">
+        <v>9900</v>
+      </c>
+      <c r="L80" s="7">
         <f t="shared" si="20"/>
-        <v>488</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
-        <v>76</v>
-      </c>
-      <c r="B80" s="10">
-        <f t="shared" si="17"/>
-        <v>6789758.7999999998</v>
-      </c>
-      <c r="C80" s="10">
-        <f t="shared" si="18"/>
-        <v>67218612120</v>
-      </c>
-      <c r="D80" s="10">
-        <f t="shared" si="19"/>
-        <v>640177.30000000005</v>
-      </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="11">
-        <v>100000</v>
-      </c>
-      <c r="K80" s="10">
-        <v>9900</v>
-      </c>
-      <c r="L80" s="10">
-        <f t="shared" si="16"/>
-        <v>21339.3</v>
-      </c>
-      <c r="M80" s="10">
-        <v>5000</v>
-      </c>
-      <c r="N80" s="10">
-        <f t="shared" si="20"/>
-        <v>534</v>
+        <v>226241.80000000002</v>
+      </c>
+      <c r="M80">
+        <v>4520</v>
+      </c>
+      <c r="N80" s="7">
+        <f t="shared" si="24"/>
+        <v>5657</v>
       </c>
       <c r="P80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
+      <c r="A81" s="7">
         <v>77</v>
       </c>
-      <c r="B81" s="10">
-        <f t="shared" si="17"/>
-        <v>7429936.0999999996</v>
-      </c>
-      <c r="C81" s="10">
-        <f t="shared" si="18"/>
-        <v>73556367390</v>
-      </c>
-      <c r="D81" s="10">
-        <f t="shared" si="19"/>
-        <v>700536.8</v>
-      </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="11">
-        <v>100000</v>
-      </c>
-      <c r="K81" s="10">
-        <v>9900</v>
-      </c>
-      <c r="L81" s="10">
-        <f t="shared" si="16"/>
-        <v>23351.3</v>
-      </c>
-      <c r="M81" s="10">
-        <v>5000</v>
-      </c>
-      <c r="N81" s="10">
+      <c r="B81" s="7">
+        <f t="shared" si="21"/>
+        <v>67474890.099999994</v>
+      </c>
+      <c r="C81" s="7">
+        <f t="shared" si="22"/>
+        <v>668001411990</v>
+      </c>
+      <c r="D81" s="7">
+        <f t="shared" si="23"/>
+        <v>7546333.2000000002</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K81" s="7">
+        <v>9900</v>
+      </c>
+      <c r="L81" s="7">
         <f t="shared" si="20"/>
-        <v>584</v>
+        <v>251544.5</v>
+      </c>
+      <c r="M81">
+        <v>4520</v>
+      </c>
+      <c r="N81" s="7">
+        <f t="shared" si="24"/>
+        <v>6289</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
+      <c r="A82" s="7">
         <v>78</v>
       </c>
-      <c r="B82" s="10">
-        <f t="shared" si="17"/>
-        <v>8130472.9000000004</v>
-      </c>
-      <c r="C82" s="10">
-        <f t="shared" si="18"/>
-        <v>80491681710</v>
-      </c>
-      <c r="D82" s="10">
-        <f t="shared" si="19"/>
-        <v>766587.4</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="11">
-        <v>100000</v>
-      </c>
-      <c r="K82" s="10">
-        <v>9900</v>
-      </c>
-      <c r="L82" s="10">
-        <f t="shared" si="16"/>
-        <v>25553</v>
-      </c>
-      <c r="M82" s="10">
-        <v>5000</v>
-      </c>
-      <c r="N82" s="10">
+      <c r="B82" s="7">
+        <f t="shared" si="21"/>
+        <v>75021223.299999997</v>
+      </c>
+      <c r="C82" s="7">
+        <f t="shared" si="22"/>
+        <v>742710110670</v>
+      </c>
+      <c r="D82" s="7">
+        <f t="shared" si="23"/>
+        <v>8390308.5</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K82" s="7">
+        <v>9900</v>
+      </c>
+      <c r="L82" s="7">
         <f t="shared" si="20"/>
-        <v>639</v>
+        <v>279677</v>
+      </c>
+      <c r="M82">
+        <v>4520</v>
+      </c>
+      <c r="N82" s="7">
+        <f t="shared" si="24"/>
+        <v>6992</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
+      <c r="A83" s="7">
         <v>79</v>
       </c>
-      <c r="B83" s="10">
-        <f t="shared" si="17"/>
-        <v>8897060.3000000007</v>
-      </c>
-      <c r="C83" s="10">
-        <f t="shared" si="18"/>
-        <v>88080896970</v>
-      </c>
-      <c r="D83" s="10">
-        <f t="shared" si="19"/>
-        <v>838865.7</v>
-      </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="11">
-        <v>100000</v>
-      </c>
-      <c r="K83" s="10">
-        <v>9900</v>
-      </c>
-      <c r="L83" s="10">
-        <f t="shared" si="16"/>
-        <v>27962.199999999997</v>
-      </c>
-      <c r="M83" s="10">
-        <v>5000</v>
-      </c>
-      <c r="N83" s="10">
+      <c r="B83" s="7">
+        <f t="shared" si="21"/>
+        <v>83411531.799999997</v>
+      </c>
+      <c r="C83" s="7">
+        <f t="shared" si="22"/>
+        <v>825774164820</v>
+      </c>
+      <c r="D83" s="7">
+        <f t="shared" si="23"/>
+        <v>9328673.3000000007</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K83" s="7">
+        <v>9900</v>
+      </c>
+      <c r="L83" s="7">
         <f t="shared" si="20"/>
-        <v>700</v>
+        <v>310955.8</v>
+      </c>
+      <c r="M83">
+        <v>4520</v>
+      </c>
+      <c r="N83" s="7">
+        <f t="shared" si="24"/>
+        <v>7774</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
+      <c r="A84" s="7">
         <v>80</v>
       </c>
-      <c r="B84" s="10">
-        <f t="shared" si="17"/>
-        <v>9735926</v>
-      </c>
-      <c r="C84" s="10">
-        <f t="shared" si="18"/>
-        <v>96385667400</v>
-      </c>
-      <c r="D84" s="10">
-        <f t="shared" si="19"/>
-        <v>917958.7</v>
-      </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="11">
-        <v>100000</v>
-      </c>
-      <c r="K84" s="10">
-        <v>9900</v>
-      </c>
-      <c r="L84" s="10">
-        <f t="shared" si="16"/>
-        <v>30598.699999999997</v>
-      </c>
-      <c r="M84" s="10">
-        <v>5000</v>
-      </c>
-      <c r="N84" s="10">
+      <c r="B84" s="7">
+        <f t="shared" si="21"/>
+        <v>92740205.099999994</v>
+      </c>
+      <c r="C84" s="7">
+        <f t="shared" si="22"/>
+        <v>918128030490</v>
+      </c>
+      <c r="D84" s="7">
+        <f t="shared" si="23"/>
+        <v>10371984.1</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K84" s="7">
+        <v>9900</v>
+      </c>
+      <c r="L84" s="7">
         <f t="shared" si="20"/>
-        <v>765</v>
+        <v>345732.89999999997</v>
+      </c>
+      <c r="M84">
+        <v>4520</v>
+      </c>
+      <c r="N84" s="7">
+        <f t="shared" si="24"/>
+        <v>8644</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
+      <c r="A85" s="7">
         <v>81</v>
       </c>
-      <c r="B85" s="10">
-        <f t="shared" si="17"/>
-        <v>10653884.699999999</v>
-      </c>
-      <c r="C85" s="10">
-        <f t="shared" si="18"/>
-        <v>105473458530</v>
-      </c>
-      <c r="D85" s="10">
-        <f t="shared" si="19"/>
-        <v>1004509.1</v>
-      </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="11">
-        <v>100000</v>
-      </c>
-      <c r="K85" s="10">
-        <v>9900</v>
-      </c>
-      <c r="L85" s="10">
-        <f t="shared" si="16"/>
-        <v>33483.699999999997</v>
-      </c>
-      <c r="M85" s="10">
-        <v>5000</v>
-      </c>
-      <c r="N85" s="10">
+      <c r="B85" s="7">
+        <f t="shared" si="21"/>
+        <v>103112189.2</v>
+      </c>
+      <c r="C85" s="7">
+        <f t="shared" si="22"/>
+        <v>1020810673080</v>
+      </c>
+      <c r="D85" s="7">
+        <f t="shared" si="23"/>
+        <v>11531977.800000001</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K85" s="7">
+        <v>9900</v>
+      </c>
+      <c r="L85" s="7">
         <f t="shared" si="20"/>
-        <v>838</v>
+        <v>384399.3</v>
+      </c>
+      <c r="M85">
+        <v>4520</v>
+      </c>
+      <c r="N85" s="7">
+        <f t="shared" si="24"/>
+        <v>9610</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
+      <c r="A86" s="7">
         <v>82</v>
       </c>
-      <c r="B86" s="10">
-        <f t="shared" si="17"/>
-        <v>11658393.800000001</v>
-      </c>
-      <c r="C86" s="10">
-        <f t="shared" si="18"/>
-        <v>115418098620</v>
-      </c>
-      <c r="D86" s="10">
-        <f t="shared" si="19"/>
-        <v>1099220</v>
-      </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="11">
-        <v>100000</v>
-      </c>
-      <c r="K86" s="10">
-        <v>9900</v>
-      </c>
-      <c r="L86" s="10">
-        <f t="shared" si="16"/>
-        <v>36640.699999999997</v>
-      </c>
-      <c r="M86" s="10">
-        <v>5000</v>
-      </c>
-      <c r="N86" s="10">
+      <c r="B86" s="7">
+        <f t="shared" si="21"/>
+        <v>114644167</v>
+      </c>
+      <c r="C86" s="7">
+        <f t="shared" si="22"/>
+        <v>1134977253300</v>
+      </c>
+      <c r="D86" s="7">
+        <f t="shared" si="23"/>
+        <v>12821704.199999999</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K86" s="7">
+        <v>9900</v>
+      </c>
+      <c r="L86" s="7">
         <f t="shared" si="20"/>
-        <v>917</v>
+        <v>427390.19999999995</v>
+      </c>
+      <c r="M86">
+        <v>4520</v>
+      </c>
+      <c r="N86" s="7">
+        <f t="shared" si="24"/>
+        <v>10685</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
+      <c r="A87" s="7">
         <v>83</v>
       </c>
-      <c r="B87" s="10">
-        <f t="shared" si="17"/>
-        <v>12757613.800000001</v>
-      </c>
-      <c r="C87" s="10">
-        <f t="shared" si="18"/>
-        <v>126300376620</v>
-      </c>
-      <c r="D87" s="10">
-        <f t="shared" si="19"/>
-        <v>1202860.7</v>
-      </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="11">
-        <v>100000</v>
-      </c>
-      <c r="K87" s="10">
-        <v>9900</v>
-      </c>
-      <c r="L87" s="10">
-        <f t="shared" si="16"/>
-        <v>40095.4</v>
-      </c>
-      <c r="M87" s="10">
-        <v>5000</v>
-      </c>
-      <c r="N87" s="10">
+      <c r="B87" s="7">
+        <f t="shared" si="21"/>
+        <v>127465871.2</v>
+      </c>
+      <c r="C87" s="7">
+        <f t="shared" si="22"/>
+        <v>1261912124880</v>
+      </c>
+      <c r="D87" s="7">
+        <f t="shared" si="23"/>
+        <v>14255672.4</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K87" s="7">
+        <v>9900</v>
+      </c>
+      <c r="L87" s="7">
         <f t="shared" si="20"/>
-        <v>1003</v>
+        <v>475189.1</v>
+      </c>
+      <c r="M87">
+        <v>4520</v>
+      </c>
+      <c r="N87" s="7">
+        <f t="shared" si="24"/>
+        <v>11880</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4179,465 +4179,465 @@
         <v>84</v>
       </c>
       <c r="B88" s="4">
-        <f t="shared" si="17"/>
-        <v>13960474.5</v>
+        <f t="shared" si="21"/>
+        <v>141721543.59999999</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" si="18"/>
-        <v>138208697550</v>
+        <f t="shared" si="22"/>
+        <v>1403043281640</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="19"/>
-        <v>1316273.3</v>
-      </c>
-      <c r="J88" s="5">
-        <v>100000</v>
+        <f t="shared" si="23"/>
+        <v>15850014.5</v>
+      </c>
+      <c r="J88" s="1">
+        <v>84000</v>
       </c>
       <c r="K88" s="4">
         <v>9900</v>
       </c>
       <c r="L88" s="4">
-        <f t="shared" si="16"/>
-        <v>43875.799999999996</v>
-      </c>
-      <c r="M88" s="4">
-        <v>5000</v>
+        <f t="shared" si="20"/>
+        <v>528333.9</v>
+      </c>
+      <c r="M88">
+        <v>4520</v>
       </c>
       <c r="N88" s="4">
+        <f t="shared" si="24"/>
+        <v>13209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>85</v>
+      </c>
+      <c r="B89" s="8">
+        <f t="shared" si="21"/>
+        <v>157571558.09999999</v>
+      </c>
+      <c r="C89" s="8">
+        <f t="shared" si="22"/>
+        <v>1559958425190</v>
+      </c>
+      <c r="D89" s="8">
+        <f t="shared" si="23"/>
+        <v>17622666.300000001</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K89" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L89" s="8">
         <f t="shared" si="20"/>
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="12">
-        <v>85</v>
-      </c>
-      <c r="B89" s="12">
-        <f t="shared" si="17"/>
-        <v>15276747.800000001</v>
-      </c>
-      <c r="C89" s="12">
-        <f t="shared" si="18"/>
-        <v>151239803220</v>
-      </c>
-      <c r="D89" s="12">
-        <f t="shared" si="19"/>
-        <v>1440379.1</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="13">
-        <v>100000</v>
-      </c>
-      <c r="K89" s="12">
-        <v>9900</v>
-      </c>
-      <c r="L89" s="12">
-        <f t="shared" si="16"/>
-        <v>48012.7</v>
-      </c>
-      <c r="M89" s="12">
-        <v>5000</v>
-      </c>
-      <c r="N89" s="12">
+        <v>587422.29999999993</v>
+      </c>
+      <c r="M89">
+        <v>4520</v>
+      </c>
+      <c r="N89" s="8">
+        <f t="shared" si="24"/>
+        <v>14686</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>86</v>
+      </c>
+      <c r="B90" s="8">
+        <f t="shared" si="21"/>
+        <v>175194224.40000001</v>
+      </c>
+      <c r="C90" s="8">
+        <f t="shared" si="22"/>
+        <v>1734422821560</v>
+      </c>
+      <c r="D90" s="8">
+        <f t="shared" si="23"/>
+        <v>19593570.100000001</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K90" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L90" s="8">
         <f t="shared" si="20"/>
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="12">
-        <v>86</v>
-      </c>
-      <c r="B90" s="12">
-        <f t="shared" si="17"/>
-        <v>16717126.9</v>
-      </c>
-      <c r="C90" s="12">
-        <f t="shared" si="18"/>
-        <v>165499556310</v>
-      </c>
-      <c r="D90" s="12">
-        <f t="shared" si="19"/>
-        <v>1576186.3</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="13">
-        <v>100000</v>
-      </c>
-      <c r="K90" s="12">
-        <v>9900</v>
-      </c>
-      <c r="L90" s="12">
-        <f t="shared" si="16"/>
-        <v>52539.6</v>
-      </c>
-      <c r="M90" s="12">
-        <v>5000</v>
-      </c>
-      <c r="N90" s="12">
+        <v>653119.1</v>
+      </c>
+      <c r="M90">
+        <v>4520</v>
+      </c>
+      <c r="N90" s="8">
+        <f t="shared" si="24"/>
+        <v>16328</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>87</v>
+      </c>
+      <c r="B91" s="8">
+        <f t="shared" si="21"/>
+        <v>194787794.5</v>
+      </c>
+      <c r="C91" s="8">
+        <f t="shared" si="22"/>
+        <v>1928399165550</v>
+      </c>
+      <c r="D91" s="8">
+        <f t="shared" si="23"/>
+        <v>21784897.899999999</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K91" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L91" s="8">
         <f t="shared" si="20"/>
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="12">
-        <v>87</v>
-      </c>
-      <c r="B91" s="12">
-        <f t="shared" si="17"/>
-        <v>18293313.199999999</v>
-      </c>
-      <c r="C91" s="12">
-        <f t="shared" si="18"/>
-        <v>181103800680</v>
-      </c>
-      <c r="D91" s="12">
-        <f t="shared" si="19"/>
-        <v>1724798.1</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="13">
-        <v>100000</v>
-      </c>
-      <c r="K91" s="12">
-        <v>9900</v>
-      </c>
-      <c r="L91" s="12">
-        <f t="shared" si="16"/>
-        <v>57493.299999999996</v>
-      </c>
-      <c r="M91" s="12">
-        <v>5000</v>
-      </c>
-      <c r="N91" s="12">
+        <v>726163.29999999993</v>
+      </c>
+      <c r="M91">
+        <v>4520</v>
+      </c>
+      <c r="N91" s="8">
+        <f t="shared" si="24"/>
+        <v>18155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>88</v>
+      </c>
+      <c r="B92" s="8">
+        <f t="shared" si="21"/>
+        <v>216572692.40000001</v>
+      </c>
+      <c r="C92" s="8">
+        <f t="shared" si="22"/>
+        <v>2144069654760</v>
+      </c>
+      <c r="D92" s="8">
+        <f t="shared" si="23"/>
+        <v>24221302</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K92" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L92" s="8">
         <f t="shared" si="20"/>
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="12">
-        <v>88</v>
-      </c>
-      <c r="B92" s="12">
-        <f t="shared" si="17"/>
-        <v>20018111.300000001</v>
-      </c>
-      <c r="C92" s="12">
-        <f t="shared" si="18"/>
-        <v>198179301870</v>
-      </c>
-      <c r="D92" s="12">
-        <f t="shared" si="19"/>
-        <v>1887421.9</v>
-      </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="13">
-        <v>100000</v>
-      </c>
-      <c r="K92" s="12">
-        <v>9900</v>
-      </c>
-      <c r="L92" s="12">
-        <f t="shared" si="16"/>
-        <v>62914.1</v>
-      </c>
-      <c r="M92" s="12">
-        <v>5000</v>
-      </c>
-      <c r="N92" s="12">
-        <f t="shared" si="20"/>
-        <v>1573</v>
+        <v>807376.79999999993</v>
+      </c>
+      <c r="M92">
+        <v>4520</v>
+      </c>
+      <c r="N92" s="8">
+        <f t="shared" si="24"/>
+        <v>20185</v>
       </c>
       <c r="P92" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="12">
+      <c r="A93" s="8">
         <v>89</v>
       </c>
-      <c r="B93" s="12">
-        <f t="shared" si="17"/>
-        <v>21905533.199999999</v>
-      </c>
-      <c r="C93" s="12">
-        <f t="shared" si="18"/>
-        <v>216864778680</v>
-      </c>
-      <c r="D93" s="12">
-        <f t="shared" si="19"/>
-        <v>2065378.8</v>
-      </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="13">
-        <v>100000</v>
-      </c>
-      <c r="K93" s="12">
-        <v>9900</v>
-      </c>
-      <c r="L93" s="12">
-        <f t="shared" si="16"/>
-        <v>68846</v>
-      </c>
-      <c r="M93" s="12">
-        <v>5000</v>
-      </c>
-      <c r="N93" s="12">
+      <c r="B93" s="8">
+        <f t="shared" si="21"/>
+        <v>240793994.40000001</v>
+      </c>
+      <c r="C93" s="8">
+        <f t="shared" si="22"/>
+        <v>2383860544560</v>
+      </c>
+      <c r="D93" s="8">
+        <f t="shared" si="23"/>
+        <v>26930191.399999999</v>
+      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K93" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L93" s="8">
         <f t="shared" si="20"/>
-        <v>1722</v>
+        <v>897673.1</v>
+      </c>
+      <c r="M93">
+        <v>4520</v>
+      </c>
+      <c r="N93" s="8">
+        <f t="shared" si="24"/>
+        <v>22442</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="12">
+      <c r="A94" s="8">
         <v>90</v>
       </c>
-      <c r="B94" s="12">
-        <f t="shared" si="17"/>
-        <v>23970912</v>
-      </c>
-      <c r="C94" s="12">
-        <f t="shared" si="18"/>
-        <v>237312028800</v>
-      </c>
-      <c r="D94" s="12">
-        <f t="shared" si="19"/>
-        <v>2260114.6</v>
-      </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="13">
-        <v>100000</v>
-      </c>
-      <c r="K94" s="12">
-        <v>9900</v>
-      </c>
-      <c r="L94" s="12">
-        <f t="shared" si="16"/>
-        <v>75337.200000000012</v>
-      </c>
-      <c r="M94" s="12">
-        <v>5000</v>
-      </c>
-      <c r="N94" s="12">
+      <c r="B94" s="8">
+        <f t="shared" si="21"/>
+        <v>267724185.80000001</v>
+      </c>
+      <c r="C94" s="8">
+        <f t="shared" si="22"/>
+        <v>2650469439420</v>
+      </c>
+      <c r="D94" s="8">
+        <f t="shared" si="23"/>
+        <v>29942040.699999999</v>
+      </c>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K94" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L94" s="8">
         <f t="shared" si="20"/>
-        <v>1884</v>
+        <v>998068.1</v>
+      </c>
+      <c r="M94">
+        <v>4520</v>
+      </c>
+      <c r="N94" s="8">
+        <f t="shared" si="24"/>
+        <v>24952</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="12">
+      <c r="A95" s="8">
         <v>91</v>
       </c>
-      <c r="B95" s="12">
-        <f t="shared" si="17"/>
-        <v>26231026.600000001</v>
-      </c>
-      <c r="C95" s="12">
-        <f t="shared" si="18"/>
-        <v>259687163340</v>
-      </c>
-      <c r="D95" s="12">
-        <f t="shared" si="19"/>
-        <v>2473211.1</v>
-      </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="13">
-        <v>100000</v>
-      </c>
-      <c r="K95" s="12">
-        <v>9900</v>
-      </c>
-      <c r="L95" s="12">
-        <f t="shared" si="16"/>
-        <v>82440.400000000009</v>
-      </c>
-      <c r="M95" s="12">
-        <v>5000</v>
-      </c>
-      <c r="N95" s="12">
+      <c r="B95" s="8">
+        <f t="shared" si="21"/>
+        <v>297666226.5</v>
+      </c>
+      <c r="C95" s="8">
+        <f t="shared" si="22"/>
+        <v>2946895642350</v>
+      </c>
+      <c r="D95" s="8">
+        <f t="shared" si="23"/>
+        <v>33290732.5</v>
+      </c>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K95" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L95" s="8">
         <f t="shared" si="20"/>
-        <v>2062</v>
+        <v>1109691.1000000001</v>
+      </c>
+      <c r="M95">
+        <v>4520</v>
+      </c>
+      <c r="N95" s="8">
+        <f t="shared" si="24"/>
+        <v>27743</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="12">
+      <c r="A96" s="8">
         <v>92</v>
       </c>
-      <c r="B96" s="12">
-        <f t="shared" si="17"/>
-        <v>28704237.699999999</v>
-      </c>
-      <c r="C96" s="12">
-        <f t="shared" si="18"/>
-        <v>284171953230</v>
-      </c>
-      <c r="D96" s="12">
-        <f t="shared" si="19"/>
-        <v>2706399.6</v>
-      </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="13">
-        <v>100000</v>
-      </c>
-      <c r="K96" s="12">
-        <v>9900</v>
-      </c>
-      <c r="L96" s="12">
-        <f t="shared" si="16"/>
-        <v>90213.400000000009</v>
-      </c>
-      <c r="M96" s="12">
-        <v>5000</v>
-      </c>
-      <c r="N96" s="12">
+      <c r="B96" s="8">
+        <f t="shared" si="21"/>
+        <v>330956959</v>
+      </c>
+      <c r="C96" s="8">
+        <f t="shared" si="22"/>
+        <v>3276473894100</v>
+      </c>
+      <c r="D96" s="8">
+        <f t="shared" si="23"/>
+        <v>37013939.200000003</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K96" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L96" s="8">
         <f t="shared" si="20"/>
-        <v>2256</v>
+        <v>1233798</v>
+      </c>
+      <c r="M96">
+        <v>4520</v>
+      </c>
+      <c r="N96" s="8">
+        <f t="shared" si="24"/>
+        <v>30845</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="12">
+      <c r="A97" s="8">
         <v>93</v>
       </c>
-      <c r="B97" s="12">
-        <f t="shared" si="17"/>
-        <v>31410637.300000001</v>
-      </c>
-      <c r="C97" s="12">
-        <f t="shared" si="18"/>
-        <v>310965309270</v>
-      </c>
-      <c r="D97" s="12">
-        <f t="shared" si="19"/>
-        <v>2961574.4</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="13">
-        <v>100000</v>
-      </c>
-      <c r="K97" s="12">
-        <v>9900</v>
-      </c>
-      <c r="L97" s="12">
-        <f t="shared" si="16"/>
-        <v>98719.200000000012</v>
-      </c>
-      <c r="M97" s="12">
-        <v>5000</v>
-      </c>
-      <c r="N97" s="12">
+      <c r="B97" s="8">
+        <f t="shared" si="21"/>
+        <v>367970898.19999999</v>
+      </c>
+      <c r="C97" s="8">
+        <f t="shared" si="22"/>
+        <v>3642911892180</v>
+      </c>
+      <c r="D97" s="8">
+        <f t="shared" si="23"/>
+        <v>41153546</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K97" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L97" s="8">
         <f t="shared" si="20"/>
-        <v>2468</v>
+        <v>1371784.9000000001</v>
+      </c>
+      <c r="M97">
+        <v>4520</v>
+      </c>
+      <c r="N97" s="8">
+        <f t="shared" si="24"/>
+        <v>34295</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="12">
+      <c r="A98" s="8">
         <v>94</v>
       </c>
-      <c r="B98" s="12">
-        <f t="shared" si="17"/>
-        <v>34372211.700000003</v>
-      </c>
-      <c r="C98" s="12">
-        <f t="shared" si="18"/>
-        <v>340284895830</v>
-      </c>
-      <c r="D98" s="12">
-        <f t="shared" si="19"/>
-        <v>3240808.5</v>
-      </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="13">
-        <v>100000</v>
-      </c>
-      <c r="K98" s="12">
-        <v>9900</v>
-      </c>
-      <c r="L98" s="12">
-        <f t="shared" si="16"/>
-        <v>108027</v>
-      </c>
-      <c r="M98" s="12">
-        <v>5000</v>
-      </c>
-      <c r="N98" s="12">
+      <c r="B98" s="8">
+        <f t="shared" si="21"/>
+        <v>409124444.19999999</v>
+      </c>
+      <c r="C98" s="8">
+        <f t="shared" si="22"/>
+        <v>4050331997580</v>
+      </c>
+      <c r="D98" s="8">
+        <f t="shared" si="23"/>
+        <v>45756122.899999999</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K98" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L98" s="8">
         <f t="shared" si="20"/>
-        <v>2701</v>
+        <v>1525204.1</v>
+      </c>
+      <c r="M98">
+        <v>4520</v>
+      </c>
+      <c r="N98" s="8">
+        <f t="shared" si="24"/>
+        <v>38131</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="12">
+      <c r="A99" s="8">
         <v>95</v>
       </c>
-      <c r="B99" s="12">
-        <f t="shared" si="17"/>
-        <v>37613020.200000003</v>
-      </c>
-      <c r="C99" s="12">
-        <f t="shared" si="18"/>
-        <v>372368899980</v>
-      </c>
-      <c r="D99" s="12">
-        <f t="shared" si="19"/>
-        <v>3546370.5</v>
-      </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="13">
-        <v>100000</v>
-      </c>
-      <c r="K99" s="12">
-        <v>9900</v>
-      </c>
-      <c r="L99" s="12">
-        <f t="shared" si="16"/>
-        <v>118212.40000000001</v>
-      </c>
-      <c r="M99" s="12">
-        <v>5000</v>
-      </c>
-      <c r="N99" s="12">
+      <c r="B99" s="8">
+        <f t="shared" si="21"/>
+        <v>454880567.10000002</v>
+      </c>
+      <c r="C99" s="8">
+        <f t="shared" si="22"/>
+        <v>4503317614290</v>
+      </c>
+      <c r="D99" s="8">
+        <f t="shared" si="23"/>
+        <v>50873448</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="1">
+        <v>84000</v>
+      </c>
+      <c r="K99" s="8">
+        <v>9900</v>
+      </c>
+      <c r="L99" s="8">
         <f t="shared" si="20"/>
-        <v>2956</v>
+        <v>1695781.6</v>
+      </c>
+      <c r="M99">
+        <v>4520</v>
+      </c>
+      <c r="N99" s="8">
+        <f t="shared" si="24"/>
+        <v>42395</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -4645,34 +4645,34 @@
         <v>96</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="17"/>
-        <v>41159390.700000003</v>
+        <f t="shared" si="21"/>
+        <v>505754015.10000002</v>
       </c>
       <c r="C100">
-        <f t="shared" si="18"/>
-        <v>407477967930</v>
+        <f t="shared" si="22"/>
+        <v>5006964749490</v>
       </c>
       <c r="D100" s="2">
-        <f t="shared" si="19"/>
-        <v>3880742.6</v>
+        <f t="shared" si="23"/>
+        <v>56563090.299999997</v>
       </c>
       <c r="E100" s="2"/>
       <c r="J100" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K100">
         <v>9900</v>
       </c>
       <c r="L100">
-        <f t="shared" ref="L100:L124" si="21">ROUNDUP((F100+D100)/30,1)</f>
-        <v>129358.1</v>
+        <f t="shared" ref="L100:L124" si="25">ROUNDUP((F100+D100)/30,1)</f>
+        <v>1885436.4000000001</v>
       </c>
       <c r="M100">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N100">
-        <f t="shared" si="20"/>
-        <v>3234</v>
+        <f t="shared" si="24"/>
+        <v>47136</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -4680,34 +4680,34 @@
         <v>97</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" ref="B101:B124" si="22">ROUND(F100+B100+D100,1)</f>
-        <v>45040133.299999997</v>
+        <f t="shared" ref="B101:B124" si="26">ROUND(F100+B100+D100,1)</f>
+        <v>562317105.39999998</v>
       </c>
       <c r="C101">
-        <f t="shared" ref="C101:C124" si="23">B101*K100</f>
-        <v>445897319670</v>
+        <f t="shared" ref="C101:C124" si="27">B101*K100</f>
+        <v>5566939343460</v>
       </c>
       <c r="D101" s="2">
-        <f t="shared" ref="D101:D124" si="24">ROUND((C101+E101)/(M101+J101),1)</f>
-        <v>4246641.0999999996</v>
+        <f t="shared" ref="D101:D124" si="28">ROUND((C101+E101)/(M101+J101),1)</f>
+        <v>62889057.200000003</v>
       </c>
       <c r="E101" s="2"/>
       <c r="J101" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K101">
         <v>9900</v>
       </c>
       <c r="L101">
-        <f t="shared" si="21"/>
-        <v>141554.80000000002</v>
+        <f t="shared" si="25"/>
+        <v>2096302</v>
       </c>
       <c r="M101">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N101">
-        <f t="shared" si="20"/>
-        <v>3539</v>
+        <f t="shared" si="24"/>
+        <v>52408</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -4715,34 +4715,34 @@
         <v>98</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" si="22"/>
-        <v>49286774.399999999</v>
+        <f t="shared" si="26"/>
+        <v>625206162.60000002</v>
       </c>
       <c r="C102">
-        <f t="shared" si="23"/>
-        <v>487939066560</v>
+        <f t="shared" si="27"/>
+        <v>6189541009740</v>
       </c>
       <c r="D102" s="2">
-        <f t="shared" si="24"/>
-        <v>4647038.7</v>
+        <f t="shared" si="28"/>
+        <v>69922514.799999997</v>
       </c>
       <c r="E102" s="2"/>
       <c r="J102" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K102">
         <v>9900</v>
       </c>
       <c r="L102">
-        <f t="shared" si="21"/>
-        <v>154901.30000000002</v>
+        <f t="shared" si="25"/>
+        <v>2330750.5</v>
       </c>
       <c r="M102">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N102">
-        <f t="shared" si="20"/>
-        <v>3873</v>
+        <f t="shared" si="24"/>
+        <v>58269</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -4750,34 +4750,34 @@
         <v>99</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" si="22"/>
-        <v>53933813.100000001</v>
+        <f t="shared" si="26"/>
+        <v>695128677.39999998</v>
       </c>
       <c r="C103">
-        <f t="shared" si="23"/>
-        <v>533944749690</v>
+        <f t="shared" si="27"/>
+        <v>6881773906260</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" si="24"/>
-        <v>5085188.0999999996</v>
+        <f t="shared" si="28"/>
+        <v>77742588.200000003</v>
       </c>
       <c r="E103" s="2"/>
       <c r="J103" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K103">
         <v>9900</v>
       </c>
       <c r="L103">
-        <f t="shared" si="21"/>
-        <v>169506.30000000002</v>
+        <f t="shared" si="25"/>
+        <v>2591419.7000000002</v>
       </c>
       <c r="M103">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N103">
-        <f t="shared" si="20"/>
-        <v>4238</v>
+        <f t="shared" si="24"/>
+        <v>64786</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -4785,34 +4785,34 @@
         <v>100</v>
       </c>
       <c r="B104" s="2">
-        <f t="shared" si="22"/>
-        <v>59019001.200000003</v>
+        <f t="shared" si="26"/>
+        <v>772871265.60000002</v>
       </c>
       <c r="C104">
-        <f t="shared" si="23"/>
-        <v>584288111880</v>
+        <f t="shared" si="27"/>
+        <v>7651425529440</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" si="24"/>
-        <v>5564648.7000000002</v>
+        <f t="shared" si="28"/>
+        <v>86437251.799999997</v>
       </c>
       <c r="E104" s="2"/>
       <c r="J104" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K104">
         <v>9900</v>
       </c>
       <c r="L104">
-        <f t="shared" si="21"/>
-        <v>185488.30000000002</v>
+        <f t="shared" si="25"/>
+        <v>2881241.8000000003</v>
       </c>
       <c r="M104">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N104">
-        <f t="shared" si="20"/>
-        <v>4638</v>
+        <f t="shared" si="24"/>
+        <v>72032</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -4820,34 +4820,34 @@
         <v>101</v>
       </c>
       <c r="B105" s="2">
-        <f t="shared" si="22"/>
-        <v>64583649.899999999</v>
+        <f t="shared" si="26"/>
+        <v>859308517.39999998</v>
       </c>
       <c r="C105">
-        <f t="shared" si="23"/>
-        <v>639378134010</v>
+        <f t="shared" si="27"/>
+        <v>8507154322260</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" si="24"/>
-        <v>6089315.5999999996</v>
+        <f t="shared" si="28"/>
+        <v>96104319</v>
       </c>
       <c r="E105" s="2"/>
       <c r="J105" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K105">
         <v>9900</v>
       </c>
       <c r="L105">
-        <f t="shared" si="21"/>
-        <v>202977.2</v>
+        <f t="shared" si="25"/>
+        <v>3203477.3</v>
       </c>
       <c r="M105">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N105">
-        <f t="shared" si="20"/>
-        <v>5075</v>
+        <f t="shared" si="24"/>
+        <v>80087</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -4855,34 +4855,34 @@
         <v>102</v>
       </c>
       <c r="B106" s="2">
-        <f t="shared" si="22"/>
-        <v>70672965.5</v>
+        <f t="shared" si="26"/>
+        <v>955412836.39999998</v>
       </c>
       <c r="C106">
-        <f t="shared" si="23"/>
-        <v>699662358450</v>
+        <f t="shared" si="27"/>
+        <v>9458587080360</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" si="24"/>
-        <v>6663451</v>
+        <f t="shared" si="28"/>
+        <v>106852542.7</v>
       </c>
       <c r="E106" s="2"/>
       <c r="J106" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K106">
         <v>9900</v>
       </c>
       <c r="L106">
-        <f t="shared" si="21"/>
-        <v>222115.1</v>
+        <f t="shared" si="25"/>
+        <v>3561751.5</v>
       </c>
       <c r="M106">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N106">
-        <f t="shared" si="20"/>
-        <v>5553</v>
+        <f t="shared" si="24"/>
+        <v>89044</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -4890,34 +4890,34 @@
         <v>103</v>
       </c>
       <c r="B107" s="2">
-        <f t="shared" si="22"/>
-        <v>77336416.5</v>
+        <f t="shared" si="26"/>
+        <v>1062265379.1</v>
       </c>
       <c r="C107">
-        <f t="shared" si="23"/>
-        <v>765630523350</v>
+        <f t="shared" si="27"/>
+        <v>10516427253090</v>
       </c>
       <c r="D107" s="2">
-        <f t="shared" si="24"/>
-        <v>7291719.2999999998</v>
+        <f t="shared" si="28"/>
+        <v>118802838.40000001</v>
       </c>
       <c r="E107" s="2"/>
       <c r="J107" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K107">
         <v>9900</v>
       </c>
       <c r="L107">
-        <f t="shared" si="21"/>
-        <v>243057.4</v>
+        <f t="shared" si="25"/>
+        <v>3960094.7</v>
       </c>
       <c r="M107">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N107">
-        <f t="shared" si="20"/>
-        <v>6077</v>
+        <f t="shared" si="24"/>
+        <v>99003</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -4925,34 +4925,34 @@
         <v>104</v>
       </c>
       <c r="B108" s="2">
-        <f t="shared" si="22"/>
-        <v>84628135.799999997</v>
+        <f t="shared" si="26"/>
+        <v>1181068217.5</v>
       </c>
       <c r="C108">
-        <f t="shared" si="23"/>
-        <v>837818544420</v>
+        <f t="shared" si="27"/>
+        <v>11692575353250</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" si="24"/>
-        <v>7979224.2000000002</v>
+        <f t="shared" si="28"/>
+        <v>132089644.7</v>
       </c>
       <c r="E108" s="2"/>
       <c r="J108" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K108">
         <v>9900</v>
       </c>
       <c r="L108">
-        <f t="shared" si="21"/>
-        <v>265974.19999999995</v>
+        <f t="shared" si="25"/>
+        <v>4402988.1999999993</v>
       </c>
       <c r="M108">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N108">
-        <f t="shared" si="20"/>
-        <v>6650</v>
+        <f t="shared" si="24"/>
+        <v>110075</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -4960,34 +4960,34 @@
         <v>105</v>
       </c>
       <c r="B109" s="2">
-        <f t="shared" si="22"/>
-        <v>92607360</v>
+        <f t="shared" si="26"/>
+        <v>1313157862.2</v>
       </c>
       <c r="C109">
-        <f t="shared" si="23"/>
-        <v>916812864000</v>
+        <f t="shared" si="27"/>
+        <v>13000262835780</v>
       </c>
       <c r="D109" s="2">
-        <f t="shared" si="24"/>
-        <v>8731551.0999999996</v>
+        <f t="shared" si="28"/>
+        <v>146862436</v>
       </c>
       <c r="E109" s="2"/>
       <c r="J109" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K109">
         <v>9900</v>
       </c>
       <c r="L109">
-        <f t="shared" si="21"/>
-        <v>291051.8</v>
+        <f t="shared" si="25"/>
+        <v>4895414.5999999996</v>
       </c>
       <c r="M109">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N109">
-        <f t="shared" si="20"/>
-        <v>7277</v>
+        <f t="shared" si="24"/>
+        <v>122386</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -4995,34 +4995,34 @@
         <v>106</v>
       </c>
       <c r="B110" s="2">
-        <f t="shared" si="22"/>
-        <v>101338911.09999999</v>
+        <f t="shared" si="26"/>
+        <v>1460020298.2</v>
       </c>
       <c r="C110">
-        <f t="shared" si="23"/>
-        <v>1003255219890</v>
+        <f t="shared" si="27"/>
+        <v>14454200952180</v>
       </c>
       <c r="D110" s="2">
-        <f t="shared" si="24"/>
-        <v>9554811.5999999996</v>
+        <f t="shared" si="28"/>
+        <v>163287403.40000001</v>
       </c>
       <c r="E110" s="2"/>
       <c r="J110" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K110">
         <v>9900</v>
       </c>
       <c r="L110">
-        <f t="shared" si="21"/>
-        <v>318493.8</v>
+        <f t="shared" si="25"/>
+        <v>5442913.5</v>
       </c>
       <c r="M110">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N110">
-        <f t="shared" si="20"/>
-        <v>7963</v>
+        <f t="shared" si="24"/>
+        <v>136073</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -5030,34 +5030,34 @@
         <v>107</v>
       </c>
       <c r="B111" s="2">
-        <f t="shared" si="22"/>
-        <v>110893722.7</v>
+        <f t="shared" si="26"/>
+        <v>1623307701.5999999</v>
       </c>
       <c r="C111">
-        <f t="shared" si="23"/>
-        <v>1097847854730</v>
+        <f t="shared" si="27"/>
+        <v>16070746245840</v>
       </c>
       <c r="D111" s="2">
-        <f t="shared" si="24"/>
-        <v>10455693.9</v>
+        <f t="shared" si="28"/>
+        <v>181549325</v>
       </c>
       <c r="E111" s="2"/>
       <c r="J111" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K111">
         <v>9900</v>
       </c>
       <c r="L111">
-        <f t="shared" si="21"/>
-        <v>348523.19999999995</v>
+        <f t="shared" si="25"/>
+        <v>6051644.1999999993</v>
       </c>
       <c r="M111">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N111">
-        <f t="shared" si="20"/>
-        <v>8714</v>
+        <f t="shared" si="24"/>
+        <v>151292</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -5065,34 +5065,34 @@
         <v>108</v>
       </c>
       <c r="B112" s="2">
-        <f t="shared" si="22"/>
-        <v>121349416.59999999</v>
+        <f t="shared" si="26"/>
+        <v>1804857026.5999999</v>
       </c>
       <c r="C112">
-        <f t="shared" si="23"/>
-        <v>1201359224340</v>
+        <f t="shared" si="27"/>
+        <v>17868084563340</v>
       </c>
       <c r="D112" s="2">
-        <f t="shared" si="24"/>
-        <v>11441516.4</v>
+        <f t="shared" si="28"/>
+        <v>201853644</v>
       </c>
       <c r="E112" s="2"/>
       <c r="J112" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K112">
         <v>9900</v>
       </c>
       <c r="L112">
-        <f t="shared" si="21"/>
-        <v>381383.89999999997</v>
+        <f t="shared" si="25"/>
+        <v>6728454.7999999998</v>
       </c>
       <c r="M112">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N112">
-        <f t="shared" si="20"/>
-        <v>9535</v>
+        <f t="shared" si="24"/>
+        <v>168212</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -5100,34 +5100,34 @@
         <v>109</v>
       </c>
       <c r="B113" s="2">
-        <f t="shared" si="22"/>
-        <v>132790933</v>
+        <f t="shared" si="26"/>
+        <v>2006710670.5999999</v>
       </c>
       <c r="C113">
-        <f t="shared" si="23"/>
-        <v>1314630236700</v>
+        <f t="shared" si="27"/>
+        <v>19866435638940</v>
       </c>
       <c r="D113" s="2">
-        <f t="shared" si="24"/>
-        <v>12520288</v>
+        <f t="shared" si="28"/>
+        <v>224428780.40000001</v>
       </c>
       <c r="E113" s="2"/>
       <c r="J113" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K113">
         <v>9900</v>
       </c>
       <c r="L113">
-        <f t="shared" si="21"/>
-        <v>417343</v>
+        <f t="shared" si="25"/>
+        <v>7480959.3999999994</v>
       </c>
       <c r="M113">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N113">
-        <f t="shared" si="20"/>
-        <v>10434</v>
+        <f t="shared" si="24"/>
+        <v>187024</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -5135,34 +5135,34 @@
         <v>110</v>
       </c>
       <c r="B114" s="2">
-        <f t="shared" si="22"/>
-        <v>145311221</v>
+        <f t="shared" si="26"/>
+        <v>2231139451</v>
       </c>
       <c r="C114">
-        <f t="shared" si="23"/>
-        <v>1438581087900</v>
+        <f t="shared" si="27"/>
+        <v>22088280564900</v>
       </c>
       <c r="D114" s="2">
-        <f t="shared" si="24"/>
-        <v>13700772.300000001</v>
+        <f t="shared" si="28"/>
+        <v>249528700.5</v>
       </c>
       <c r="E114" s="2"/>
       <c r="J114" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K114">
         <v>9900</v>
       </c>
       <c r="L114">
-        <f t="shared" si="21"/>
-        <v>456692.5</v>
+        <f t="shared" si="25"/>
+        <v>8317623.3999999994</v>
       </c>
       <c r="M114">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N114">
-        <f t="shared" si="20"/>
-        <v>11418</v>
+        <f t="shared" si="24"/>
+        <v>207941</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -5170,34 +5170,34 @@
         <v>111</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" si="22"/>
-        <v>159011993.30000001</v>
+        <f t="shared" si="26"/>
+        <v>2480668151.5</v>
       </c>
       <c r="C115">
-        <f t="shared" si="23"/>
-        <v>1574218733670</v>
+        <f t="shared" si="27"/>
+        <v>24558614699850</v>
       </c>
       <c r="D115" s="2">
-        <f t="shared" si="24"/>
-        <v>14992559.4</v>
+        <f t="shared" si="28"/>
+        <v>277435773.80000001</v>
       </c>
       <c r="E115" s="2"/>
       <c r="J115" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K115">
         <v>9900</v>
       </c>
       <c r="L115">
-        <f t="shared" si="21"/>
-        <v>499752</v>
+        <f t="shared" si="25"/>
+        <v>9247859.1999999993</v>
       </c>
       <c r="M115">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N115">
-        <f t="shared" si="20"/>
-        <v>12494</v>
+        <f t="shared" si="24"/>
+        <v>231197</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -5205,34 +5205,34 @@
         <v>112</v>
       </c>
       <c r="B116" s="2">
-        <f t="shared" si="22"/>
-        <v>174004552.69999999</v>
+        <f t="shared" si="26"/>
+        <v>2758103925.3000002</v>
       </c>
       <c r="C116">
-        <f t="shared" si="23"/>
-        <v>1722645071730</v>
+        <f t="shared" si="27"/>
+        <v>27305228860470</v>
       </c>
       <c r="D116" s="2">
-        <f t="shared" si="24"/>
-        <v>16406143.5</v>
+        <f t="shared" si="28"/>
+        <v>308463950.10000002</v>
       </c>
       <c r="E116" s="2"/>
       <c r="J116" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K116">
         <v>9900</v>
       </c>
       <c r="L116">
-        <f t="shared" si="21"/>
-        <v>546871.5</v>
+        <f t="shared" si="25"/>
+        <v>10282131.699999999</v>
       </c>
       <c r="M116">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N116">
-        <f t="shared" si="20"/>
-        <v>13672</v>
+        <f t="shared" si="24"/>
+        <v>257054</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -5240,34 +5240,34 @@
         <v>113</v>
       </c>
       <c r="B117" s="2">
-        <f t="shared" si="22"/>
-        <v>190410696.19999999</v>
+        <f t="shared" si="26"/>
+        <v>3066567875.4000001</v>
       </c>
       <c r="C117">
-        <f t="shared" si="23"/>
-        <v>1885065892380</v>
+        <f t="shared" si="27"/>
+        <v>30359021966460</v>
       </c>
       <c r="D117" s="2">
-        <f t="shared" si="24"/>
-        <v>17953008.5</v>
+        <f t="shared" si="28"/>
+        <v>342962290.60000002</v>
       </c>
       <c r="E117" s="2"/>
       <c r="J117" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K117">
         <v>9900</v>
       </c>
       <c r="L117">
-        <f t="shared" si="21"/>
-        <v>598433.69999999995</v>
+        <f t="shared" si="25"/>
+        <v>11432076.4</v>
       </c>
       <c r="M117">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N117">
-        <f t="shared" si="20"/>
-        <v>14961</v>
+        <f t="shared" si="24"/>
+        <v>285802</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -5275,34 +5275,34 @@
         <v>114</v>
       </c>
       <c r="B118" s="2">
-        <f t="shared" si="22"/>
-        <v>208363704.69999999</v>
+        <f t="shared" si="26"/>
+        <v>3409530166</v>
       </c>
       <c r="C118">
-        <f t="shared" si="23"/>
-        <v>2062800676530</v>
+        <f t="shared" si="27"/>
+        <v>33754348643400</v>
       </c>
       <c r="D118" s="2">
-        <f t="shared" si="24"/>
-        <v>19645720.699999999</v>
+        <f t="shared" si="28"/>
+        <v>381318895.69999999</v>
       </c>
       <c r="E118" s="2"/>
       <c r="J118" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K118">
         <v>9900</v>
       </c>
       <c r="L118">
-        <f t="shared" si="21"/>
-        <v>654857.4</v>
+        <f t="shared" si="25"/>
+        <v>12710629.9</v>
       </c>
       <c r="M118">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N118">
-        <f t="shared" si="20"/>
-        <v>16372</v>
+        <f t="shared" si="24"/>
+        <v>317766</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -5310,34 +5310,34 @@
         <v>115</v>
       </c>
       <c r="B119" s="2">
-        <f t="shared" si="22"/>
-        <v>228009425.40000001</v>
+        <f t="shared" si="26"/>
+        <v>3790849061.6999998</v>
       </c>
       <c r="C119">
-        <f t="shared" si="23"/>
-        <v>2257293311460</v>
+        <f t="shared" si="27"/>
+        <v>37529405710830</v>
       </c>
       <c r="D119" s="2">
-        <f t="shared" si="24"/>
-        <v>21498031.5</v>
+        <f t="shared" si="28"/>
+        <v>423965270.10000002</v>
       </c>
       <c r="E119" s="2"/>
       <c r="J119" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K119">
         <v>9900</v>
       </c>
       <c r="L119">
-        <f t="shared" si="21"/>
-        <v>716601.1</v>
+        <f t="shared" si="25"/>
+        <v>14132175.699999999</v>
       </c>
       <c r="M119">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N119">
-        <f t="shared" si="20"/>
-        <v>17916</v>
+        <f t="shared" si="24"/>
+        <v>353305</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -5345,34 +5345,34 @@
         <v>116</v>
       </c>
       <c r="B120" s="2">
-        <f t="shared" si="22"/>
-        <v>249507456.90000001</v>
+        <f t="shared" si="26"/>
+        <v>4214814331.8000002</v>
       </c>
       <c r="C120">
-        <f t="shared" si="23"/>
-        <v>2470123823310</v>
+        <f t="shared" si="27"/>
+        <v>41726661884820</v>
       </c>
       <c r="D120" s="2">
-        <f t="shared" si="24"/>
-        <v>23524988.800000001</v>
+        <f t="shared" si="28"/>
+        <v>471381178.10000002</v>
       </c>
       <c r="E120" s="2"/>
       <c r="J120" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K120">
         <v>9900</v>
       </c>
       <c r="L120">
-        <f t="shared" si="21"/>
-        <v>784166.29999999993</v>
+        <f t="shared" si="25"/>
+        <v>15712706</v>
       </c>
       <c r="M120">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N120">
-        <f t="shared" si="20"/>
-        <v>19605</v>
+        <f t="shared" si="24"/>
+        <v>392818</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -5380,34 +5380,34 @@
         <v>117</v>
       </c>
       <c r="B121" s="2">
-        <f t="shared" si="22"/>
-        <v>273032445.69999999</v>
+        <f t="shared" si="26"/>
+        <v>4686195509.8999996</v>
       </c>
       <c r="C121">
-        <f t="shared" si="23"/>
-        <v>2703021212430</v>
+        <f t="shared" si="27"/>
+        <v>46393335548010</v>
       </c>
       <c r="D121" s="2">
-        <f t="shared" si="24"/>
-        <v>25743059.199999999</v>
+        <f t="shared" si="28"/>
+        <v>524100040.10000002</v>
       </c>
       <c r="E121" s="2"/>
       <c r="J121" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K121">
         <v>9900</v>
       </c>
       <c r="L121">
-        <f t="shared" si="21"/>
-        <v>858102</v>
+        <f t="shared" si="25"/>
+        <v>17470001.400000002</v>
       </c>
       <c r="M121">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N121">
-        <f t="shared" si="20"/>
-        <v>21453</v>
+        <f t="shared" si="24"/>
+        <v>436751</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -5415,34 +5415,34 @@
         <v>118</v>
       </c>
       <c r="B122" s="2">
-        <f t="shared" si="22"/>
-        <v>298775504.89999998</v>
+        <f t="shared" si="26"/>
+        <v>5210295550</v>
       </c>
       <c r="C122">
-        <f t="shared" si="23"/>
-        <v>2957877498510</v>
+        <f t="shared" si="27"/>
+        <v>51581925945000</v>
       </c>
       <c r="D122" s="2">
-        <f t="shared" si="24"/>
-        <v>28170261.899999999</v>
+        <f t="shared" si="28"/>
+        <v>582714933.89999998</v>
       </c>
       <c r="E122" s="2"/>
       <c r="J122" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K122">
         <v>9900</v>
       </c>
       <c r="L122">
-        <f t="shared" si="21"/>
-        <v>939008.79999999993</v>
+        <f t="shared" si="25"/>
+        <v>19423831.200000003</v>
       </c>
       <c r="M122">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N122">
-        <f t="shared" si="20"/>
-        <v>23476</v>
+        <f t="shared" si="24"/>
+        <v>485596</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -5450,34 +5450,34 @@
         <v>119</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" si="22"/>
-        <v>326945766.80000001</v>
+        <f t="shared" si="26"/>
+        <v>5793010483.8999996</v>
       </c>
       <c r="C123">
-        <f t="shared" si="23"/>
-        <v>3236763091320</v>
+        <f t="shared" si="27"/>
+        <v>57350803790610</v>
       </c>
       <c r="D123" s="2">
-        <f t="shared" si="24"/>
-        <v>30826315.199999999</v>
+        <f t="shared" si="28"/>
+        <v>647885266.5</v>
       </c>
       <c r="E123" s="2"/>
       <c r="J123" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K123">
         <v>9900</v>
       </c>
       <c r="L123">
-        <f t="shared" si="21"/>
-        <v>1027543.9</v>
+        <f t="shared" si="25"/>
+        <v>21596175.600000001</v>
       </c>
       <c r="M123">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N123">
-        <f t="shared" si="20"/>
-        <v>25689</v>
+        <f t="shared" si="24"/>
+        <v>539905</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -5485,34 +5485,34 @@
         <v>120</v>
       </c>
       <c r="B124" s="2">
-        <f t="shared" si="22"/>
-        <v>357772082</v>
+        <f t="shared" si="26"/>
+        <v>6440895750.3999996</v>
       </c>
       <c r="C124">
-        <f t="shared" si="23"/>
-        <v>3541943611800</v>
+        <f t="shared" si="27"/>
+        <v>63764867928960</v>
       </c>
       <c r="D124" s="2">
-        <f t="shared" si="24"/>
-        <v>33732796.299999997</v>
+        <f t="shared" si="28"/>
+        <v>720344192.60000002</v>
       </c>
       <c r="E124" s="2"/>
       <c r="J124" s="1">
-        <v>100000</v>
+        <v>84000</v>
       </c>
       <c r="K124">
         <v>9900</v>
       </c>
       <c r="L124">
-        <f t="shared" si="21"/>
-        <v>1124426.6000000001</v>
+        <f t="shared" si="25"/>
+        <v>24011473.100000001</v>
       </c>
       <c r="M124">
-        <v>5000</v>
+        <v>4520</v>
       </c>
       <c r="N124">
-        <f t="shared" si="20"/>
-        <v>28111</v>
+        <f t="shared" si="24"/>
+        <v>600287</v>
       </c>
     </row>
   </sheetData>
